--- a/翌期会計データ.xlsx
+++ b/翌期会計データ.xlsx
@@ -455,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -621,13 +621,13 @@
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>【合計】</t>
-        </is>
-      </c>
-      <c r="C8" s="3" t="n">
+          <t>計</t>
+        </is>
+      </c>
+      <c r="C8" s="3" t="inlineStr"/>
+      <c r="D8" s="3" t="n">
         <v>1454666</v>
       </c>
-      <c r="D8" s="3" t="inlineStr"/>
       <c r="E8" s="2" t="inlineStr"/>
       <c r="F8" s="2" t="inlineStr">
         <is>
@@ -638,12 +638,16 @@
     <row r="9" ht="18" customHeight="1">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>ゆうちょ定期</t>
-        </is>
-      </c>
-      <c r="B9" s="2" t="inlineStr"/>
+          <t>普通預金</t>
+        </is>
+      </c>
+      <c r="B9" s="2" t="inlineStr">
+        <is>
+          <t>【合計】</t>
+        </is>
+      </c>
       <c r="C9" s="3" t="n">
-        <v>1000000</v>
+        <v>1454666</v>
       </c>
       <c r="D9" s="3" t="inlineStr"/>
       <c r="E9" s="2" t="inlineStr"/>
@@ -656,12 +660,12 @@
     <row r="10" ht="18" customHeight="1">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>前払金</t>
+          <t>ゆうちょ定期</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr"/>
       <c r="C10" s="3" t="n">
-        <v>0</v>
+        <v>1000000</v>
       </c>
       <c r="D10" s="3" t="inlineStr"/>
       <c r="E10" s="2" t="inlineStr"/>
@@ -674,7 +678,7 @@
     <row r="11" ht="18" customHeight="1">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>前受金</t>
+          <t>前払金</t>
         </is>
       </c>
       <c r="B11" s="2" t="inlineStr"/>
@@ -685,65 +689,53 @@
       <c r="E11" s="2" t="inlineStr"/>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>負債</t>
+          <t>資産</t>
         </is>
       </c>
     </row>
     <row r="12" ht="18" customHeight="1">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>会費収入</t>
-        </is>
-      </c>
-      <c r="B12" s="2" t="inlineStr">
-        <is>
-          <t>正会員</t>
-        </is>
-      </c>
-      <c r="C12" s="3" t="inlineStr"/>
-      <c r="D12" s="3" t="n">
-        <v>0</v>
-      </c>
+          <t>++ 資産計 ++</t>
+        </is>
+      </c>
+      <c r="B12" s="2" t="inlineStr"/>
+      <c r="C12" s="3" t="n">
+        <v>2637022</v>
+      </c>
+      <c r="D12" s="3" t="inlineStr"/>
       <c r="E12" s="2" t="inlineStr"/>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>収入</t>
+          <t>資産</t>
         </is>
       </c>
     </row>
     <row r="13" ht="18" customHeight="1">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>会費収入</t>
-        </is>
-      </c>
-      <c r="B13" s="2" t="inlineStr">
-        <is>
-          <t>準会員</t>
-        </is>
-      </c>
-      <c r="C13" s="3" t="inlineStr"/>
-      <c r="D13" s="3" t="n">
+          <t>前受金</t>
+        </is>
+      </c>
+      <c r="B13" s="2" t="inlineStr"/>
+      <c r="C13" s="3" t="n">
         <v>0</v>
       </c>
+      <c r="D13" s="3" t="inlineStr"/>
       <c r="E13" s="2" t="inlineStr"/>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>収入</t>
+          <t>負債</t>
         </is>
       </c>
     </row>
     <row r="14" ht="18" customHeight="1">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>会費収入</t>
-        </is>
-      </c>
-      <c r="B14" s="2" t="inlineStr">
-        <is>
-          <t>【合計】</t>
-        </is>
-      </c>
+          <t>++ 負債計 ++</t>
+        </is>
+      </c>
+      <c r="B14" s="2" t="inlineStr"/>
       <c r="C14" s="3" t="n">
         <v>0</v>
       </c>
@@ -751,39 +743,43 @@
       <c r="E14" s="2" t="inlineStr"/>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>収入</t>
+          <t>負債</t>
         </is>
       </c>
     </row>
     <row r="15" ht="18" customHeight="1">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>入会金収入</t>
+          <t>** 純資産 **</t>
         </is>
       </c>
       <c r="B15" s="2" t="inlineStr"/>
       <c r="C15" s="3" t="n">
-        <v>0</v>
+        <v>2637022</v>
       </c>
       <c r="D15" s="3" t="inlineStr"/>
       <c r="E15" s="2" t="inlineStr"/>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>収入</t>
+          <t>負債</t>
         </is>
       </c>
     </row>
     <row r="16" ht="18" customHeight="1">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>預貯金利子</t>
-        </is>
-      </c>
-      <c r="B16" s="2" t="inlineStr"/>
-      <c r="C16" s="3" t="n">
+          <t>会費収入</t>
+        </is>
+      </c>
+      <c r="B16" s="2" t="inlineStr">
+        <is>
+          <t>正会員</t>
+        </is>
+      </c>
+      <c r="C16" s="3" t="inlineStr"/>
+      <c r="D16" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="D16" s="3" t="inlineStr"/>
       <c r="E16" s="2" t="inlineStr"/>
       <c r="F16" s="2" t="inlineStr">
         <is>
@@ -794,14 +790,18 @@
     <row r="17" ht="18" customHeight="1">
       <c r="A17" s="2" t="inlineStr">
         <is>
-          <t>雑収入</t>
-        </is>
-      </c>
-      <c r="B17" s="2" t="inlineStr"/>
-      <c r="C17" s="3" t="n">
+          <t>会費収入</t>
+        </is>
+      </c>
+      <c r="B17" s="2" t="inlineStr">
+        <is>
+          <t>準会員</t>
+        </is>
+      </c>
+      <c r="C17" s="3" t="inlineStr"/>
+      <c r="D17" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="D17" s="3" t="inlineStr"/>
       <c r="E17" s="2" t="inlineStr"/>
       <c r="F17" s="2" t="inlineStr">
         <is>
@@ -812,12 +812,12 @@
     <row r="18" ht="18" customHeight="1">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>行事費</t>
+          <t>会費収入</t>
         </is>
       </c>
       <c r="B18" s="2" t="inlineStr">
         <is>
-          <t>B事業</t>
+          <t>計</t>
         </is>
       </c>
       <c r="C18" s="3" t="inlineStr"/>
@@ -827,43 +827,39 @@
       <c r="E18" s="2" t="inlineStr"/>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>支出</t>
+          <t>収入</t>
         </is>
       </c>
     </row>
     <row r="19" ht="18" customHeight="1">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>行事費</t>
+          <t>会費収入</t>
         </is>
       </c>
       <c r="B19" s="2" t="inlineStr">
         <is>
-          <t>C事業</t>
-        </is>
-      </c>
-      <c r="C19" s="3" t="inlineStr"/>
-      <c r="D19" s="3" t="n">
+          <t>【合計】</t>
+        </is>
+      </c>
+      <c r="C19" s="3" t="n">
         <v>0</v>
       </c>
+      <c r="D19" s="3" t="inlineStr"/>
       <c r="E19" s="2" t="inlineStr"/>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>支出</t>
+          <t>収入</t>
         </is>
       </c>
     </row>
     <row r="20" ht="18" customHeight="1">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>行事費</t>
-        </is>
-      </c>
-      <c r="B20" s="2" t="inlineStr">
-        <is>
-          <t>【合計】</t>
-        </is>
-      </c>
+          <t>入会金収入</t>
+        </is>
+      </c>
+      <c r="B20" s="2" t="inlineStr"/>
       <c r="C20" s="3" t="n">
         <v>0</v>
       </c>
@@ -871,14 +867,14 @@
       <c r="E20" s="2" t="inlineStr"/>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>支出</t>
+          <t>収入</t>
         </is>
       </c>
     </row>
     <row r="21" ht="18" customHeight="1">
       <c r="A21" s="2" t="inlineStr">
         <is>
-          <t>交際費</t>
+          <t>預貯金利子</t>
         </is>
       </c>
       <c r="B21" s="2" t="inlineStr"/>
@@ -889,14 +885,14 @@
       <c r="E21" s="2" t="inlineStr"/>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>支出</t>
+          <t>収入</t>
         </is>
       </c>
     </row>
     <row r="22" ht="18" customHeight="1">
       <c r="A22" s="2" t="inlineStr">
         <is>
-          <t>旅費</t>
+          <t>雑収入</t>
         </is>
       </c>
       <c r="B22" s="2" t="inlineStr"/>
@@ -907,14 +903,14 @@
       <c r="E22" s="2" t="inlineStr"/>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>支出</t>
+          <t>収入</t>
         </is>
       </c>
     </row>
     <row r="23" ht="18" customHeight="1">
       <c r="A23" s="2" t="inlineStr">
         <is>
-          <t>会議費</t>
+          <t>++ 収入計 ++</t>
         </is>
       </c>
       <c r="B23" s="2" t="inlineStr"/>
@@ -925,21 +921,25 @@
       <c r="E23" s="2" t="inlineStr"/>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>支出</t>
+          <t>収入</t>
         </is>
       </c>
     </row>
     <row r="24" ht="18" customHeight="1">
       <c r="A24" s="2" t="inlineStr">
         <is>
-          <t>通信費</t>
-        </is>
-      </c>
-      <c r="B24" s="2" t="inlineStr"/>
-      <c r="C24" s="3" t="n">
+          <t>行事費</t>
+        </is>
+      </c>
+      <c r="B24" s="2" t="inlineStr">
+        <is>
+          <t>B事業</t>
+        </is>
+      </c>
+      <c r="C24" s="3" t="inlineStr"/>
+      <c r="D24" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="D24" s="3" t="inlineStr"/>
       <c r="E24" s="2" t="inlineStr"/>
       <c r="F24" s="2" t="inlineStr">
         <is>
@@ -950,16 +950,190 @@
     <row r="25" ht="18" customHeight="1">
       <c r="A25" s="2" t="inlineStr">
         <is>
-          <t>事務費</t>
-        </is>
-      </c>
-      <c r="B25" s="2" t="inlineStr"/>
-      <c r="C25" s="3" t="n">
+          <t>行事費</t>
+        </is>
+      </c>
+      <c r="B25" s="2" t="inlineStr">
+        <is>
+          <t>C事業</t>
+        </is>
+      </c>
+      <c r="C25" s="3" t="inlineStr"/>
+      <c r="D25" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="D25" s="3" t="inlineStr"/>
       <c r="E25" s="2" t="inlineStr"/>
       <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>支出</t>
+        </is>
+      </c>
+    </row>
+    <row r="26" ht="18" customHeight="1">
+      <c r="A26" s="2" t="inlineStr">
+        <is>
+          <t>行事費</t>
+        </is>
+      </c>
+      <c r="B26" s="2" t="inlineStr">
+        <is>
+          <t>計</t>
+        </is>
+      </c>
+      <c r="C26" s="3" t="inlineStr"/>
+      <c r="D26" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" s="2" t="inlineStr"/>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>支出</t>
+        </is>
+      </c>
+    </row>
+    <row r="27" ht="18" customHeight="1">
+      <c r="A27" s="2" t="inlineStr">
+        <is>
+          <t>行事費</t>
+        </is>
+      </c>
+      <c r="B27" s="2" t="inlineStr">
+        <is>
+          <t>【合計】</t>
+        </is>
+      </c>
+      <c r="C27" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" s="3" t="inlineStr"/>
+      <c r="E27" s="2" t="inlineStr"/>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>支出</t>
+        </is>
+      </c>
+    </row>
+    <row r="28" ht="18" customHeight="1">
+      <c r="A28" s="2" t="inlineStr">
+        <is>
+          <t>交際費</t>
+        </is>
+      </c>
+      <c r="B28" s="2" t="inlineStr"/>
+      <c r="C28" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" s="3" t="inlineStr"/>
+      <c r="E28" s="2" t="inlineStr"/>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>支出</t>
+        </is>
+      </c>
+    </row>
+    <row r="29" ht="18" customHeight="1">
+      <c r="A29" s="2" t="inlineStr">
+        <is>
+          <t>旅費</t>
+        </is>
+      </c>
+      <c r="B29" s="2" t="inlineStr"/>
+      <c r="C29" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" s="3" t="inlineStr"/>
+      <c r="E29" s="2" t="inlineStr"/>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>支出</t>
+        </is>
+      </c>
+    </row>
+    <row r="30" ht="18" customHeight="1">
+      <c r="A30" s="2" t="inlineStr">
+        <is>
+          <t>会議費</t>
+        </is>
+      </c>
+      <c r="B30" s="2" t="inlineStr"/>
+      <c r="C30" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" s="3" t="inlineStr"/>
+      <c r="E30" s="2" t="inlineStr"/>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>支出</t>
+        </is>
+      </c>
+    </row>
+    <row r="31" ht="18" customHeight="1">
+      <c r="A31" s="2" t="inlineStr">
+        <is>
+          <t>通信費</t>
+        </is>
+      </c>
+      <c r="B31" s="2" t="inlineStr"/>
+      <c r="C31" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" s="3" t="inlineStr"/>
+      <c r="E31" s="2" t="inlineStr"/>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>支出</t>
+        </is>
+      </c>
+    </row>
+    <row r="32" ht="18" customHeight="1">
+      <c r="A32" s="2" t="inlineStr">
+        <is>
+          <t>事務費</t>
+        </is>
+      </c>
+      <c r="B32" s="2" t="inlineStr"/>
+      <c r="C32" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" s="3" t="inlineStr"/>
+      <c r="E32" s="2" t="inlineStr"/>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>支出</t>
+        </is>
+      </c>
+    </row>
+    <row r="33" ht="18" customHeight="1">
+      <c r="A33" s="2" t="inlineStr">
+        <is>
+          <t>++ 支出計 ++</t>
+        </is>
+      </c>
+      <c r="B33" s="2" t="inlineStr"/>
+      <c r="C33" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D33" s="3" t="inlineStr"/>
+      <c r="E33" s="2" t="inlineStr"/>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>支出</t>
+        </is>
+      </c>
+    </row>
+    <row r="34" ht="18" customHeight="1">
+      <c r="A34" s="2" t="inlineStr">
+        <is>
+          <t>** 収支 **</t>
+        </is>
+      </c>
+      <c r="B34" s="2" t="inlineStr"/>
+      <c r="C34" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" s="3" t="inlineStr"/>
+      <c r="E34" s="2" t="inlineStr"/>
+      <c r="F34" s="2" t="inlineStr">
         <is>
           <t>支出</t>
         </is>
@@ -1662,10 +1836,10 @@
   </sheetData>
   <dataValidations count="2">
     <dataValidation sqref="B4 B5 B6 B7 B8 B9 B10 B11 B12 B13 B14 B15 B16 B17 B18 B19 B20 B21 B22 B23 B24 B25 B26 B27 B28 B29 B30 B31 B32 B33 B34 B35 B36 B37 B38 B39 B40 B41 B42 B43 B44 B45 B46 B47 B48 B49 B3 E3 E4 E5 E6 E7 E8 E9 E10 E11 E12 E13 E14 E15 E16 E17 E18 E19 E20 E21 E22 E23 E24 E25 E26 E27 E28 E29 E30 E31 E32 E33 E34 E35 E36 E37 E38 E39 E40 E41 E42 E43 E44 E45 E46 E47 E48 E49" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
-      <formula1>基本!$A$5:$A$26</formula1>
+      <formula1>基本!$A$5:$A$35</formula1>
     </dataValidation>
     <dataValidation sqref="C4 C5 C6 C7 C8 C9 C10 C11 C12 C13 C14 C15 C16 C17 C18 C19 C20 C21 C22 C23 C24 C25 C26 C27 C28 C29 C30 C31 C32 C33 C34 C35 C36 C37 C38 C39 C40 C41 C42 C43 C44 C45 C46 C47 C48 C49 C3 F3 F4 F5 F6 F7 F8 F9 F10 F11 F12 F13 F14 F15 F16 F17 F18 F19 F20 F21 F22 F23 F24 F25 F26 F27 F28 F29 F30 F31 F32 F33 F34 F35 F36 F37 F38 F39 F40 F41 F42 F43 F44 F45 F46 F47 F48 F49" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
-      <formula1>基本!$B$5:$B$26</formula1>
+      <formula1>基本!$B$5:$B$35</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2364,10 +2538,10 @@
   </sheetData>
   <dataValidations count="2">
     <dataValidation sqref="B4 B5 B6 B7 B8 B9 B10 B11 B12 B13 B14 B15 B16 B17 B18 B19 B20 B21 B22 B23 B24 B25 B26 B27 B28 B29 B30 B31 B32 B33 B34 B35 B36 B37 B38 B39 B40 B41 B42 B43 B44 B45 B46 B47 B48 B49 B3 E3 E4 E5 E6 E7 E8 E9 E10 E11 E12 E13 E14 E15 E16 E17 E18 E19 E20 E21 E22 E23 E24 E25 E26 E27 E28 E29 E30 E31 E32 E33 E34 E35 E36 E37 E38 E39 E40 E41 E42 E43 E44 E45 E46 E47 E48 E49" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
-      <formula1>基本!$A$5:$A$26</formula1>
+      <formula1>基本!$A$5:$A$35</formula1>
     </dataValidation>
     <dataValidation sqref="C4 C5 C6 C7 C8 C9 C10 C11 C12 C13 C14 C15 C16 C17 C18 C19 C20 C21 C22 C23 C24 C25 C26 C27 C28 C29 C30 C31 C32 C33 C34 C35 C36 C37 C38 C39 C40 C41 C42 C43 C44 C45 C46 C47 C48 C49 C3 F3 F4 F5 F6 F7 F8 F9 F10 F11 F12 F13 F14 F15 F16 F17 F18 F19 F20 F21 F22 F23 F24 F25 F26 F27 F28 F29 F30 F31 F32 F33 F34 F35 F36 F37 F38 F39 F40 F41 F42 F43 F44 F45 F46 F47 F48 F49" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
-      <formula1>基本!$B$5:$B$26</formula1>
+      <formula1>基本!$B$5:$B$35</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3066,10 +3240,10 @@
   </sheetData>
   <dataValidations count="2">
     <dataValidation sqref="B4 B5 B6 B7 B8 B9 B10 B11 B12 B13 B14 B15 B16 B17 B18 B19 B20 B21 B22 B23 B24 B25 B26 B27 B28 B29 B30 B31 B32 B33 B34 B35 B36 B37 B38 B39 B40 B41 B42 B43 B44 B45 B46 B47 B48 B49 B3 E3 E4 E5 E6 E7 E8 E9 E10 E11 E12 E13 E14 E15 E16 E17 E18 E19 E20 E21 E22 E23 E24 E25 E26 E27 E28 E29 E30 E31 E32 E33 E34 E35 E36 E37 E38 E39 E40 E41 E42 E43 E44 E45 E46 E47 E48 E49" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
-      <formula1>基本!$A$5:$A$26</formula1>
+      <formula1>基本!$A$5:$A$35</formula1>
     </dataValidation>
     <dataValidation sqref="C4 C5 C6 C7 C8 C9 C10 C11 C12 C13 C14 C15 C16 C17 C18 C19 C20 C21 C22 C23 C24 C25 C26 C27 C28 C29 C30 C31 C32 C33 C34 C35 C36 C37 C38 C39 C40 C41 C42 C43 C44 C45 C46 C47 C48 C49 C3 F3 F4 F5 F6 F7 F8 F9 F10 F11 F12 F13 F14 F15 F16 F17 F18 F19 F20 F21 F22 F23 F24 F25 F26 F27 F28 F29 F30 F31 F32 F33 F34 F35 F36 F37 F38 F39 F40 F41 F42 F43 F44 F45 F46 F47 F48 F49" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
-      <formula1>基本!$B$5:$B$26</formula1>
+      <formula1>基本!$B$5:$B$35</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3677,10 +3851,10 @@
   </sheetData>
   <dataValidations count="2">
     <dataValidation sqref="B4 B5 B6 B7 B8 B9 B10 B11 B12 B13 B14 B15 B16 B17 B18 B19 B20 B21 B22 B23 B24 B25 B26 B27 B28 B29 B30 B31 B32 B33 B34 B35 B36 B37 B38 B39 B40 B41 B42 B43 B44 B45 B46 B47 B48 B49 B3 E3 E4 E5 E6 E7 E8 E9 E10 E11 E12 E13 E14 E15 E16 E17 E18 E19 E20 E21 E22 E23 E24 E25 E26 E27 E28 E29 E30 E31 E32 E33 E34 E35 E36 E37 E38 E39 E40 E41 E42 E43 E44 E45 E46 E47 E48 E49" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
-      <formula1>基本!$A$5:$A$26</formula1>
+      <formula1>基本!$A$5:$A$35</formula1>
     </dataValidation>
     <dataValidation sqref="C4 C5 C6 C7 C8 C9 C10 C11 C12 C13 C14 C15 C16 C17 C18 C19 C20 C21 C22 C23 C24 C25 C26 C27 C28 C29 C30 C31 C32 C33 C34 C35 C36 C37 C38 C39 C40 C41 C42 C43 C44 C45 C46 C47 C48 C49 C3 F3 F4 F5 F6 F7 F8 F9 F10 F11 F12 F13 F14 F15 F16 F17 F18 F19 F20 F21 F22 F23 F24 F25 F26 F27 F28 F29 F30 F31 F32 F33 F34 F35 F36 F37 F38 F39 F40 F41 F42 F43 F44 F45 F46 F47 F48 F49" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
-      <formula1>基本!$B$5:$B$26</formula1>
+      <formula1>基本!$B$5:$B$35</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/翌期会計データ.xlsx
+++ b/翌期会計データ.xlsx
@@ -81,7 +81,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
@@ -90,6 +90,7 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -491,7 +492,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022/4/1</t>
+          <t>2022-4-1</t>
         </is>
       </c>
     </row>
@@ -503,7 +504,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2023/3/31</t>
+          <t>2023-3-31</t>
         </is>
       </c>
     </row>
@@ -600,7 +601,7 @@
       </c>
       <c r="C7" s="3" t="inlineStr"/>
       <c r="D7" s="3" t="n">
-        <v>700654</v>
+        <v>987654</v>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
@@ -626,7 +627,7 @@
       </c>
       <c r="C8" s="3" t="inlineStr"/>
       <c r="D8" s="3" t="n">
-        <v>1454666</v>
+        <v>1741666</v>
       </c>
       <c r="E8" s="2" t="inlineStr"/>
       <c r="F8" s="2" t="inlineStr">
@@ -647,7 +648,7 @@
         </is>
       </c>
       <c r="C9" s="3" t="n">
-        <v>1454666</v>
+        <v>1741666</v>
       </c>
       <c r="D9" s="3" t="inlineStr"/>
       <c r="E9" s="2" t="inlineStr"/>
@@ -701,7 +702,7 @@
       </c>
       <c r="B12" s="2" t="inlineStr"/>
       <c r="C12" s="3" t="n">
-        <v>2637022</v>
+        <v>2924022</v>
       </c>
       <c r="D12" s="3" t="inlineStr"/>
       <c r="E12" s="2" t="inlineStr"/>
@@ -755,7 +756,7 @@
       </c>
       <c r="B15" s="2" t="inlineStr"/>
       <c r="C15" s="3" t="n">
-        <v>2637022</v>
+        <v>2924022</v>
       </c>
       <c r="D15" s="3" t="inlineStr"/>
       <c r="E15" s="2" t="inlineStr"/>
@@ -1219,10 +1220,9 @@
       </c>
     </row>
     <row r="3" ht="18" customHeight="1">
-      <c r="A3" s="4" t="inlineStr">
-        <is>
-          <t>2022-4-1</t>
-        </is>
+      <c r="A3" s="4">
+        <f>TEXT(44652,"yyyy-mm-dd")</f>
+        <v/>
       </c>
       <c r="B3" s="5" t="n"/>
       <c r="C3" s="5" t="n"/>
@@ -1238,7 +1238,7 @@
       <c r="A4" s="4" t="inlineStr"/>
       <c r="B4" s="2" t="inlineStr"/>
       <c r="C4" s="2" t="inlineStr"/>
-      <c r="D4" s="2" t="inlineStr"/>
+      <c r="D4" s="6" t="inlineStr"/>
       <c r="E4" s="2" t="inlineStr"/>
       <c r="F4" s="3" t="inlineStr"/>
       <c r="G4" s="3" t="inlineStr"/>
@@ -1251,7 +1251,7 @@
       <c r="A5" s="4" t="inlineStr"/>
       <c r="B5" s="2" t="inlineStr"/>
       <c r="C5" s="2" t="inlineStr"/>
-      <c r="D5" s="2" t="inlineStr"/>
+      <c r="D5" s="6" t="inlineStr"/>
       <c r="E5" s="2" t="inlineStr"/>
       <c r="F5" s="3" t="inlineStr"/>
       <c r="G5" s="3" t="inlineStr"/>
@@ -1264,7 +1264,7 @@
       <c r="A6" s="4" t="inlineStr"/>
       <c r="B6" s="2" t="inlineStr"/>
       <c r="C6" s="2" t="inlineStr"/>
-      <c r="D6" s="2" t="inlineStr"/>
+      <c r="D6" s="6" t="inlineStr"/>
       <c r="E6" s="2" t="inlineStr"/>
       <c r="F6" s="3" t="inlineStr"/>
       <c r="G6" s="3" t="inlineStr"/>
@@ -1277,7 +1277,7 @@
       <c r="A7" s="4" t="inlineStr"/>
       <c r="B7" s="2" t="inlineStr"/>
       <c r="C7" s="2" t="inlineStr"/>
-      <c r="D7" s="2" t="inlineStr"/>
+      <c r="D7" s="6" t="inlineStr"/>
       <c r="E7" s="2" t="inlineStr"/>
       <c r="F7" s="3" t="inlineStr"/>
       <c r="G7" s="3" t="inlineStr"/>
@@ -1290,7 +1290,7 @@
       <c r="A8" s="4" t="inlineStr"/>
       <c r="B8" s="2" t="inlineStr"/>
       <c r="C8" s="2" t="inlineStr"/>
-      <c r="D8" s="2" t="inlineStr"/>
+      <c r="D8" s="6" t="inlineStr"/>
       <c r="E8" s="2" t="inlineStr"/>
       <c r="F8" s="3" t="inlineStr"/>
       <c r="G8" s="3" t="inlineStr"/>
@@ -1303,7 +1303,7 @@
       <c r="A9" s="4" t="inlineStr"/>
       <c r="B9" s="2" t="inlineStr"/>
       <c r="C9" s="2" t="inlineStr"/>
-      <c r="D9" s="2" t="inlineStr"/>
+      <c r="D9" s="6" t="inlineStr"/>
       <c r="E9" s="2" t="inlineStr"/>
       <c r="F9" s="3" t="inlineStr"/>
       <c r="G9" s="3" t="inlineStr"/>
@@ -1316,7 +1316,7 @@
       <c r="A10" s="4" t="inlineStr"/>
       <c r="B10" s="2" t="inlineStr"/>
       <c r="C10" s="2" t="inlineStr"/>
-      <c r="D10" s="2" t="inlineStr"/>
+      <c r="D10" s="6" t="inlineStr"/>
       <c r="E10" s="2" t="inlineStr"/>
       <c r="F10" s="3" t="inlineStr"/>
       <c r="G10" s="3" t="inlineStr"/>
@@ -1329,7 +1329,7 @@
       <c r="A11" s="4" t="inlineStr"/>
       <c r="B11" s="2" t="inlineStr"/>
       <c r="C11" s="2" t="inlineStr"/>
-      <c r="D11" s="2" t="inlineStr"/>
+      <c r="D11" s="6" t="inlineStr"/>
       <c r="E11" s="2" t="inlineStr"/>
       <c r="F11" s="3" t="inlineStr"/>
       <c r="G11" s="3" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
       <c r="A12" s="4" t="inlineStr"/>
       <c r="B12" s="2" t="inlineStr"/>
       <c r="C12" s="2" t="inlineStr"/>
-      <c r="D12" s="2" t="inlineStr"/>
+      <c r="D12" s="6" t="inlineStr"/>
       <c r="E12" s="2" t="inlineStr"/>
       <c r="F12" s="3" t="inlineStr"/>
       <c r="G12" s="3" t="inlineStr"/>
@@ -1355,7 +1355,7 @@
       <c r="A13" s="4" t="inlineStr"/>
       <c r="B13" s="2" t="inlineStr"/>
       <c r="C13" s="2" t="inlineStr"/>
-      <c r="D13" s="2" t="inlineStr"/>
+      <c r="D13" s="6" t="inlineStr"/>
       <c r="E13" s="2" t="inlineStr"/>
       <c r="F13" s="3" t="inlineStr"/>
       <c r="G13" s="3" t="inlineStr"/>
@@ -1368,7 +1368,7 @@
       <c r="A14" s="4" t="inlineStr"/>
       <c r="B14" s="2" t="inlineStr"/>
       <c r="C14" s="2" t="inlineStr"/>
-      <c r="D14" s="2" t="inlineStr"/>
+      <c r="D14" s="6" t="inlineStr"/>
       <c r="E14" s="2" t="inlineStr"/>
       <c r="F14" s="3" t="inlineStr"/>
       <c r="G14" s="3" t="inlineStr"/>
@@ -1381,7 +1381,7 @@
       <c r="A15" s="4" t="inlineStr"/>
       <c r="B15" s="2" t="inlineStr"/>
       <c r="C15" s="2" t="inlineStr"/>
-      <c r="D15" s="2" t="inlineStr"/>
+      <c r="D15" s="6" t="inlineStr"/>
       <c r="E15" s="2" t="inlineStr"/>
       <c r="F15" s="3" t="inlineStr"/>
       <c r="G15" s="3" t="inlineStr"/>
@@ -1394,7 +1394,7 @@
       <c r="A16" s="4" t="inlineStr"/>
       <c r="B16" s="2" t="inlineStr"/>
       <c r="C16" s="2" t="inlineStr"/>
-      <c r="D16" s="2" t="inlineStr"/>
+      <c r="D16" s="6" t="inlineStr"/>
       <c r="E16" s="2" t="inlineStr"/>
       <c r="F16" s="3" t="inlineStr"/>
       <c r="G16" s="3" t="inlineStr"/>
@@ -1407,7 +1407,7 @@
       <c r="A17" s="4" t="inlineStr"/>
       <c r="B17" s="2" t="inlineStr"/>
       <c r="C17" s="2" t="inlineStr"/>
-      <c r="D17" s="2" t="inlineStr"/>
+      <c r="D17" s="6" t="inlineStr"/>
       <c r="E17" s="2" t="inlineStr"/>
       <c r="F17" s="3" t="inlineStr"/>
       <c r="G17" s="3" t="inlineStr"/>
@@ -1420,7 +1420,7 @@
       <c r="A18" s="4" t="inlineStr"/>
       <c r="B18" s="2" t="inlineStr"/>
       <c r="C18" s="2" t="inlineStr"/>
-      <c r="D18" s="2" t="inlineStr"/>
+      <c r="D18" s="6" t="inlineStr"/>
       <c r="E18" s="2" t="inlineStr"/>
       <c r="F18" s="3" t="inlineStr"/>
       <c r="G18" s="3" t="inlineStr"/>
@@ -1433,7 +1433,7 @@
       <c r="A19" s="4" t="inlineStr"/>
       <c r="B19" s="2" t="inlineStr"/>
       <c r="C19" s="2" t="inlineStr"/>
-      <c r="D19" s="2" t="inlineStr"/>
+      <c r="D19" s="6" t="inlineStr"/>
       <c r="E19" s="2" t="inlineStr"/>
       <c r="F19" s="3" t="inlineStr"/>
       <c r="G19" s="3" t="inlineStr"/>
@@ -1446,7 +1446,7 @@
       <c r="A20" s="4" t="inlineStr"/>
       <c r="B20" s="2" t="inlineStr"/>
       <c r="C20" s="2" t="inlineStr"/>
-      <c r="D20" s="2" t="inlineStr"/>
+      <c r="D20" s="6" t="inlineStr"/>
       <c r="E20" s="2" t="inlineStr"/>
       <c r="F20" s="3" t="inlineStr"/>
       <c r="G20" s="3" t="inlineStr"/>
@@ -1459,7 +1459,7 @@
       <c r="A21" s="4" t="inlineStr"/>
       <c r="B21" s="2" t="inlineStr"/>
       <c r="C21" s="2" t="inlineStr"/>
-      <c r="D21" s="2" t="inlineStr"/>
+      <c r="D21" s="6" t="inlineStr"/>
       <c r="E21" s="2" t="inlineStr"/>
       <c r="F21" s="3" t="inlineStr"/>
       <c r="G21" s="3" t="inlineStr"/>
@@ -1472,7 +1472,7 @@
       <c r="A22" s="4" t="inlineStr"/>
       <c r="B22" s="2" t="inlineStr"/>
       <c r="C22" s="2" t="inlineStr"/>
-      <c r="D22" s="2" t="inlineStr"/>
+      <c r="D22" s="6" t="inlineStr"/>
       <c r="E22" s="2" t="inlineStr"/>
       <c r="F22" s="3" t="inlineStr"/>
       <c r="G22" s="3" t="inlineStr"/>
@@ -1485,7 +1485,7 @@
       <c r="A23" s="4" t="inlineStr"/>
       <c r="B23" s="2" t="inlineStr"/>
       <c r="C23" s="2" t="inlineStr"/>
-      <c r="D23" s="2" t="inlineStr"/>
+      <c r="D23" s="6" t="inlineStr"/>
       <c r="E23" s="2" t="inlineStr"/>
       <c r="F23" s="3" t="inlineStr"/>
       <c r="G23" s="3" t="inlineStr"/>
@@ -1498,7 +1498,7 @@
       <c r="A24" s="4" t="inlineStr"/>
       <c r="B24" s="2" t="inlineStr"/>
       <c r="C24" s="2" t="inlineStr"/>
-      <c r="D24" s="2" t="inlineStr"/>
+      <c r="D24" s="6" t="inlineStr"/>
       <c r="E24" s="2" t="inlineStr"/>
       <c r="F24" s="3" t="inlineStr"/>
       <c r="G24" s="3" t="inlineStr"/>
@@ -1511,7 +1511,7 @@
       <c r="A25" s="4" t="inlineStr"/>
       <c r="B25" s="2" t="inlineStr"/>
       <c r="C25" s="2" t="inlineStr"/>
-      <c r="D25" s="2" t="inlineStr"/>
+      <c r="D25" s="6" t="inlineStr"/>
       <c r="E25" s="2" t="inlineStr"/>
       <c r="F25" s="3" t="inlineStr"/>
       <c r="G25" s="3" t="inlineStr"/>
@@ -1524,7 +1524,7 @@
       <c r="A26" s="4" t="inlineStr"/>
       <c r="B26" s="2" t="inlineStr"/>
       <c r="C26" s="2" t="inlineStr"/>
-      <c r="D26" s="2" t="inlineStr"/>
+      <c r="D26" s="6" t="inlineStr"/>
       <c r="E26" s="2" t="inlineStr"/>
       <c r="F26" s="3" t="inlineStr"/>
       <c r="G26" s="3" t="inlineStr"/>
@@ -1537,7 +1537,7 @@
       <c r="A27" s="4" t="inlineStr"/>
       <c r="B27" s="2" t="inlineStr"/>
       <c r="C27" s="2" t="inlineStr"/>
-      <c r="D27" s="2" t="inlineStr"/>
+      <c r="D27" s="6" t="inlineStr"/>
       <c r="E27" s="2" t="inlineStr"/>
       <c r="F27" s="3" t="inlineStr"/>
       <c r="G27" s="3" t="inlineStr"/>
@@ -1550,7 +1550,7 @@
       <c r="A28" s="4" t="inlineStr"/>
       <c r="B28" s="2" t="inlineStr"/>
       <c r="C28" s="2" t="inlineStr"/>
-      <c r="D28" s="2" t="inlineStr"/>
+      <c r="D28" s="6" t="inlineStr"/>
       <c r="E28" s="2" t="inlineStr"/>
       <c r="F28" s="3" t="inlineStr"/>
       <c r="G28" s="3" t="inlineStr"/>
@@ -1563,7 +1563,7 @@
       <c r="A29" s="4" t="inlineStr"/>
       <c r="B29" s="2" t="inlineStr"/>
       <c r="C29" s="2" t="inlineStr"/>
-      <c r="D29" s="2" t="inlineStr"/>
+      <c r="D29" s="6" t="inlineStr"/>
       <c r="E29" s="2" t="inlineStr"/>
       <c r="F29" s="3" t="inlineStr"/>
       <c r="G29" s="3" t="inlineStr"/>
@@ -1576,7 +1576,7 @@
       <c r="A30" s="4" t="inlineStr"/>
       <c r="B30" s="2" t="inlineStr"/>
       <c r="C30" s="2" t="inlineStr"/>
-      <c r="D30" s="2" t="inlineStr"/>
+      <c r="D30" s="6" t="inlineStr"/>
       <c r="E30" s="2" t="inlineStr"/>
       <c r="F30" s="3" t="inlineStr"/>
       <c r="G30" s="3" t="inlineStr"/>
@@ -1589,7 +1589,7 @@
       <c r="A31" s="4" t="inlineStr"/>
       <c r="B31" s="2" t="inlineStr"/>
       <c r="C31" s="2" t="inlineStr"/>
-      <c r="D31" s="2" t="inlineStr"/>
+      <c r="D31" s="6" t="inlineStr"/>
       <c r="E31" s="2" t="inlineStr"/>
       <c r="F31" s="3" t="inlineStr"/>
       <c r="G31" s="3" t="inlineStr"/>
@@ -1602,7 +1602,7 @@
       <c r="A32" s="4" t="inlineStr"/>
       <c r="B32" s="2" t="inlineStr"/>
       <c r="C32" s="2" t="inlineStr"/>
-      <c r="D32" s="2" t="inlineStr"/>
+      <c r="D32" s="6" t="inlineStr"/>
       <c r="E32" s="2" t="inlineStr"/>
       <c r="F32" s="3" t="inlineStr"/>
       <c r="G32" s="3" t="inlineStr"/>
@@ -1615,7 +1615,7 @@
       <c r="A33" s="4" t="inlineStr"/>
       <c r="B33" s="2" t="inlineStr"/>
       <c r="C33" s="2" t="inlineStr"/>
-      <c r="D33" s="2" t="inlineStr"/>
+      <c r="D33" s="6" t="inlineStr"/>
       <c r="E33" s="2" t="inlineStr"/>
       <c r="F33" s="3" t="inlineStr"/>
       <c r="G33" s="3" t="inlineStr"/>
@@ -1628,7 +1628,7 @@
       <c r="A34" s="4" t="inlineStr"/>
       <c r="B34" s="2" t="inlineStr"/>
       <c r="C34" s="2" t="inlineStr"/>
-      <c r="D34" s="2" t="inlineStr"/>
+      <c r="D34" s="6" t="inlineStr"/>
       <c r="E34" s="2" t="inlineStr"/>
       <c r="F34" s="3" t="inlineStr"/>
       <c r="G34" s="3" t="inlineStr"/>
@@ -1641,7 +1641,7 @@
       <c r="A35" s="4" t="inlineStr"/>
       <c r="B35" s="2" t="inlineStr"/>
       <c r="C35" s="2" t="inlineStr"/>
-      <c r="D35" s="2" t="inlineStr"/>
+      <c r="D35" s="6" t="inlineStr"/>
       <c r="E35" s="2" t="inlineStr"/>
       <c r="F35" s="3" t="inlineStr"/>
       <c r="G35" s="3" t="inlineStr"/>
@@ -1654,7 +1654,7 @@
       <c r="A36" s="4" t="inlineStr"/>
       <c r="B36" s="2" t="inlineStr"/>
       <c r="C36" s="2" t="inlineStr"/>
-      <c r="D36" s="2" t="inlineStr"/>
+      <c r="D36" s="6" t="inlineStr"/>
       <c r="E36" s="2" t="inlineStr"/>
       <c r="F36" s="3" t="inlineStr"/>
       <c r="G36" s="3" t="inlineStr"/>
@@ -1667,7 +1667,7 @@
       <c r="A37" s="4" t="inlineStr"/>
       <c r="B37" s="2" t="inlineStr"/>
       <c r="C37" s="2" t="inlineStr"/>
-      <c r="D37" s="2" t="inlineStr"/>
+      <c r="D37" s="6" t="inlineStr"/>
       <c r="E37" s="2" t="inlineStr"/>
       <c r="F37" s="3" t="inlineStr"/>
       <c r="G37" s="3" t="inlineStr"/>
@@ -1680,7 +1680,7 @@
       <c r="A38" s="4" t="inlineStr"/>
       <c r="B38" s="2" t="inlineStr"/>
       <c r="C38" s="2" t="inlineStr"/>
-      <c r="D38" s="2" t="inlineStr"/>
+      <c r="D38" s="6" t="inlineStr"/>
       <c r="E38" s="2" t="inlineStr"/>
       <c r="F38" s="3" t="inlineStr"/>
       <c r="G38" s="3" t="inlineStr"/>
@@ -1693,7 +1693,7 @@
       <c r="A39" s="4" t="inlineStr"/>
       <c r="B39" s="2" t="inlineStr"/>
       <c r="C39" s="2" t="inlineStr"/>
-      <c r="D39" s="2" t="inlineStr"/>
+      <c r="D39" s="6" t="inlineStr"/>
       <c r="E39" s="2" t="inlineStr"/>
       <c r="F39" s="3" t="inlineStr"/>
       <c r="G39" s="3" t="inlineStr"/>
@@ -1706,7 +1706,7 @@
       <c r="A40" s="4" t="inlineStr"/>
       <c r="B40" s="2" t="inlineStr"/>
       <c r="C40" s="2" t="inlineStr"/>
-      <c r="D40" s="2" t="inlineStr"/>
+      <c r="D40" s="6" t="inlineStr"/>
       <c r="E40" s="2" t="inlineStr"/>
       <c r="F40" s="3" t="inlineStr"/>
       <c r="G40" s="3" t="inlineStr"/>
@@ -1719,7 +1719,7 @@
       <c r="A41" s="4" t="inlineStr"/>
       <c r="B41" s="2" t="inlineStr"/>
       <c r="C41" s="2" t="inlineStr"/>
-      <c r="D41" s="2" t="inlineStr"/>
+      <c r="D41" s="6" t="inlineStr"/>
       <c r="E41" s="2" t="inlineStr"/>
       <c r="F41" s="3" t="inlineStr"/>
       <c r="G41" s="3" t="inlineStr"/>
@@ -1732,7 +1732,7 @@
       <c r="A42" s="4" t="inlineStr"/>
       <c r="B42" s="2" t="inlineStr"/>
       <c r="C42" s="2" t="inlineStr"/>
-      <c r="D42" s="2" t="inlineStr"/>
+      <c r="D42" s="6" t="inlineStr"/>
       <c r="E42" s="2" t="inlineStr"/>
       <c r="F42" s="3" t="inlineStr"/>
       <c r="G42" s="3" t="inlineStr"/>
@@ -1745,7 +1745,7 @@
       <c r="A43" s="4" t="inlineStr"/>
       <c r="B43" s="2" t="inlineStr"/>
       <c r="C43" s="2" t="inlineStr"/>
-      <c r="D43" s="2" t="inlineStr"/>
+      <c r="D43" s="6" t="inlineStr"/>
       <c r="E43" s="2" t="inlineStr"/>
       <c r="F43" s="3" t="inlineStr"/>
       <c r="G43" s="3" t="inlineStr"/>
@@ -1758,7 +1758,7 @@
       <c r="A44" s="4" t="inlineStr"/>
       <c r="B44" s="2" t="inlineStr"/>
       <c r="C44" s="2" t="inlineStr"/>
-      <c r="D44" s="2" t="inlineStr"/>
+      <c r="D44" s="6" t="inlineStr"/>
       <c r="E44" s="2" t="inlineStr"/>
       <c r="F44" s="3" t="inlineStr"/>
       <c r="G44" s="3" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
       <c r="A45" s="4" t="inlineStr"/>
       <c r="B45" s="2" t="inlineStr"/>
       <c r="C45" s="2" t="inlineStr"/>
-      <c r="D45" s="2" t="inlineStr"/>
+      <c r="D45" s="6" t="inlineStr"/>
       <c r="E45" s="2" t="inlineStr"/>
       <c r="F45" s="3" t="inlineStr"/>
       <c r="G45" s="3" t="inlineStr"/>
@@ -1784,7 +1784,7 @@
       <c r="A46" s="4" t="inlineStr"/>
       <c r="B46" s="2" t="inlineStr"/>
       <c r="C46" s="2" t="inlineStr"/>
-      <c r="D46" s="2" t="inlineStr"/>
+      <c r="D46" s="6" t="inlineStr"/>
       <c r="E46" s="2" t="inlineStr"/>
       <c r="F46" s="3" t="inlineStr"/>
       <c r="G46" s="3" t="inlineStr"/>
@@ -1797,7 +1797,7 @@
       <c r="A47" s="4" t="inlineStr"/>
       <c r="B47" s="2" t="inlineStr"/>
       <c r="C47" s="2" t="inlineStr"/>
-      <c r="D47" s="2" t="inlineStr"/>
+      <c r="D47" s="6" t="inlineStr"/>
       <c r="E47" s="2" t="inlineStr"/>
       <c r="F47" s="3" t="inlineStr"/>
       <c r="G47" s="3" t="inlineStr"/>
@@ -1810,7 +1810,7 @@
       <c r="A48" s="4" t="inlineStr"/>
       <c r="B48" s="2" t="inlineStr"/>
       <c r="C48" s="2" t="inlineStr"/>
-      <c r="D48" s="2" t="inlineStr"/>
+      <c r="D48" s="6" t="inlineStr"/>
       <c r="E48" s="2" t="inlineStr"/>
       <c r="F48" s="3" t="inlineStr"/>
       <c r="G48" s="3" t="inlineStr"/>
@@ -1823,7 +1823,7 @@
       <c r="A49" s="4" t="inlineStr"/>
       <c r="B49" s="2" t="inlineStr"/>
       <c r="C49" s="2" t="inlineStr"/>
-      <c r="D49" s="2" t="inlineStr"/>
+      <c r="D49" s="6" t="inlineStr"/>
       <c r="E49" s="2" t="inlineStr"/>
       <c r="F49" s="3" t="inlineStr"/>
       <c r="G49" s="3" t="inlineStr"/>
@@ -1835,11 +1835,11 @@
     <row r="50" ht="18" customHeight="1"/>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation sqref="B4 B5 B6 B7 B8 B9 B10 B11 B12 B13 B14 B15 B16 B17 B18 B19 B20 B21 B22 B23 B24 B25 B26 B27 B28 B29 B30 B31 B32 B33 B34 B35 B36 B37 B38 B39 B40 B41 B42 B43 B44 B45 B46 B47 B48 B49 B3 E3 E4 E5 E6 E7 E8 E9 E10 E11 E12 E13 E14 E15 E16 E17 E18 E19 E20 E21 E22 E23 E24 E25 E26 E27 E28 E29 E30 E31 E32 E33 E34 E35 E36 E37 E38 E39 E40 E41 E42 E43 E44 E45 E46 E47 E48 E49" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
-      <formula1>基本!$A$5:$A$35</formula1>
+    <dataValidation sqref="B4 B5 B6 B7 B8 B9 B10 B11 B12 B13 B14 B15 B16 B17 B18 B19 B20 B21 B22 B23 B24 B25 B26 B27 B28 B29 B30 B31 B32 B33 B34 B35 B36 B37 B38 B39 B40 B41 B42 B43 B44 B45 B46 B47 B48 B49" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
+      <formula1>"現金,普通預金,ゆうちょ定期,前払金,前受金,会費収入,入会金収入,預貯金利子,雑収入,行事費,交際費,旅費,会議費,通信費,事務費"</formula1>
     </dataValidation>
-    <dataValidation sqref="C4 C5 C6 C7 C8 C9 C10 C11 C12 C13 C14 C15 C16 C17 C18 C19 C20 C21 C22 C23 C24 C25 C26 C27 C28 C29 C30 C31 C32 C33 C34 C35 C36 C37 C38 C39 C40 C41 C42 C43 C44 C45 C46 C47 C48 C49 C3 F3 F4 F5 F6 F7 F8 F9 F10 F11 F12 F13 F14 F15 F16 F17 F18 F19 F20 F21 F22 F23 F24 F25 F26 F27 F28 F29 F30 F31 F32 F33 F34 F35 F36 F37 F38 F39 F40 F41 F42 F43 F44 F45 F46 F47 F48 F49" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
-      <formula1>基本!$B$5:$B$35</formula1>
+    <dataValidation sqref="C4 C5 C6 C7 C8 C9 C10 C11 C12 C13 C14 C15 C16 C17 C18 C19 C20 C21 C22 C23 C24 C25 C26 C27 C28 C29 C30 C31 C32 C33 C34 C35 C36 C37 C38 C39 C40 C41 C42 C43 C44 C45 C46 C47 C48 C49" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
+      <formula1>"ゆうちょ,A銀行,正会員,準会員,B事業,C事業"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1921,10 +1921,9 @@
       </c>
     </row>
     <row r="3" ht="18" customHeight="1">
-      <c r="A3" s="4" t="inlineStr">
-        <is>
-          <t>2022-4-1</t>
-        </is>
+      <c r="A3" s="4">
+        <f>TEXT(44652,"yyyy-mm-dd")</f>
+        <v/>
       </c>
       <c r="B3" s="5" t="n"/>
       <c r="C3" s="5" t="n"/>
@@ -1940,7 +1939,7 @@
       <c r="A4" s="4" t="inlineStr"/>
       <c r="B4" s="2" t="inlineStr"/>
       <c r="C4" s="2" t="inlineStr"/>
-      <c r="D4" s="2" t="inlineStr"/>
+      <c r="D4" s="6" t="inlineStr"/>
       <c r="E4" s="2" t="inlineStr"/>
       <c r="F4" s="3" t="inlineStr"/>
       <c r="G4" s="3" t="inlineStr"/>
@@ -1953,7 +1952,7 @@
       <c r="A5" s="4" t="inlineStr"/>
       <c r="B5" s="2" t="inlineStr"/>
       <c r="C5" s="2" t="inlineStr"/>
-      <c r="D5" s="2" t="inlineStr"/>
+      <c r="D5" s="6" t="inlineStr"/>
       <c r="E5" s="2" t="inlineStr"/>
       <c r="F5" s="3" t="inlineStr"/>
       <c r="G5" s="3" t="inlineStr"/>
@@ -1966,7 +1965,7 @@
       <c r="A6" s="4" t="inlineStr"/>
       <c r="B6" s="2" t="inlineStr"/>
       <c r="C6" s="2" t="inlineStr"/>
-      <c r="D6" s="2" t="inlineStr"/>
+      <c r="D6" s="6" t="inlineStr"/>
       <c r="E6" s="2" t="inlineStr"/>
       <c r="F6" s="3" t="inlineStr"/>
       <c r="G6" s="3" t="inlineStr"/>
@@ -1979,7 +1978,7 @@
       <c r="A7" s="4" t="inlineStr"/>
       <c r="B7" s="2" t="inlineStr"/>
       <c r="C7" s="2" t="inlineStr"/>
-      <c r="D7" s="2" t="inlineStr"/>
+      <c r="D7" s="6" t="inlineStr"/>
       <c r="E7" s="2" t="inlineStr"/>
       <c r="F7" s="3" t="inlineStr"/>
       <c r="G7" s="3" t="inlineStr"/>
@@ -1992,7 +1991,7 @@
       <c r="A8" s="4" t="inlineStr"/>
       <c r="B8" s="2" t="inlineStr"/>
       <c r="C8" s="2" t="inlineStr"/>
-      <c r="D8" s="2" t="inlineStr"/>
+      <c r="D8" s="6" t="inlineStr"/>
       <c r="E8" s="2" t="inlineStr"/>
       <c r="F8" s="3" t="inlineStr"/>
       <c r="G8" s="3" t="inlineStr"/>
@@ -2005,7 +2004,7 @@
       <c r="A9" s="4" t="inlineStr"/>
       <c r="B9" s="2" t="inlineStr"/>
       <c r="C9" s="2" t="inlineStr"/>
-      <c r="D9" s="2" t="inlineStr"/>
+      <c r="D9" s="6" t="inlineStr"/>
       <c r="E9" s="2" t="inlineStr"/>
       <c r="F9" s="3" t="inlineStr"/>
       <c r="G9" s="3" t="inlineStr"/>
@@ -2018,7 +2017,7 @@
       <c r="A10" s="4" t="inlineStr"/>
       <c r="B10" s="2" t="inlineStr"/>
       <c r="C10" s="2" t="inlineStr"/>
-      <c r="D10" s="2" t="inlineStr"/>
+      <c r="D10" s="6" t="inlineStr"/>
       <c r="E10" s="2" t="inlineStr"/>
       <c r="F10" s="3" t="inlineStr"/>
       <c r="G10" s="3" t="inlineStr"/>
@@ -2031,7 +2030,7 @@
       <c r="A11" s="4" t="inlineStr"/>
       <c r="B11" s="2" t="inlineStr"/>
       <c r="C11" s="2" t="inlineStr"/>
-      <c r="D11" s="2" t="inlineStr"/>
+      <c r="D11" s="6" t="inlineStr"/>
       <c r="E11" s="2" t="inlineStr"/>
       <c r="F11" s="3" t="inlineStr"/>
       <c r="G11" s="3" t="inlineStr"/>
@@ -2044,7 +2043,7 @@
       <c r="A12" s="4" t="inlineStr"/>
       <c r="B12" s="2" t="inlineStr"/>
       <c r="C12" s="2" t="inlineStr"/>
-      <c r="D12" s="2" t="inlineStr"/>
+      <c r="D12" s="6" t="inlineStr"/>
       <c r="E12" s="2" t="inlineStr"/>
       <c r="F12" s="3" t="inlineStr"/>
       <c r="G12" s="3" t="inlineStr"/>
@@ -2057,7 +2056,7 @@
       <c r="A13" s="4" t="inlineStr"/>
       <c r="B13" s="2" t="inlineStr"/>
       <c r="C13" s="2" t="inlineStr"/>
-      <c r="D13" s="2" t="inlineStr"/>
+      <c r="D13" s="6" t="inlineStr"/>
       <c r="E13" s="2" t="inlineStr"/>
       <c r="F13" s="3" t="inlineStr"/>
       <c r="G13" s="3" t="inlineStr"/>
@@ -2070,7 +2069,7 @@
       <c r="A14" s="4" t="inlineStr"/>
       <c r="B14" s="2" t="inlineStr"/>
       <c r="C14" s="2" t="inlineStr"/>
-      <c r="D14" s="2" t="inlineStr"/>
+      <c r="D14" s="6" t="inlineStr"/>
       <c r="E14" s="2" t="inlineStr"/>
       <c r="F14" s="3" t="inlineStr"/>
       <c r="G14" s="3" t="inlineStr"/>
@@ -2083,7 +2082,7 @@
       <c r="A15" s="4" t="inlineStr"/>
       <c r="B15" s="2" t="inlineStr"/>
       <c r="C15" s="2" t="inlineStr"/>
-      <c r="D15" s="2" t="inlineStr"/>
+      <c r="D15" s="6" t="inlineStr"/>
       <c r="E15" s="2" t="inlineStr"/>
       <c r="F15" s="3" t="inlineStr"/>
       <c r="G15" s="3" t="inlineStr"/>
@@ -2096,7 +2095,7 @@
       <c r="A16" s="4" t="inlineStr"/>
       <c r="B16" s="2" t="inlineStr"/>
       <c r="C16" s="2" t="inlineStr"/>
-      <c r="D16" s="2" t="inlineStr"/>
+      <c r="D16" s="6" t="inlineStr"/>
       <c r="E16" s="2" t="inlineStr"/>
       <c r="F16" s="3" t="inlineStr"/>
       <c r="G16" s="3" t="inlineStr"/>
@@ -2109,7 +2108,7 @@
       <c r="A17" s="4" t="inlineStr"/>
       <c r="B17" s="2" t="inlineStr"/>
       <c r="C17" s="2" t="inlineStr"/>
-      <c r="D17" s="2" t="inlineStr"/>
+      <c r="D17" s="6" t="inlineStr"/>
       <c r="E17" s="2" t="inlineStr"/>
       <c r="F17" s="3" t="inlineStr"/>
       <c r="G17" s="3" t="inlineStr"/>
@@ -2122,7 +2121,7 @@
       <c r="A18" s="4" t="inlineStr"/>
       <c r="B18" s="2" t="inlineStr"/>
       <c r="C18" s="2" t="inlineStr"/>
-      <c r="D18" s="2" t="inlineStr"/>
+      <c r="D18" s="6" t="inlineStr"/>
       <c r="E18" s="2" t="inlineStr"/>
       <c r="F18" s="3" t="inlineStr"/>
       <c r="G18" s="3" t="inlineStr"/>
@@ -2135,7 +2134,7 @@
       <c r="A19" s="4" t="inlineStr"/>
       <c r="B19" s="2" t="inlineStr"/>
       <c r="C19" s="2" t="inlineStr"/>
-      <c r="D19" s="2" t="inlineStr"/>
+      <c r="D19" s="6" t="inlineStr"/>
       <c r="E19" s="2" t="inlineStr"/>
       <c r="F19" s="3" t="inlineStr"/>
       <c r="G19" s="3" t="inlineStr"/>
@@ -2148,7 +2147,7 @@
       <c r="A20" s="4" t="inlineStr"/>
       <c r="B20" s="2" t="inlineStr"/>
       <c r="C20" s="2" t="inlineStr"/>
-      <c r="D20" s="2" t="inlineStr"/>
+      <c r="D20" s="6" t="inlineStr"/>
       <c r="E20" s="2" t="inlineStr"/>
       <c r="F20" s="3" t="inlineStr"/>
       <c r="G20" s="3" t="inlineStr"/>
@@ -2161,7 +2160,7 @@
       <c r="A21" s="4" t="inlineStr"/>
       <c r="B21" s="2" t="inlineStr"/>
       <c r="C21" s="2" t="inlineStr"/>
-      <c r="D21" s="2" t="inlineStr"/>
+      <c r="D21" s="6" t="inlineStr"/>
       <c r="E21" s="2" t="inlineStr"/>
       <c r="F21" s="3" t="inlineStr"/>
       <c r="G21" s="3" t="inlineStr"/>
@@ -2174,7 +2173,7 @@
       <c r="A22" s="4" t="inlineStr"/>
       <c r="B22" s="2" t="inlineStr"/>
       <c r="C22" s="2" t="inlineStr"/>
-      <c r="D22" s="2" t="inlineStr"/>
+      <c r="D22" s="6" t="inlineStr"/>
       <c r="E22" s="2" t="inlineStr"/>
       <c r="F22" s="3" t="inlineStr"/>
       <c r="G22" s="3" t="inlineStr"/>
@@ -2187,7 +2186,7 @@
       <c r="A23" s="4" t="inlineStr"/>
       <c r="B23" s="2" t="inlineStr"/>
       <c r="C23" s="2" t="inlineStr"/>
-      <c r="D23" s="2" t="inlineStr"/>
+      <c r="D23" s="6" t="inlineStr"/>
       <c r="E23" s="2" t="inlineStr"/>
       <c r="F23" s="3" t="inlineStr"/>
       <c r="G23" s="3" t="inlineStr"/>
@@ -2200,7 +2199,7 @@
       <c r="A24" s="4" t="inlineStr"/>
       <c r="B24" s="2" t="inlineStr"/>
       <c r="C24" s="2" t="inlineStr"/>
-      <c r="D24" s="2" t="inlineStr"/>
+      <c r="D24" s="6" t="inlineStr"/>
       <c r="E24" s="2" t="inlineStr"/>
       <c r="F24" s="3" t="inlineStr"/>
       <c r="G24" s="3" t="inlineStr"/>
@@ -2213,7 +2212,7 @@
       <c r="A25" s="4" t="inlineStr"/>
       <c r="B25" s="2" t="inlineStr"/>
       <c r="C25" s="2" t="inlineStr"/>
-      <c r="D25" s="2" t="inlineStr"/>
+      <c r="D25" s="6" t="inlineStr"/>
       <c r="E25" s="2" t="inlineStr"/>
       <c r="F25" s="3" t="inlineStr"/>
       <c r="G25" s="3" t="inlineStr"/>
@@ -2226,7 +2225,7 @@
       <c r="A26" s="4" t="inlineStr"/>
       <c r="B26" s="2" t="inlineStr"/>
       <c r="C26" s="2" t="inlineStr"/>
-      <c r="D26" s="2" t="inlineStr"/>
+      <c r="D26" s="6" t="inlineStr"/>
       <c r="E26" s="2" t="inlineStr"/>
       <c r="F26" s="3" t="inlineStr"/>
       <c r="G26" s="3" t="inlineStr"/>
@@ -2239,7 +2238,7 @@
       <c r="A27" s="4" t="inlineStr"/>
       <c r="B27" s="2" t="inlineStr"/>
       <c r="C27" s="2" t="inlineStr"/>
-      <c r="D27" s="2" t="inlineStr"/>
+      <c r="D27" s="6" t="inlineStr"/>
       <c r="E27" s="2" t="inlineStr"/>
       <c r="F27" s="3" t="inlineStr"/>
       <c r="G27" s="3" t="inlineStr"/>
@@ -2252,7 +2251,7 @@
       <c r="A28" s="4" t="inlineStr"/>
       <c r="B28" s="2" t="inlineStr"/>
       <c r="C28" s="2" t="inlineStr"/>
-      <c r="D28" s="2" t="inlineStr"/>
+      <c r="D28" s="6" t="inlineStr"/>
       <c r="E28" s="2" t="inlineStr"/>
       <c r="F28" s="3" t="inlineStr"/>
       <c r="G28" s="3" t="inlineStr"/>
@@ -2265,7 +2264,7 @@
       <c r="A29" s="4" t="inlineStr"/>
       <c r="B29" s="2" t="inlineStr"/>
       <c r="C29" s="2" t="inlineStr"/>
-      <c r="D29" s="2" t="inlineStr"/>
+      <c r="D29" s="6" t="inlineStr"/>
       <c r="E29" s="2" t="inlineStr"/>
       <c r="F29" s="3" t="inlineStr"/>
       <c r="G29" s="3" t="inlineStr"/>
@@ -2278,7 +2277,7 @@
       <c r="A30" s="4" t="inlineStr"/>
       <c r="B30" s="2" t="inlineStr"/>
       <c r="C30" s="2" t="inlineStr"/>
-      <c r="D30" s="2" t="inlineStr"/>
+      <c r="D30" s="6" t="inlineStr"/>
       <c r="E30" s="2" t="inlineStr"/>
       <c r="F30" s="3" t="inlineStr"/>
       <c r="G30" s="3" t="inlineStr"/>
@@ -2291,7 +2290,7 @@
       <c r="A31" s="4" t="inlineStr"/>
       <c r="B31" s="2" t="inlineStr"/>
       <c r="C31" s="2" t="inlineStr"/>
-      <c r="D31" s="2" t="inlineStr"/>
+      <c r="D31" s="6" t="inlineStr"/>
       <c r="E31" s="2" t="inlineStr"/>
       <c r="F31" s="3" t="inlineStr"/>
       <c r="G31" s="3" t="inlineStr"/>
@@ -2304,7 +2303,7 @@
       <c r="A32" s="4" t="inlineStr"/>
       <c r="B32" s="2" t="inlineStr"/>
       <c r="C32" s="2" t="inlineStr"/>
-      <c r="D32" s="2" t="inlineStr"/>
+      <c r="D32" s="6" t="inlineStr"/>
       <c r="E32" s="2" t="inlineStr"/>
       <c r="F32" s="3" t="inlineStr"/>
       <c r="G32" s="3" t="inlineStr"/>
@@ -2317,7 +2316,7 @@
       <c r="A33" s="4" t="inlineStr"/>
       <c r="B33" s="2" t="inlineStr"/>
       <c r="C33" s="2" t="inlineStr"/>
-      <c r="D33" s="2" t="inlineStr"/>
+      <c r="D33" s="6" t="inlineStr"/>
       <c r="E33" s="2" t="inlineStr"/>
       <c r="F33" s="3" t="inlineStr"/>
       <c r="G33" s="3" t="inlineStr"/>
@@ -2330,7 +2329,7 @@
       <c r="A34" s="4" t="inlineStr"/>
       <c r="B34" s="2" t="inlineStr"/>
       <c r="C34" s="2" t="inlineStr"/>
-      <c r="D34" s="2" t="inlineStr"/>
+      <c r="D34" s="6" t="inlineStr"/>
       <c r="E34" s="2" t="inlineStr"/>
       <c r="F34" s="3" t="inlineStr"/>
       <c r="G34" s="3" t="inlineStr"/>
@@ -2343,7 +2342,7 @@
       <c r="A35" s="4" t="inlineStr"/>
       <c r="B35" s="2" t="inlineStr"/>
       <c r="C35" s="2" t="inlineStr"/>
-      <c r="D35" s="2" t="inlineStr"/>
+      <c r="D35" s="6" t="inlineStr"/>
       <c r="E35" s="2" t="inlineStr"/>
       <c r="F35" s="3" t="inlineStr"/>
       <c r="G35" s="3" t="inlineStr"/>
@@ -2356,7 +2355,7 @@
       <c r="A36" s="4" t="inlineStr"/>
       <c r="B36" s="2" t="inlineStr"/>
       <c r="C36" s="2" t="inlineStr"/>
-      <c r="D36" s="2" t="inlineStr"/>
+      <c r="D36" s="6" t="inlineStr"/>
       <c r="E36" s="2" t="inlineStr"/>
       <c r="F36" s="3" t="inlineStr"/>
       <c r="G36" s="3" t="inlineStr"/>
@@ -2369,7 +2368,7 @@
       <c r="A37" s="4" t="inlineStr"/>
       <c r="B37" s="2" t="inlineStr"/>
       <c r="C37" s="2" t="inlineStr"/>
-      <c r="D37" s="2" t="inlineStr"/>
+      <c r="D37" s="6" t="inlineStr"/>
       <c r="E37" s="2" t="inlineStr"/>
       <c r="F37" s="3" t="inlineStr"/>
       <c r="G37" s="3" t="inlineStr"/>
@@ -2382,7 +2381,7 @@
       <c r="A38" s="4" t="inlineStr"/>
       <c r="B38" s="2" t="inlineStr"/>
       <c r="C38" s="2" t="inlineStr"/>
-      <c r="D38" s="2" t="inlineStr"/>
+      <c r="D38" s="6" t="inlineStr"/>
       <c r="E38" s="2" t="inlineStr"/>
       <c r="F38" s="3" t="inlineStr"/>
       <c r="G38" s="3" t="inlineStr"/>
@@ -2395,7 +2394,7 @@
       <c r="A39" s="4" t="inlineStr"/>
       <c r="B39" s="2" t="inlineStr"/>
       <c r="C39" s="2" t="inlineStr"/>
-      <c r="D39" s="2" t="inlineStr"/>
+      <c r="D39" s="6" t="inlineStr"/>
       <c r="E39" s="2" t="inlineStr"/>
       <c r="F39" s="3" t="inlineStr"/>
       <c r="G39" s="3" t="inlineStr"/>
@@ -2408,7 +2407,7 @@
       <c r="A40" s="4" t="inlineStr"/>
       <c r="B40" s="2" t="inlineStr"/>
       <c r="C40" s="2" t="inlineStr"/>
-      <c r="D40" s="2" t="inlineStr"/>
+      <c r="D40" s="6" t="inlineStr"/>
       <c r="E40" s="2" t="inlineStr"/>
       <c r="F40" s="3" t="inlineStr"/>
       <c r="G40" s="3" t="inlineStr"/>
@@ -2421,7 +2420,7 @@
       <c r="A41" s="4" t="inlineStr"/>
       <c r="B41" s="2" t="inlineStr"/>
       <c r="C41" s="2" t="inlineStr"/>
-      <c r="D41" s="2" t="inlineStr"/>
+      <c r="D41" s="6" t="inlineStr"/>
       <c r="E41" s="2" t="inlineStr"/>
       <c r="F41" s="3" t="inlineStr"/>
       <c r="G41" s="3" t="inlineStr"/>
@@ -2434,7 +2433,7 @@
       <c r="A42" s="4" t="inlineStr"/>
       <c r="B42" s="2" t="inlineStr"/>
       <c r="C42" s="2" t="inlineStr"/>
-      <c r="D42" s="2" t="inlineStr"/>
+      <c r="D42" s="6" t="inlineStr"/>
       <c r="E42" s="2" t="inlineStr"/>
       <c r="F42" s="3" t="inlineStr"/>
       <c r="G42" s="3" t="inlineStr"/>
@@ -2447,7 +2446,7 @@
       <c r="A43" s="4" t="inlineStr"/>
       <c r="B43" s="2" t="inlineStr"/>
       <c r="C43" s="2" t="inlineStr"/>
-      <c r="D43" s="2" t="inlineStr"/>
+      <c r="D43" s="6" t="inlineStr"/>
       <c r="E43" s="2" t="inlineStr"/>
       <c r="F43" s="3" t="inlineStr"/>
       <c r="G43" s="3" t="inlineStr"/>
@@ -2460,7 +2459,7 @@
       <c r="A44" s="4" t="inlineStr"/>
       <c r="B44" s="2" t="inlineStr"/>
       <c r="C44" s="2" t="inlineStr"/>
-      <c r="D44" s="2" t="inlineStr"/>
+      <c r="D44" s="6" t="inlineStr"/>
       <c r="E44" s="2" t="inlineStr"/>
       <c r="F44" s="3" t="inlineStr"/>
       <c r="G44" s="3" t="inlineStr"/>
@@ -2473,7 +2472,7 @@
       <c r="A45" s="4" t="inlineStr"/>
       <c r="B45" s="2" t="inlineStr"/>
       <c r="C45" s="2" t="inlineStr"/>
-      <c r="D45" s="2" t="inlineStr"/>
+      <c r="D45" s="6" t="inlineStr"/>
       <c r="E45" s="2" t="inlineStr"/>
       <c r="F45" s="3" t="inlineStr"/>
       <c r="G45" s="3" t="inlineStr"/>
@@ -2486,7 +2485,7 @@
       <c r="A46" s="4" t="inlineStr"/>
       <c r="B46" s="2" t="inlineStr"/>
       <c r="C46" s="2" t="inlineStr"/>
-      <c r="D46" s="2" t="inlineStr"/>
+      <c r="D46" s="6" t="inlineStr"/>
       <c r="E46" s="2" t="inlineStr"/>
       <c r="F46" s="3" t="inlineStr"/>
       <c r="G46" s="3" t="inlineStr"/>
@@ -2499,7 +2498,7 @@
       <c r="A47" s="4" t="inlineStr"/>
       <c r="B47" s="2" t="inlineStr"/>
       <c r="C47" s="2" t="inlineStr"/>
-      <c r="D47" s="2" t="inlineStr"/>
+      <c r="D47" s="6" t="inlineStr"/>
       <c r="E47" s="2" t="inlineStr"/>
       <c r="F47" s="3" t="inlineStr"/>
       <c r="G47" s="3" t="inlineStr"/>
@@ -2512,7 +2511,7 @@
       <c r="A48" s="4" t="inlineStr"/>
       <c r="B48" s="2" t="inlineStr"/>
       <c r="C48" s="2" t="inlineStr"/>
-      <c r="D48" s="2" t="inlineStr"/>
+      <c r="D48" s="6" t="inlineStr"/>
       <c r="E48" s="2" t="inlineStr"/>
       <c r="F48" s="3" t="inlineStr"/>
       <c r="G48" s="3" t="inlineStr"/>
@@ -2525,7 +2524,7 @@
       <c r="A49" s="4" t="inlineStr"/>
       <c r="B49" s="2" t="inlineStr"/>
       <c r="C49" s="2" t="inlineStr"/>
-      <c r="D49" s="2" t="inlineStr"/>
+      <c r="D49" s="6" t="inlineStr"/>
       <c r="E49" s="2" t="inlineStr"/>
       <c r="F49" s="3" t="inlineStr"/>
       <c r="G49" s="3" t="inlineStr"/>
@@ -2537,11 +2536,11 @@
     <row r="50" ht="18" customHeight="1"/>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation sqref="B4 B5 B6 B7 B8 B9 B10 B11 B12 B13 B14 B15 B16 B17 B18 B19 B20 B21 B22 B23 B24 B25 B26 B27 B28 B29 B30 B31 B32 B33 B34 B35 B36 B37 B38 B39 B40 B41 B42 B43 B44 B45 B46 B47 B48 B49 B3 E3 E4 E5 E6 E7 E8 E9 E10 E11 E12 E13 E14 E15 E16 E17 E18 E19 E20 E21 E22 E23 E24 E25 E26 E27 E28 E29 E30 E31 E32 E33 E34 E35 E36 E37 E38 E39 E40 E41 E42 E43 E44 E45 E46 E47 E48 E49" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
-      <formula1>基本!$A$5:$A$35</formula1>
+    <dataValidation sqref="B4 B5 B6 B7 B8 B9 B10 B11 B12 B13 B14 B15 B16 B17 B18 B19 B20 B21 B22 B23 B24 B25 B26 B27 B28 B29 B30 B31 B32 B33 B34 B35 B36 B37 B38 B39 B40 B41 B42 B43 B44 B45 B46 B47 B48 B49" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
+      <formula1>"現金,普通預金,ゆうちょ定期,前払金,前受金,会費収入,入会金収入,預貯金利子,雑収入,行事費,交際費,旅費,会議費,通信費,事務費"</formula1>
     </dataValidation>
-    <dataValidation sqref="C4 C5 C6 C7 C8 C9 C10 C11 C12 C13 C14 C15 C16 C17 C18 C19 C20 C21 C22 C23 C24 C25 C26 C27 C28 C29 C30 C31 C32 C33 C34 C35 C36 C37 C38 C39 C40 C41 C42 C43 C44 C45 C46 C47 C48 C49 C3 F3 F4 F5 F6 F7 F8 F9 F10 F11 F12 F13 F14 F15 F16 F17 F18 F19 F20 F21 F22 F23 F24 F25 F26 F27 F28 F29 F30 F31 F32 F33 F34 F35 F36 F37 F38 F39 F40 F41 F42 F43 F44 F45 F46 F47 F48 F49" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
-      <formula1>基本!$B$5:$B$35</formula1>
+    <dataValidation sqref="C4 C5 C6 C7 C8 C9 C10 C11 C12 C13 C14 C15 C16 C17 C18 C19 C20 C21 C22 C23 C24 C25 C26 C27 C28 C29 C30 C31 C32 C33 C34 C35 C36 C37 C38 C39 C40 C41 C42 C43 C44 C45 C46 C47 C48 C49" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
+      <formula1>"ゆうちょ,A銀行,正会員,準会員,B事業,C事業"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2623,10 +2622,9 @@
       </c>
     </row>
     <row r="3" ht="18" customHeight="1">
-      <c r="A3" s="4" t="inlineStr">
-        <is>
-          <t>2022-4-1</t>
-        </is>
+      <c r="A3" s="4">
+        <f>TEXT(44652,"yyyy-mm-dd")</f>
+        <v/>
       </c>
       <c r="B3" s="5" t="n"/>
       <c r="C3" s="5" t="n"/>
@@ -2635,14 +2633,14 @@
       <c r="F3" s="5" t="n"/>
       <c r="G3" s="5" t="n"/>
       <c r="H3" s="3" t="n">
-        <v>700654</v>
+        <v>987654</v>
       </c>
     </row>
     <row r="4" ht="18" customHeight="1">
       <c r="A4" s="4" t="inlineStr"/>
       <c r="B4" s="2" t="inlineStr"/>
       <c r="C4" s="2" t="inlineStr"/>
-      <c r="D4" s="2" t="inlineStr"/>
+      <c r="D4" s="6" t="inlineStr"/>
       <c r="E4" s="2" t="inlineStr"/>
       <c r="F4" s="3" t="inlineStr"/>
       <c r="G4" s="3" t="inlineStr"/>
@@ -2655,7 +2653,7 @@
       <c r="A5" s="4" t="inlineStr"/>
       <c r="B5" s="2" t="inlineStr"/>
       <c r="C5" s="2" t="inlineStr"/>
-      <c r="D5" s="2" t="inlineStr"/>
+      <c r="D5" s="6" t="inlineStr"/>
       <c r="E5" s="2" t="inlineStr"/>
       <c r="F5" s="3" t="inlineStr"/>
       <c r="G5" s="3" t="inlineStr"/>
@@ -2668,7 +2666,7 @@
       <c r="A6" s="4" t="inlineStr"/>
       <c r="B6" s="2" t="inlineStr"/>
       <c r="C6" s="2" t="inlineStr"/>
-      <c r="D6" s="2" t="inlineStr"/>
+      <c r="D6" s="6" t="inlineStr"/>
       <c r="E6" s="2" t="inlineStr"/>
       <c r="F6" s="3" t="inlineStr"/>
       <c r="G6" s="3" t="inlineStr"/>
@@ -2681,7 +2679,7 @@
       <c r="A7" s="4" t="inlineStr"/>
       <c r="B7" s="2" t="inlineStr"/>
       <c r="C7" s="2" t="inlineStr"/>
-      <c r="D7" s="2" t="inlineStr"/>
+      <c r="D7" s="6" t="inlineStr"/>
       <c r="E7" s="2" t="inlineStr"/>
       <c r="F7" s="3" t="inlineStr"/>
       <c r="G7" s="3" t="inlineStr"/>
@@ -2694,7 +2692,7 @@
       <c r="A8" s="4" t="inlineStr"/>
       <c r="B8" s="2" t="inlineStr"/>
       <c r="C8" s="2" t="inlineStr"/>
-      <c r="D8" s="2" t="inlineStr"/>
+      <c r="D8" s="6" t="inlineStr"/>
       <c r="E8" s="2" t="inlineStr"/>
       <c r="F8" s="3" t="inlineStr"/>
       <c r="G8" s="3" t="inlineStr"/>
@@ -2707,7 +2705,7 @@
       <c r="A9" s="4" t="inlineStr"/>
       <c r="B9" s="2" t="inlineStr"/>
       <c r="C9" s="2" t="inlineStr"/>
-      <c r="D9" s="2" t="inlineStr"/>
+      <c r="D9" s="6" t="inlineStr"/>
       <c r="E9" s="2" t="inlineStr"/>
       <c r="F9" s="3" t="inlineStr"/>
       <c r="G9" s="3" t="inlineStr"/>
@@ -2720,7 +2718,7 @@
       <c r="A10" s="4" t="inlineStr"/>
       <c r="B10" s="2" t="inlineStr"/>
       <c r="C10" s="2" t="inlineStr"/>
-      <c r="D10" s="2" t="inlineStr"/>
+      <c r="D10" s="6" t="inlineStr"/>
       <c r="E10" s="2" t="inlineStr"/>
       <c r="F10" s="3" t="inlineStr"/>
       <c r="G10" s="3" t="inlineStr"/>
@@ -2733,7 +2731,7 @@
       <c r="A11" s="4" t="inlineStr"/>
       <c r="B11" s="2" t="inlineStr"/>
       <c r="C11" s="2" t="inlineStr"/>
-      <c r="D11" s="2" t="inlineStr"/>
+      <c r="D11" s="6" t="inlineStr"/>
       <c r="E11" s="2" t="inlineStr"/>
       <c r="F11" s="3" t="inlineStr"/>
       <c r="G11" s="3" t="inlineStr"/>
@@ -2746,7 +2744,7 @@
       <c r="A12" s="4" t="inlineStr"/>
       <c r="B12" s="2" t="inlineStr"/>
       <c r="C12" s="2" t="inlineStr"/>
-      <c r="D12" s="2" t="inlineStr"/>
+      <c r="D12" s="6" t="inlineStr"/>
       <c r="E12" s="2" t="inlineStr"/>
       <c r="F12" s="3" t="inlineStr"/>
       <c r="G12" s="3" t="inlineStr"/>
@@ -2759,7 +2757,7 @@
       <c r="A13" s="4" t="inlineStr"/>
       <c r="B13" s="2" t="inlineStr"/>
       <c r="C13" s="2" t="inlineStr"/>
-      <c r="D13" s="2" t="inlineStr"/>
+      <c r="D13" s="6" t="inlineStr"/>
       <c r="E13" s="2" t="inlineStr"/>
       <c r="F13" s="3" t="inlineStr"/>
       <c r="G13" s="3" t="inlineStr"/>
@@ -2772,7 +2770,7 @@
       <c r="A14" s="4" t="inlineStr"/>
       <c r="B14" s="2" t="inlineStr"/>
       <c r="C14" s="2" t="inlineStr"/>
-      <c r="D14" s="2" t="inlineStr"/>
+      <c r="D14" s="6" t="inlineStr"/>
       <c r="E14" s="2" t="inlineStr"/>
       <c r="F14" s="3" t="inlineStr"/>
       <c r="G14" s="3" t="inlineStr"/>
@@ -2785,7 +2783,7 @@
       <c r="A15" s="4" t="inlineStr"/>
       <c r="B15" s="2" t="inlineStr"/>
       <c r="C15" s="2" t="inlineStr"/>
-      <c r="D15" s="2" t="inlineStr"/>
+      <c r="D15" s="6" t="inlineStr"/>
       <c r="E15" s="2" t="inlineStr"/>
       <c r="F15" s="3" t="inlineStr"/>
       <c r="G15" s="3" t="inlineStr"/>
@@ -2798,7 +2796,7 @@
       <c r="A16" s="4" t="inlineStr"/>
       <c r="B16" s="2" t="inlineStr"/>
       <c r="C16" s="2" t="inlineStr"/>
-      <c r="D16" s="2" t="inlineStr"/>
+      <c r="D16" s="6" t="inlineStr"/>
       <c r="E16" s="2" t="inlineStr"/>
       <c r="F16" s="3" t="inlineStr"/>
       <c r="G16" s="3" t="inlineStr"/>
@@ -2811,7 +2809,7 @@
       <c r="A17" s="4" t="inlineStr"/>
       <c r="B17" s="2" t="inlineStr"/>
       <c r="C17" s="2" t="inlineStr"/>
-      <c r="D17" s="2" t="inlineStr"/>
+      <c r="D17" s="6" t="inlineStr"/>
       <c r="E17" s="2" t="inlineStr"/>
       <c r="F17" s="3" t="inlineStr"/>
       <c r="G17" s="3" t="inlineStr"/>
@@ -2824,7 +2822,7 @@
       <c r="A18" s="4" t="inlineStr"/>
       <c r="B18" s="2" t="inlineStr"/>
       <c r="C18" s="2" t="inlineStr"/>
-      <c r="D18" s="2" t="inlineStr"/>
+      <c r="D18" s="6" t="inlineStr"/>
       <c r="E18" s="2" t="inlineStr"/>
       <c r="F18" s="3" t="inlineStr"/>
       <c r="G18" s="3" t="inlineStr"/>
@@ -2837,7 +2835,7 @@
       <c r="A19" s="4" t="inlineStr"/>
       <c r="B19" s="2" t="inlineStr"/>
       <c r="C19" s="2" t="inlineStr"/>
-      <c r="D19" s="2" t="inlineStr"/>
+      <c r="D19" s="6" t="inlineStr"/>
       <c r="E19" s="2" t="inlineStr"/>
       <c r="F19" s="3" t="inlineStr"/>
       <c r="G19" s="3" t="inlineStr"/>
@@ -2850,7 +2848,7 @@
       <c r="A20" s="4" t="inlineStr"/>
       <c r="B20" s="2" t="inlineStr"/>
       <c r="C20" s="2" t="inlineStr"/>
-      <c r="D20" s="2" t="inlineStr"/>
+      <c r="D20" s="6" t="inlineStr"/>
       <c r="E20" s="2" t="inlineStr"/>
       <c r="F20" s="3" t="inlineStr"/>
       <c r="G20" s="3" t="inlineStr"/>
@@ -2863,7 +2861,7 @@
       <c r="A21" s="4" t="inlineStr"/>
       <c r="B21" s="2" t="inlineStr"/>
       <c r="C21" s="2" t="inlineStr"/>
-      <c r="D21" s="2" t="inlineStr"/>
+      <c r="D21" s="6" t="inlineStr"/>
       <c r="E21" s="2" t="inlineStr"/>
       <c r="F21" s="3" t="inlineStr"/>
       <c r="G21" s="3" t="inlineStr"/>
@@ -2876,7 +2874,7 @@
       <c r="A22" s="4" t="inlineStr"/>
       <c r="B22" s="2" t="inlineStr"/>
       <c r="C22" s="2" t="inlineStr"/>
-      <c r="D22" s="2" t="inlineStr"/>
+      <c r="D22" s="6" t="inlineStr"/>
       <c r="E22" s="2" t="inlineStr"/>
       <c r="F22" s="3" t="inlineStr"/>
       <c r="G22" s="3" t="inlineStr"/>
@@ -2889,7 +2887,7 @@
       <c r="A23" s="4" t="inlineStr"/>
       <c r="B23" s="2" t="inlineStr"/>
       <c r="C23" s="2" t="inlineStr"/>
-      <c r="D23" s="2" t="inlineStr"/>
+      <c r="D23" s="6" t="inlineStr"/>
       <c r="E23" s="2" t="inlineStr"/>
       <c r="F23" s="3" t="inlineStr"/>
       <c r="G23" s="3" t="inlineStr"/>
@@ -2902,7 +2900,7 @@
       <c r="A24" s="4" t="inlineStr"/>
       <c r="B24" s="2" t="inlineStr"/>
       <c r="C24" s="2" t="inlineStr"/>
-      <c r="D24" s="2" t="inlineStr"/>
+      <c r="D24" s="6" t="inlineStr"/>
       <c r="E24" s="2" t="inlineStr"/>
       <c r="F24" s="3" t="inlineStr"/>
       <c r="G24" s="3" t="inlineStr"/>
@@ -2915,7 +2913,7 @@
       <c r="A25" s="4" t="inlineStr"/>
       <c r="B25" s="2" t="inlineStr"/>
       <c r="C25" s="2" t="inlineStr"/>
-      <c r="D25" s="2" t="inlineStr"/>
+      <c r="D25" s="6" t="inlineStr"/>
       <c r="E25" s="2" t="inlineStr"/>
       <c r="F25" s="3" t="inlineStr"/>
       <c r="G25" s="3" t="inlineStr"/>
@@ -2928,7 +2926,7 @@
       <c r="A26" s="4" t="inlineStr"/>
       <c r="B26" s="2" t="inlineStr"/>
       <c r="C26" s="2" t="inlineStr"/>
-      <c r="D26" s="2" t="inlineStr"/>
+      <c r="D26" s="6" t="inlineStr"/>
       <c r="E26" s="2" t="inlineStr"/>
       <c r="F26" s="3" t="inlineStr"/>
       <c r="G26" s="3" t="inlineStr"/>
@@ -2941,7 +2939,7 @@
       <c r="A27" s="4" t="inlineStr"/>
       <c r="B27" s="2" t="inlineStr"/>
       <c r="C27" s="2" t="inlineStr"/>
-      <c r="D27" s="2" t="inlineStr"/>
+      <c r="D27" s="6" t="inlineStr"/>
       <c r="E27" s="2" t="inlineStr"/>
       <c r="F27" s="3" t="inlineStr"/>
       <c r="G27" s="3" t="inlineStr"/>
@@ -2954,7 +2952,7 @@
       <c r="A28" s="4" t="inlineStr"/>
       <c r="B28" s="2" t="inlineStr"/>
       <c r="C28" s="2" t="inlineStr"/>
-      <c r="D28" s="2" t="inlineStr"/>
+      <c r="D28" s="6" t="inlineStr"/>
       <c r="E28" s="2" t="inlineStr"/>
       <c r="F28" s="3" t="inlineStr"/>
       <c r="G28" s="3" t="inlineStr"/>
@@ -2967,7 +2965,7 @@
       <c r="A29" s="4" t="inlineStr"/>
       <c r="B29" s="2" t="inlineStr"/>
       <c r="C29" s="2" t="inlineStr"/>
-      <c r="D29" s="2" t="inlineStr"/>
+      <c r="D29" s="6" t="inlineStr"/>
       <c r="E29" s="2" t="inlineStr"/>
       <c r="F29" s="3" t="inlineStr"/>
       <c r="G29" s="3" t="inlineStr"/>
@@ -2980,7 +2978,7 @@
       <c r="A30" s="4" t="inlineStr"/>
       <c r="B30" s="2" t="inlineStr"/>
       <c r="C30" s="2" t="inlineStr"/>
-      <c r="D30" s="2" t="inlineStr"/>
+      <c r="D30" s="6" t="inlineStr"/>
       <c r="E30" s="2" t="inlineStr"/>
       <c r="F30" s="3" t="inlineStr"/>
       <c r="G30" s="3" t="inlineStr"/>
@@ -2993,7 +2991,7 @@
       <c r="A31" s="4" t="inlineStr"/>
       <c r="B31" s="2" t="inlineStr"/>
       <c r="C31" s="2" t="inlineStr"/>
-      <c r="D31" s="2" t="inlineStr"/>
+      <c r="D31" s="6" t="inlineStr"/>
       <c r="E31" s="2" t="inlineStr"/>
       <c r="F31" s="3" t="inlineStr"/>
       <c r="G31" s="3" t="inlineStr"/>
@@ -3006,7 +3004,7 @@
       <c r="A32" s="4" t="inlineStr"/>
       <c r="B32" s="2" t="inlineStr"/>
       <c r="C32" s="2" t="inlineStr"/>
-      <c r="D32" s="2" t="inlineStr"/>
+      <c r="D32" s="6" t="inlineStr"/>
       <c r="E32" s="2" t="inlineStr"/>
       <c r="F32" s="3" t="inlineStr"/>
       <c r="G32" s="3" t="inlineStr"/>
@@ -3019,7 +3017,7 @@
       <c r="A33" s="4" t="inlineStr"/>
       <c r="B33" s="2" t="inlineStr"/>
       <c r="C33" s="2" t="inlineStr"/>
-      <c r="D33" s="2" t="inlineStr"/>
+      <c r="D33" s="6" t="inlineStr"/>
       <c r="E33" s="2" t="inlineStr"/>
       <c r="F33" s="3" t="inlineStr"/>
       <c r="G33" s="3" t="inlineStr"/>
@@ -3032,7 +3030,7 @@
       <c r="A34" s="4" t="inlineStr"/>
       <c r="B34" s="2" t="inlineStr"/>
       <c r="C34" s="2" t="inlineStr"/>
-      <c r="D34" s="2" t="inlineStr"/>
+      <c r="D34" s="6" t="inlineStr"/>
       <c r="E34" s="2" t="inlineStr"/>
       <c r="F34" s="3" t="inlineStr"/>
       <c r="G34" s="3" t="inlineStr"/>
@@ -3045,7 +3043,7 @@
       <c r="A35" s="4" t="inlineStr"/>
       <c r="B35" s="2" t="inlineStr"/>
       <c r="C35" s="2" t="inlineStr"/>
-      <c r="D35" s="2" t="inlineStr"/>
+      <c r="D35" s="6" t="inlineStr"/>
       <c r="E35" s="2" t="inlineStr"/>
       <c r="F35" s="3" t="inlineStr"/>
       <c r="G35" s="3" t="inlineStr"/>
@@ -3058,7 +3056,7 @@
       <c r="A36" s="4" t="inlineStr"/>
       <c r="B36" s="2" t="inlineStr"/>
       <c r="C36" s="2" t="inlineStr"/>
-      <c r="D36" s="2" t="inlineStr"/>
+      <c r="D36" s="6" t="inlineStr"/>
       <c r="E36" s="2" t="inlineStr"/>
       <c r="F36" s="3" t="inlineStr"/>
       <c r="G36" s="3" t="inlineStr"/>
@@ -3071,7 +3069,7 @@
       <c r="A37" s="4" t="inlineStr"/>
       <c r="B37" s="2" t="inlineStr"/>
       <c r="C37" s="2" t="inlineStr"/>
-      <c r="D37" s="2" t="inlineStr"/>
+      <c r="D37" s="6" t="inlineStr"/>
       <c r="E37" s="2" t="inlineStr"/>
       <c r="F37" s="3" t="inlineStr"/>
       <c r="G37" s="3" t="inlineStr"/>
@@ -3084,7 +3082,7 @@
       <c r="A38" s="4" t="inlineStr"/>
       <c r="B38" s="2" t="inlineStr"/>
       <c r="C38" s="2" t="inlineStr"/>
-      <c r="D38" s="2" t="inlineStr"/>
+      <c r="D38" s="6" t="inlineStr"/>
       <c r="E38" s="2" t="inlineStr"/>
       <c r="F38" s="3" t="inlineStr"/>
       <c r="G38" s="3" t="inlineStr"/>
@@ -3097,7 +3095,7 @@
       <c r="A39" s="4" t="inlineStr"/>
       <c r="B39" s="2" t="inlineStr"/>
       <c r="C39" s="2" t="inlineStr"/>
-      <c r="D39" s="2" t="inlineStr"/>
+      <c r="D39" s="6" t="inlineStr"/>
       <c r="E39" s="2" t="inlineStr"/>
       <c r="F39" s="3" t="inlineStr"/>
       <c r="G39" s="3" t="inlineStr"/>
@@ -3110,7 +3108,7 @@
       <c r="A40" s="4" t="inlineStr"/>
       <c r="B40" s="2" t="inlineStr"/>
       <c r="C40" s="2" t="inlineStr"/>
-      <c r="D40" s="2" t="inlineStr"/>
+      <c r="D40" s="6" t="inlineStr"/>
       <c r="E40" s="2" t="inlineStr"/>
       <c r="F40" s="3" t="inlineStr"/>
       <c r="G40" s="3" t="inlineStr"/>
@@ -3123,7 +3121,7 @@
       <c r="A41" s="4" t="inlineStr"/>
       <c r="B41" s="2" t="inlineStr"/>
       <c r="C41" s="2" t="inlineStr"/>
-      <c r="D41" s="2" t="inlineStr"/>
+      <c r="D41" s="6" t="inlineStr"/>
       <c r="E41" s="2" t="inlineStr"/>
       <c r="F41" s="3" t="inlineStr"/>
       <c r="G41" s="3" t="inlineStr"/>
@@ -3136,7 +3134,7 @@
       <c r="A42" s="4" t="inlineStr"/>
       <c r="B42" s="2" t="inlineStr"/>
       <c r="C42" s="2" t="inlineStr"/>
-      <c r="D42" s="2" t="inlineStr"/>
+      <c r="D42" s="6" t="inlineStr"/>
       <c r="E42" s="2" t="inlineStr"/>
       <c r="F42" s="3" t="inlineStr"/>
       <c r="G42" s="3" t="inlineStr"/>
@@ -3149,7 +3147,7 @@
       <c r="A43" s="4" t="inlineStr"/>
       <c r="B43" s="2" t="inlineStr"/>
       <c r="C43" s="2" t="inlineStr"/>
-      <c r="D43" s="2" t="inlineStr"/>
+      <c r="D43" s="6" t="inlineStr"/>
       <c r="E43" s="2" t="inlineStr"/>
       <c r="F43" s="3" t="inlineStr"/>
       <c r="G43" s="3" t="inlineStr"/>
@@ -3162,7 +3160,7 @@
       <c r="A44" s="4" t="inlineStr"/>
       <c r="B44" s="2" t="inlineStr"/>
       <c r="C44" s="2" t="inlineStr"/>
-      <c r="D44" s="2" t="inlineStr"/>
+      <c r="D44" s="6" t="inlineStr"/>
       <c r="E44" s="2" t="inlineStr"/>
       <c r="F44" s="3" t="inlineStr"/>
       <c r="G44" s="3" t="inlineStr"/>
@@ -3175,7 +3173,7 @@
       <c r="A45" s="4" t="inlineStr"/>
       <c r="B45" s="2" t="inlineStr"/>
       <c r="C45" s="2" t="inlineStr"/>
-      <c r="D45" s="2" t="inlineStr"/>
+      <c r="D45" s="6" t="inlineStr"/>
       <c r="E45" s="2" t="inlineStr"/>
       <c r="F45" s="3" t="inlineStr"/>
       <c r="G45" s="3" t="inlineStr"/>
@@ -3188,7 +3186,7 @@
       <c r="A46" s="4" t="inlineStr"/>
       <c r="B46" s="2" t="inlineStr"/>
       <c r="C46" s="2" t="inlineStr"/>
-      <c r="D46" s="2" t="inlineStr"/>
+      <c r="D46" s="6" t="inlineStr"/>
       <c r="E46" s="2" t="inlineStr"/>
       <c r="F46" s="3" t="inlineStr"/>
       <c r="G46" s="3" t="inlineStr"/>
@@ -3201,7 +3199,7 @@
       <c r="A47" s="4" t="inlineStr"/>
       <c r="B47" s="2" t="inlineStr"/>
       <c r="C47" s="2" t="inlineStr"/>
-      <c r="D47" s="2" t="inlineStr"/>
+      <c r="D47" s="6" t="inlineStr"/>
       <c r="E47" s="2" t="inlineStr"/>
       <c r="F47" s="3" t="inlineStr"/>
       <c r="G47" s="3" t="inlineStr"/>
@@ -3214,7 +3212,7 @@
       <c r="A48" s="4" t="inlineStr"/>
       <c r="B48" s="2" t="inlineStr"/>
       <c r="C48" s="2" t="inlineStr"/>
-      <c r="D48" s="2" t="inlineStr"/>
+      <c r="D48" s="6" t="inlineStr"/>
       <c r="E48" s="2" t="inlineStr"/>
       <c r="F48" s="3" t="inlineStr"/>
       <c r="G48" s="3" t="inlineStr"/>
@@ -3227,7 +3225,7 @@
       <c r="A49" s="4" t="inlineStr"/>
       <c r="B49" s="2" t="inlineStr"/>
       <c r="C49" s="2" t="inlineStr"/>
-      <c r="D49" s="2" t="inlineStr"/>
+      <c r="D49" s="6" t="inlineStr"/>
       <c r="E49" s="2" t="inlineStr"/>
       <c r="F49" s="3" t="inlineStr"/>
       <c r="G49" s="3" t="inlineStr"/>
@@ -3239,11 +3237,11 @@
     <row r="50" ht="18" customHeight="1"/>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation sqref="B4 B5 B6 B7 B8 B9 B10 B11 B12 B13 B14 B15 B16 B17 B18 B19 B20 B21 B22 B23 B24 B25 B26 B27 B28 B29 B30 B31 B32 B33 B34 B35 B36 B37 B38 B39 B40 B41 B42 B43 B44 B45 B46 B47 B48 B49 B3 E3 E4 E5 E6 E7 E8 E9 E10 E11 E12 E13 E14 E15 E16 E17 E18 E19 E20 E21 E22 E23 E24 E25 E26 E27 E28 E29 E30 E31 E32 E33 E34 E35 E36 E37 E38 E39 E40 E41 E42 E43 E44 E45 E46 E47 E48 E49" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
-      <formula1>基本!$A$5:$A$35</formula1>
+    <dataValidation sqref="B4 B5 B6 B7 B8 B9 B10 B11 B12 B13 B14 B15 B16 B17 B18 B19 B20 B21 B22 B23 B24 B25 B26 B27 B28 B29 B30 B31 B32 B33 B34 B35 B36 B37 B38 B39 B40 B41 B42 B43 B44 B45 B46 B47 B48 B49" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
+      <formula1>"現金,普通預金,ゆうちょ定期,前払金,前受金,会費収入,入会金収入,預貯金利子,雑収入,行事費,交際費,旅費,会議費,通信費,事務費"</formula1>
     </dataValidation>
-    <dataValidation sqref="C4 C5 C6 C7 C8 C9 C10 C11 C12 C13 C14 C15 C16 C17 C18 C19 C20 C21 C22 C23 C24 C25 C26 C27 C28 C29 C30 C31 C32 C33 C34 C35 C36 C37 C38 C39 C40 C41 C42 C43 C44 C45 C46 C47 C48 C49 C3 F3 F4 F5 F6 F7 F8 F9 F10 F11 F12 F13 F14 F15 F16 F17 F18 F19 F20 F21 F22 F23 F24 F25 F26 F27 F28 F29 F30 F31 F32 F33 F34 F35 F36 F37 F38 F39 F40 F41 F42 F43 F44 F45 F46 F47 F48 F49" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
-      <formula1>基本!$B$5:$B$35</formula1>
+    <dataValidation sqref="C4 C5 C6 C7 C8 C9 C10 C11 C12 C13 C14 C15 C16 C17 C18 C19 C20 C21 C22 C23 C24 C25 C26 C27 C28 C29 C30 C31 C32 C33 C34 C35 C36 C37 C38 C39 C40 C41 C42 C43 C44 C45 C46 C47 C48 C49" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
+      <formula1>"ゆうちょ,A銀行,正会員,準会員,B事業,C事業"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3850,11 +3848,11 @@
     <row r="50" ht="18" customHeight="1"/>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation sqref="B4 B5 B6 B7 B8 B9 B10 B11 B12 B13 B14 B15 B16 B17 B18 B19 B20 B21 B22 B23 B24 B25 B26 B27 B28 B29 B30 B31 B32 B33 B34 B35 B36 B37 B38 B39 B40 B41 B42 B43 B44 B45 B46 B47 B48 B49 B3 E3 E4 E5 E6 E7 E8 E9 E10 E11 E12 E13 E14 E15 E16 E17 E18 E19 E20 E21 E22 E23 E24 E25 E26 E27 E28 E29 E30 E31 E32 E33 E34 E35 E36 E37 E38 E39 E40 E41 E42 E43 E44 E45 E46 E47 E48 E49" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
-      <formula1>基本!$A$5:$A$35</formula1>
+    <dataValidation sqref="B3 E3 B4 E4 B5 E5 B6 E6 B7 E7 B8 E8 B9 E9 B10 E10 B11 E11 B12 E12 B13 E13 B14 E14 B15 E15 B16 E16 B17 E17 B18 E18 B19 E19 B20 E20 B21 E21 B22 E22 B23 E23 B24 E24 B25 E25 B26 E26 B27 E27 B28 E28 B29 E29 B30 E30 B31 E31 B32 E32 B33 E33 B34 E34 B35 E35 B36 E36 B37 E37 B38 E38 B39 E39 B40 E40 B41 E41 B42 E42 B43 E43 B44 E44 B45 E45 B46 E46 B47 E47 B48 E48 B49 E49" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
+      <formula1>"現金,普通預金,ゆうちょ定期,前払金,前受金,会費収入,入会金収入,預貯金利子,雑収入,行事費,交際費,旅費,会議費,通信費,事務費"</formula1>
     </dataValidation>
-    <dataValidation sqref="C4 C5 C6 C7 C8 C9 C10 C11 C12 C13 C14 C15 C16 C17 C18 C19 C20 C21 C22 C23 C24 C25 C26 C27 C28 C29 C30 C31 C32 C33 C34 C35 C36 C37 C38 C39 C40 C41 C42 C43 C44 C45 C46 C47 C48 C49 C3 F3 F4 F5 F6 F7 F8 F9 F10 F11 F12 F13 F14 F15 F16 F17 F18 F19 F20 F21 F22 F23 F24 F25 F26 F27 F28 F29 F30 F31 F32 F33 F34 F35 F36 F37 F38 F39 F40 F41 F42 F43 F44 F45 F46 F47 F48 F49" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
-      <formula1>基本!$B$5:$B$35</formula1>
+    <dataValidation sqref="C3 F3 C4 F4 C5 F5 C6 F6 C7 F7 C8 F8 C9 F9 C10 F10 C11 F11 C12 F12 C13 F13 C14 F14 C15 F15 C16 F16 C17 F17 C18 F18 C19 F19 C20 F20 C21 F21 C22 F22 C23 F23 C24 F24 C25 F25 C26 F26 C27 F27 C28 F28 C29 F29 C30 F30 C31 F31 C32 F32 C33 F33 C34 F34 C35 F35 C36 F36 C37 F37 C38 F38 C39 F39 C40 F40 C41 F41 C42 F42 C43 F43 C44 F44 C45 F45 C46 F46 C47 F47 C48 F48 C49 F49" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
+      <formula1>"ゆうちょ,A銀行,正会員,準会員,B事業,C事業"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/翌期会計データ.xlsx
+++ b/翌期会計データ.xlsx
@@ -81,7 +81,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
@@ -90,7 +90,6 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -492,7 +491,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-4-1</t>
+          <t>2022/4/1</t>
         </is>
       </c>
     </row>
@@ -504,7 +503,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2023-3-31</t>
+          <t>2023/3/31</t>
         </is>
       </c>
     </row>
@@ -601,7 +600,7 @@
       </c>
       <c r="C7" s="3" t="inlineStr"/>
       <c r="D7" s="3" t="n">
-        <v>987654</v>
+        <v>700654</v>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
@@ -627,7 +626,7 @@
       </c>
       <c r="C8" s="3" t="inlineStr"/>
       <c r="D8" s="3" t="n">
-        <v>1741666</v>
+        <v>1454666</v>
       </c>
       <c r="E8" s="2" t="inlineStr"/>
       <c r="F8" s="2" t="inlineStr">
@@ -648,7 +647,7 @@
         </is>
       </c>
       <c r="C9" s="3" t="n">
-        <v>1741666</v>
+        <v>1454666</v>
       </c>
       <c r="D9" s="3" t="inlineStr"/>
       <c r="E9" s="2" t="inlineStr"/>
@@ -702,7 +701,7 @@
       </c>
       <c r="B12" s="2" t="inlineStr"/>
       <c r="C12" s="3" t="n">
-        <v>2924022</v>
+        <v>2637022</v>
       </c>
       <c r="D12" s="3" t="inlineStr"/>
       <c r="E12" s="2" t="inlineStr"/>
@@ -756,7 +755,7 @@
       </c>
       <c r="B15" s="2" t="inlineStr"/>
       <c r="C15" s="3" t="n">
-        <v>2924022</v>
+        <v>2637022</v>
       </c>
       <c r="D15" s="3" t="inlineStr"/>
       <c r="E15" s="2" t="inlineStr"/>
@@ -1220,9 +1219,10 @@
       </c>
     </row>
     <row r="3" ht="18" customHeight="1">
-      <c r="A3" s="4">
-        <f>TEXT(44652,"yyyy-mm-dd")</f>
-        <v/>
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>2022-4-1</t>
+        </is>
       </c>
       <c r="B3" s="5" t="n"/>
       <c r="C3" s="5" t="n"/>
@@ -1238,7 +1238,7 @@
       <c r="A4" s="4" t="inlineStr"/>
       <c r="B4" s="2" t="inlineStr"/>
       <c r="C4" s="2" t="inlineStr"/>
-      <c r="D4" s="6" t="inlineStr"/>
+      <c r="D4" s="2" t="inlineStr"/>
       <c r="E4" s="2" t="inlineStr"/>
       <c r="F4" s="3" t="inlineStr"/>
       <c r="G4" s="3" t="inlineStr"/>
@@ -1251,7 +1251,7 @@
       <c r="A5" s="4" t="inlineStr"/>
       <c r="B5" s="2" t="inlineStr"/>
       <c r="C5" s="2" t="inlineStr"/>
-      <c r="D5" s="6" t="inlineStr"/>
+      <c r="D5" s="2" t="inlineStr"/>
       <c r="E5" s="2" t="inlineStr"/>
       <c r="F5" s="3" t="inlineStr"/>
       <c r="G5" s="3" t="inlineStr"/>
@@ -1264,7 +1264,7 @@
       <c r="A6" s="4" t="inlineStr"/>
       <c r="B6" s="2" t="inlineStr"/>
       <c r="C6" s="2" t="inlineStr"/>
-      <c r="D6" s="6" t="inlineStr"/>
+      <c r="D6" s="2" t="inlineStr"/>
       <c r="E6" s="2" t="inlineStr"/>
       <c r="F6" s="3" t="inlineStr"/>
       <c r="G6" s="3" t="inlineStr"/>
@@ -1277,7 +1277,7 @@
       <c r="A7" s="4" t="inlineStr"/>
       <c r="B7" s="2" t="inlineStr"/>
       <c r="C7" s="2" t="inlineStr"/>
-      <c r="D7" s="6" t="inlineStr"/>
+      <c r="D7" s="2" t="inlineStr"/>
       <c r="E7" s="2" t="inlineStr"/>
       <c r="F7" s="3" t="inlineStr"/>
       <c r="G7" s="3" t="inlineStr"/>
@@ -1290,7 +1290,7 @@
       <c r="A8" s="4" t="inlineStr"/>
       <c r="B8" s="2" t="inlineStr"/>
       <c r="C8" s="2" t="inlineStr"/>
-      <c r="D8" s="6" t="inlineStr"/>
+      <c r="D8" s="2" t="inlineStr"/>
       <c r="E8" s="2" t="inlineStr"/>
       <c r="F8" s="3" t="inlineStr"/>
       <c r="G8" s="3" t="inlineStr"/>
@@ -1303,7 +1303,7 @@
       <c r="A9" s="4" t="inlineStr"/>
       <c r="B9" s="2" t="inlineStr"/>
       <c r="C9" s="2" t="inlineStr"/>
-      <c r="D9" s="6" t="inlineStr"/>
+      <c r="D9" s="2" t="inlineStr"/>
       <c r="E9" s="2" t="inlineStr"/>
       <c r="F9" s="3" t="inlineStr"/>
       <c r="G9" s="3" t="inlineStr"/>
@@ -1316,7 +1316,7 @@
       <c r="A10" s="4" t="inlineStr"/>
       <c r="B10" s="2" t="inlineStr"/>
       <c r="C10" s="2" t="inlineStr"/>
-      <c r="D10" s="6" t="inlineStr"/>
+      <c r="D10" s="2" t="inlineStr"/>
       <c r="E10" s="2" t="inlineStr"/>
       <c r="F10" s="3" t="inlineStr"/>
       <c r="G10" s="3" t="inlineStr"/>
@@ -1329,7 +1329,7 @@
       <c r="A11" s="4" t="inlineStr"/>
       <c r="B11" s="2" t="inlineStr"/>
       <c r="C11" s="2" t="inlineStr"/>
-      <c r="D11" s="6" t="inlineStr"/>
+      <c r="D11" s="2" t="inlineStr"/>
       <c r="E11" s="2" t="inlineStr"/>
       <c r="F11" s="3" t="inlineStr"/>
       <c r="G11" s="3" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
       <c r="A12" s="4" t="inlineStr"/>
       <c r="B12" s="2" t="inlineStr"/>
       <c r="C12" s="2" t="inlineStr"/>
-      <c r="D12" s="6" t="inlineStr"/>
+      <c r="D12" s="2" t="inlineStr"/>
       <c r="E12" s="2" t="inlineStr"/>
       <c r="F12" s="3" t="inlineStr"/>
       <c r="G12" s="3" t="inlineStr"/>
@@ -1355,7 +1355,7 @@
       <c r="A13" s="4" t="inlineStr"/>
       <c r="B13" s="2" t="inlineStr"/>
       <c r="C13" s="2" t="inlineStr"/>
-      <c r="D13" s="6" t="inlineStr"/>
+      <c r="D13" s="2" t="inlineStr"/>
       <c r="E13" s="2" t="inlineStr"/>
       <c r="F13" s="3" t="inlineStr"/>
       <c r="G13" s="3" t="inlineStr"/>
@@ -1368,7 +1368,7 @@
       <c r="A14" s="4" t="inlineStr"/>
       <c r="B14" s="2" t="inlineStr"/>
       <c r="C14" s="2" t="inlineStr"/>
-      <c r="D14" s="6" t="inlineStr"/>
+      <c r="D14" s="2" t="inlineStr"/>
       <c r="E14" s="2" t="inlineStr"/>
       <c r="F14" s="3" t="inlineStr"/>
       <c r="G14" s="3" t="inlineStr"/>
@@ -1381,7 +1381,7 @@
       <c r="A15" s="4" t="inlineStr"/>
       <c r="B15" s="2" t="inlineStr"/>
       <c r="C15" s="2" t="inlineStr"/>
-      <c r="D15" s="6" t="inlineStr"/>
+      <c r="D15" s="2" t="inlineStr"/>
       <c r="E15" s="2" t="inlineStr"/>
       <c r="F15" s="3" t="inlineStr"/>
       <c r="G15" s="3" t="inlineStr"/>
@@ -1394,7 +1394,7 @@
       <c r="A16" s="4" t="inlineStr"/>
       <c r="B16" s="2" t="inlineStr"/>
       <c r="C16" s="2" t="inlineStr"/>
-      <c r="D16" s="6" t="inlineStr"/>
+      <c r="D16" s="2" t="inlineStr"/>
       <c r="E16" s="2" t="inlineStr"/>
       <c r="F16" s="3" t="inlineStr"/>
       <c r="G16" s="3" t="inlineStr"/>
@@ -1407,7 +1407,7 @@
       <c r="A17" s="4" t="inlineStr"/>
       <c r="B17" s="2" t="inlineStr"/>
       <c r="C17" s="2" t="inlineStr"/>
-      <c r="D17" s="6" t="inlineStr"/>
+      <c r="D17" s="2" t="inlineStr"/>
       <c r="E17" s="2" t="inlineStr"/>
       <c r="F17" s="3" t="inlineStr"/>
       <c r="G17" s="3" t="inlineStr"/>
@@ -1420,7 +1420,7 @@
       <c r="A18" s="4" t="inlineStr"/>
       <c r="B18" s="2" t="inlineStr"/>
       <c r="C18" s="2" t="inlineStr"/>
-      <c r="D18" s="6" t="inlineStr"/>
+      <c r="D18" s="2" t="inlineStr"/>
       <c r="E18" s="2" t="inlineStr"/>
       <c r="F18" s="3" t="inlineStr"/>
       <c r="G18" s="3" t="inlineStr"/>
@@ -1433,7 +1433,7 @@
       <c r="A19" s="4" t="inlineStr"/>
       <c r="B19" s="2" t="inlineStr"/>
       <c r="C19" s="2" t="inlineStr"/>
-      <c r="D19" s="6" t="inlineStr"/>
+      <c r="D19" s="2" t="inlineStr"/>
       <c r="E19" s="2" t="inlineStr"/>
       <c r="F19" s="3" t="inlineStr"/>
       <c r="G19" s="3" t="inlineStr"/>
@@ -1446,7 +1446,7 @@
       <c r="A20" s="4" t="inlineStr"/>
       <c r="B20" s="2" t="inlineStr"/>
       <c r="C20" s="2" t="inlineStr"/>
-      <c r="D20" s="6" t="inlineStr"/>
+      <c r="D20" s="2" t="inlineStr"/>
       <c r="E20" s="2" t="inlineStr"/>
       <c r="F20" s="3" t="inlineStr"/>
       <c r="G20" s="3" t="inlineStr"/>
@@ -1459,7 +1459,7 @@
       <c r="A21" s="4" t="inlineStr"/>
       <c r="B21" s="2" t="inlineStr"/>
       <c r="C21" s="2" t="inlineStr"/>
-      <c r="D21" s="6" t="inlineStr"/>
+      <c r="D21" s="2" t="inlineStr"/>
       <c r="E21" s="2" t="inlineStr"/>
       <c r="F21" s="3" t="inlineStr"/>
       <c r="G21" s="3" t="inlineStr"/>
@@ -1472,7 +1472,7 @@
       <c r="A22" s="4" t="inlineStr"/>
       <c r="B22" s="2" t="inlineStr"/>
       <c r="C22" s="2" t="inlineStr"/>
-      <c r="D22" s="6" t="inlineStr"/>
+      <c r="D22" s="2" t="inlineStr"/>
       <c r="E22" s="2" t="inlineStr"/>
       <c r="F22" s="3" t="inlineStr"/>
       <c r="G22" s="3" t="inlineStr"/>
@@ -1485,7 +1485,7 @@
       <c r="A23" s="4" t="inlineStr"/>
       <c r="B23" s="2" t="inlineStr"/>
       <c r="C23" s="2" t="inlineStr"/>
-      <c r="D23" s="6" t="inlineStr"/>
+      <c r="D23" s="2" t="inlineStr"/>
       <c r="E23" s="2" t="inlineStr"/>
       <c r="F23" s="3" t="inlineStr"/>
       <c r="G23" s="3" t="inlineStr"/>
@@ -1498,7 +1498,7 @@
       <c r="A24" s="4" t="inlineStr"/>
       <c r="B24" s="2" t="inlineStr"/>
       <c r="C24" s="2" t="inlineStr"/>
-      <c r="D24" s="6" t="inlineStr"/>
+      <c r="D24" s="2" t="inlineStr"/>
       <c r="E24" s="2" t="inlineStr"/>
       <c r="F24" s="3" t="inlineStr"/>
       <c r="G24" s="3" t="inlineStr"/>
@@ -1511,7 +1511,7 @@
       <c r="A25" s="4" t="inlineStr"/>
       <c r="B25" s="2" t="inlineStr"/>
       <c r="C25" s="2" t="inlineStr"/>
-      <c r="D25" s="6" t="inlineStr"/>
+      <c r="D25" s="2" t="inlineStr"/>
       <c r="E25" s="2" t="inlineStr"/>
       <c r="F25" s="3" t="inlineStr"/>
       <c r="G25" s="3" t="inlineStr"/>
@@ -1524,7 +1524,7 @@
       <c r="A26" s="4" t="inlineStr"/>
       <c r="B26" s="2" t="inlineStr"/>
       <c r="C26" s="2" t="inlineStr"/>
-      <c r="D26" s="6" t="inlineStr"/>
+      <c r="D26" s="2" t="inlineStr"/>
       <c r="E26" s="2" t="inlineStr"/>
       <c r="F26" s="3" t="inlineStr"/>
       <c r="G26" s="3" t="inlineStr"/>
@@ -1537,7 +1537,7 @@
       <c r="A27" s="4" t="inlineStr"/>
       <c r="B27" s="2" t="inlineStr"/>
       <c r="C27" s="2" t="inlineStr"/>
-      <c r="D27" s="6" t="inlineStr"/>
+      <c r="D27" s="2" t="inlineStr"/>
       <c r="E27" s="2" t="inlineStr"/>
       <c r="F27" s="3" t="inlineStr"/>
       <c r="G27" s="3" t="inlineStr"/>
@@ -1550,7 +1550,7 @@
       <c r="A28" s="4" t="inlineStr"/>
       <c r="B28" s="2" t="inlineStr"/>
       <c r="C28" s="2" t="inlineStr"/>
-      <c r="D28" s="6" t="inlineStr"/>
+      <c r="D28" s="2" t="inlineStr"/>
       <c r="E28" s="2" t="inlineStr"/>
       <c r="F28" s="3" t="inlineStr"/>
       <c r="G28" s="3" t="inlineStr"/>
@@ -1563,7 +1563,7 @@
       <c r="A29" s="4" t="inlineStr"/>
       <c r="B29" s="2" t="inlineStr"/>
       <c r="C29" s="2" t="inlineStr"/>
-      <c r="D29" s="6" t="inlineStr"/>
+      <c r="D29" s="2" t="inlineStr"/>
       <c r="E29" s="2" t="inlineStr"/>
       <c r="F29" s="3" t="inlineStr"/>
       <c r="G29" s="3" t="inlineStr"/>
@@ -1576,7 +1576,7 @@
       <c r="A30" s="4" t="inlineStr"/>
       <c r="B30" s="2" t="inlineStr"/>
       <c r="C30" s="2" t="inlineStr"/>
-      <c r="D30" s="6" t="inlineStr"/>
+      <c r="D30" s="2" t="inlineStr"/>
       <c r="E30" s="2" t="inlineStr"/>
       <c r="F30" s="3" t="inlineStr"/>
       <c r="G30" s="3" t="inlineStr"/>
@@ -1589,7 +1589,7 @@
       <c r="A31" s="4" t="inlineStr"/>
       <c r="B31" s="2" t="inlineStr"/>
       <c r="C31" s="2" t="inlineStr"/>
-      <c r="D31" s="6" t="inlineStr"/>
+      <c r="D31" s="2" t="inlineStr"/>
       <c r="E31" s="2" t="inlineStr"/>
       <c r="F31" s="3" t="inlineStr"/>
       <c r="G31" s="3" t="inlineStr"/>
@@ -1602,7 +1602,7 @@
       <c r="A32" s="4" t="inlineStr"/>
       <c r="B32" s="2" t="inlineStr"/>
       <c r="C32" s="2" t="inlineStr"/>
-      <c r="D32" s="6" t="inlineStr"/>
+      <c r="D32" s="2" t="inlineStr"/>
       <c r="E32" s="2" t="inlineStr"/>
       <c r="F32" s="3" t="inlineStr"/>
       <c r="G32" s="3" t="inlineStr"/>
@@ -1615,7 +1615,7 @@
       <c r="A33" s="4" t="inlineStr"/>
       <c r="B33" s="2" t="inlineStr"/>
       <c r="C33" s="2" t="inlineStr"/>
-      <c r="D33" s="6" t="inlineStr"/>
+      <c r="D33" s="2" t="inlineStr"/>
       <c r="E33" s="2" t="inlineStr"/>
       <c r="F33" s="3" t="inlineStr"/>
       <c r="G33" s="3" t="inlineStr"/>
@@ -1628,7 +1628,7 @@
       <c r="A34" s="4" t="inlineStr"/>
       <c r="B34" s="2" t="inlineStr"/>
       <c r="C34" s="2" t="inlineStr"/>
-      <c r="D34" s="6" t="inlineStr"/>
+      <c r="D34" s="2" t="inlineStr"/>
       <c r="E34" s="2" t="inlineStr"/>
       <c r="F34" s="3" t="inlineStr"/>
       <c r="G34" s="3" t="inlineStr"/>
@@ -1641,7 +1641,7 @@
       <c r="A35" s="4" t="inlineStr"/>
       <c r="B35" s="2" t="inlineStr"/>
       <c r="C35" s="2" t="inlineStr"/>
-      <c r="D35" s="6" t="inlineStr"/>
+      <c r="D35" s="2" t="inlineStr"/>
       <c r="E35" s="2" t="inlineStr"/>
       <c r="F35" s="3" t="inlineStr"/>
       <c r="G35" s="3" t="inlineStr"/>
@@ -1654,7 +1654,7 @@
       <c r="A36" s="4" t="inlineStr"/>
       <c r="B36" s="2" t="inlineStr"/>
       <c r="C36" s="2" t="inlineStr"/>
-      <c r="D36" s="6" t="inlineStr"/>
+      <c r="D36" s="2" t="inlineStr"/>
       <c r="E36" s="2" t="inlineStr"/>
       <c r="F36" s="3" t="inlineStr"/>
       <c r="G36" s="3" t="inlineStr"/>
@@ -1667,7 +1667,7 @@
       <c r="A37" s="4" t="inlineStr"/>
       <c r="B37" s="2" t="inlineStr"/>
       <c r="C37" s="2" t="inlineStr"/>
-      <c r="D37" s="6" t="inlineStr"/>
+      <c r="D37" s="2" t="inlineStr"/>
       <c r="E37" s="2" t="inlineStr"/>
       <c r="F37" s="3" t="inlineStr"/>
       <c r="G37" s="3" t="inlineStr"/>
@@ -1680,7 +1680,7 @@
       <c r="A38" s="4" t="inlineStr"/>
       <c r="B38" s="2" t="inlineStr"/>
       <c r="C38" s="2" t="inlineStr"/>
-      <c r="D38" s="6" t="inlineStr"/>
+      <c r="D38" s="2" t="inlineStr"/>
       <c r="E38" s="2" t="inlineStr"/>
       <c r="F38" s="3" t="inlineStr"/>
       <c r="G38" s="3" t="inlineStr"/>
@@ -1693,7 +1693,7 @@
       <c r="A39" s="4" t="inlineStr"/>
       <c r="B39" s="2" t="inlineStr"/>
       <c r="C39" s="2" t="inlineStr"/>
-      <c r="D39" s="6" t="inlineStr"/>
+      <c r="D39" s="2" t="inlineStr"/>
       <c r="E39" s="2" t="inlineStr"/>
       <c r="F39" s="3" t="inlineStr"/>
       <c r="G39" s="3" t="inlineStr"/>
@@ -1706,7 +1706,7 @@
       <c r="A40" s="4" t="inlineStr"/>
       <c r="B40" s="2" t="inlineStr"/>
       <c r="C40" s="2" t="inlineStr"/>
-      <c r="D40" s="6" t="inlineStr"/>
+      <c r="D40" s="2" t="inlineStr"/>
       <c r="E40" s="2" t="inlineStr"/>
       <c r="F40" s="3" t="inlineStr"/>
       <c r="G40" s="3" t="inlineStr"/>
@@ -1719,7 +1719,7 @@
       <c r="A41" s="4" t="inlineStr"/>
       <c r="B41" s="2" t="inlineStr"/>
       <c r="C41" s="2" t="inlineStr"/>
-      <c r="D41" s="6" t="inlineStr"/>
+      <c r="D41" s="2" t="inlineStr"/>
       <c r="E41" s="2" t="inlineStr"/>
       <c r="F41" s="3" t="inlineStr"/>
       <c r="G41" s="3" t="inlineStr"/>
@@ -1732,7 +1732,7 @@
       <c r="A42" s="4" t="inlineStr"/>
       <c r="B42" s="2" t="inlineStr"/>
       <c r="C42" s="2" t="inlineStr"/>
-      <c r="D42" s="6" t="inlineStr"/>
+      <c r="D42" s="2" t="inlineStr"/>
       <c r="E42" s="2" t="inlineStr"/>
       <c r="F42" s="3" t="inlineStr"/>
       <c r="G42" s="3" t="inlineStr"/>
@@ -1745,7 +1745,7 @@
       <c r="A43" s="4" t="inlineStr"/>
       <c r="B43" s="2" t="inlineStr"/>
       <c r="C43" s="2" t="inlineStr"/>
-      <c r="D43" s="6" t="inlineStr"/>
+      <c r="D43" s="2" t="inlineStr"/>
       <c r="E43" s="2" t="inlineStr"/>
       <c r="F43" s="3" t="inlineStr"/>
       <c r="G43" s="3" t="inlineStr"/>
@@ -1758,7 +1758,7 @@
       <c r="A44" s="4" t="inlineStr"/>
       <c r="B44" s="2" t="inlineStr"/>
       <c r="C44" s="2" t="inlineStr"/>
-      <c r="D44" s="6" t="inlineStr"/>
+      <c r="D44" s="2" t="inlineStr"/>
       <c r="E44" s="2" t="inlineStr"/>
       <c r="F44" s="3" t="inlineStr"/>
       <c r="G44" s="3" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
       <c r="A45" s="4" t="inlineStr"/>
       <c r="B45" s="2" t="inlineStr"/>
       <c r="C45" s="2" t="inlineStr"/>
-      <c r="D45" s="6" t="inlineStr"/>
+      <c r="D45" s="2" t="inlineStr"/>
       <c r="E45" s="2" t="inlineStr"/>
       <c r="F45" s="3" t="inlineStr"/>
       <c r="G45" s="3" t="inlineStr"/>
@@ -1784,7 +1784,7 @@
       <c r="A46" s="4" t="inlineStr"/>
       <c r="B46" s="2" t="inlineStr"/>
       <c r="C46" s="2" t="inlineStr"/>
-      <c r="D46" s="6" t="inlineStr"/>
+      <c r="D46" s="2" t="inlineStr"/>
       <c r="E46" s="2" t="inlineStr"/>
       <c r="F46" s="3" t="inlineStr"/>
       <c r="G46" s="3" t="inlineStr"/>
@@ -1797,7 +1797,7 @@
       <c r="A47" s="4" t="inlineStr"/>
       <c r="B47" s="2" t="inlineStr"/>
       <c r="C47" s="2" t="inlineStr"/>
-      <c r="D47" s="6" t="inlineStr"/>
+      <c r="D47" s="2" t="inlineStr"/>
       <c r="E47" s="2" t="inlineStr"/>
       <c r="F47" s="3" t="inlineStr"/>
       <c r="G47" s="3" t="inlineStr"/>
@@ -1810,7 +1810,7 @@
       <c r="A48" s="4" t="inlineStr"/>
       <c r="B48" s="2" t="inlineStr"/>
       <c r="C48" s="2" t="inlineStr"/>
-      <c r="D48" s="6" t="inlineStr"/>
+      <c r="D48" s="2" t="inlineStr"/>
       <c r="E48" s="2" t="inlineStr"/>
       <c r="F48" s="3" t="inlineStr"/>
       <c r="G48" s="3" t="inlineStr"/>
@@ -1823,7 +1823,7 @@
       <c r="A49" s="4" t="inlineStr"/>
       <c r="B49" s="2" t="inlineStr"/>
       <c r="C49" s="2" t="inlineStr"/>
-      <c r="D49" s="6" t="inlineStr"/>
+      <c r="D49" s="2" t="inlineStr"/>
       <c r="E49" s="2" t="inlineStr"/>
       <c r="F49" s="3" t="inlineStr"/>
       <c r="G49" s="3" t="inlineStr"/>
@@ -1835,11 +1835,11 @@
     <row r="50" ht="18" customHeight="1"/>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation sqref="B4 B5 B6 B7 B8 B9 B10 B11 B12 B13 B14 B15 B16 B17 B18 B19 B20 B21 B22 B23 B24 B25 B26 B27 B28 B29 B30 B31 B32 B33 B34 B35 B36 B37 B38 B39 B40 B41 B42 B43 B44 B45 B46 B47 B48 B49" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
-      <formula1>"現金,普通預金,ゆうちょ定期,前払金,前受金,会費収入,入会金収入,預貯金利子,雑収入,行事費,交際費,旅費,会議費,通信費,事務費"</formula1>
+    <dataValidation sqref="B4 B5 B6 B7 B8 B9 B10 B11 B12 B13 B14 B15 B16 B17 B18 B19 B20 B21 B22 B23 B24 B25 B26 B27 B28 B29 B30 B31 B32 B33 B34 B35 B36 B37 B38 B39 B40 B41 B42 B43 B44 B45 B46 B47 B48 B49 B3 E3 E4 E5 E6 E7 E8 E9 E10 E11 E12 E13 E14 E15 E16 E17 E18 E19 E20 E21 E22 E23 E24 E25 E26 E27 E28 E29 E30 E31 E32 E33 E34 E35 E36 E37 E38 E39 E40 E41 E42 E43 E44 E45 E46 E47 E48 E49" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
+      <formula1>基本!$A$5:$A$35</formula1>
     </dataValidation>
-    <dataValidation sqref="C4 C5 C6 C7 C8 C9 C10 C11 C12 C13 C14 C15 C16 C17 C18 C19 C20 C21 C22 C23 C24 C25 C26 C27 C28 C29 C30 C31 C32 C33 C34 C35 C36 C37 C38 C39 C40 C41 C42 C43 C44 C45 C46 C47 C48 C49" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
-      <formula1>"ゆうちょ,A銀行,正会員,準会員,B事業,C事業"</formula1>
+    <dataValidation sqref="C4 C5 C6 C7 C8 C9 C10 C11 C12 C13 C14 C15 C16 C17 C18 C19 C20 C21 C22 C23 C24 C25 C26 C27 C28 C29 C30 C31 C32 C33 C34 C35 C36 C37 C38 C39 C40 C41 C42 C43 C44 C45 C46 C47 C48 C49 C3 F3 F4 F5 F6 F7 F8 F9 F10 F11 F12 F13 F14 F15 F16 F17 F18 F19 F20 F21 F22 F23 F24 F25 F26 F27 F28 F29 F30 F31 F32 F33 F34 F35 F36 F37 F38 F39 F40 F41 F42 F43 F44 F45 F46 F47 F48 F49" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
+      <formula1>基本!$B$5:$B$35</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1921,9 +1921,10 @@
       </c>
     </row>
     <row r="3" ht="18" customHeight="1">
-      <c r="A3" s="4">
-        <f>TEXT(44652,"yyyy-mm-dd")</f>
-        <v/>
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>2022-4-1</t>
+        </is>
       </c>
       <c r="B3" s="5" t="n"/>
       <c r="C3" s="5" t="n"/>
@@ -1939,7 +1940,7 @@
       <c r="A4" s="4" t="inlineStr"/>
       <c r="B4" s="2" t="inlineStr"/>
       <c r="C4" s="2" t="inlineStr"/>
-      <c r="D4" s="6" t="inlineStr"/>
+      <c r="D4" s="2" t="inlineStr"/>
       <c r="E4" s="2" t="inlineStr"/>
       <c r="F4" s="3" t="inlineStr"/>
       <c r="G4" s="3" t="inlineStr"/>
@@ -1952,7 +1953,7 @@
       <c r="A5" s="4" t="inlineStr"/>
       <c r="B5" s="2" t="inlineStr"/>
       <c r="C5" s="2" t="inlineStr"/>
-      <c r="D5" s="6" t="inlineStr"/>
+      <c r="D5" s="2" t="inlineStr"/>
       <c r="E5" s="2" t="inlineStr"/>
       <c r="F5" s="3" t="inlineStr"/>
       <c r="G5" s="3" t="inlineStr"/>
@@ -1965,7 +1966,7 @@
       <c r="A6" s="4" t="inlineStr"/>
       <c r="B6" s="2" t="inlineStr"/>
       <c r="C6" s="2" t="inlineStr"/>
-      <c r="D6" s="6" t="inlineStr"/>
+      <c r="D6" s="2" t="inlineStr"/>
       <c r="E6" s="2" t="inlineStr"/>
       <c r="F6" s="3" t="inlineStr"/>
       <c r="G6" s="3" t="inlineStr"/>
@@ -1978,7 +1979,7 @@
       <c r="A7" s="4" t="inlineStr"/>
       <c r="B7" s="2" t="inlineStr"/>
       <c r="C7" s="2" t="inlineStr"/>
-      <c r="D7" s="6" t="inlineStr"/>
+      <c r="D7" s="2" t="inlineStr"/>
       <c r="E7" s="2" t="inlineStr"/>
       <c r="F7" s="3" t="inlineStr"/>
       <c r="G7" s="3" t="inlineStr"/>
@@ -1991,7 +1992,7 @@
       <c r="A8" s="4" t="inlineStr"/>
       <c r="B8" s="2" t="inlineStr"/>
       <c r="C8" s="2" t="inlineStr"/>
-      <c r="D8" s="6" t="inlineStr"/>
+      <c r="D8" s="2" t="inlineStr"/>
       <c r="E8" s="2" t="inlineStr"/>
       <c r="F8" s="3" t="inlineStr"/>
       <c r="G8" s="3" t="inlineStr"/>
@@ -2004,7 +2005,7 @@
       <c r="A9" s="4" t="inlineStr"/>
       <c r="B9" s="2" t="inlineStr"/>
       <c r="C9" s="2" t="inlineStr"/>
-      <c r="D9" s="6" t="inlineStr"/>
+      <c r="D9" s="2" t="inlineStr"/>
       <c r="E9" s="2" t="inlineStr"/>
       <c r="F9" s="3" t="inlineStr"/>
       <c r="G9" s="3" t="inlineStr"/>
@@ -2017,7 +2018,7 @@
       <c r="A10" s="4" t="inlineStr"/>
       <c r="B10" s="2" t="inlineStr"/>
       <c r="C10" s="2" t="inlineStr"/>
-      <c r="D10" s="6" t="inlineStr"/>
+      <c r="D10" s="2" t="inlineStr"/>
       <c r="E10" s="2" t="inlineStr"/>
       <c r="F10" s="3" t="inlineStr"/>
       <c r="G10" s="3" t="inlineStr"/>
@@ -2030,7 +2031,7 @@
       <c r="A11" s="4" t="inlineStr"/>
       <c r="B11" s="2" t="inlineStr"/>
       <c r="C11" s="2" t="inlineStr"/>
-      <c r="D11" s="6" t="inlineStr"/>
+      <c r="D11" s="2" t="inlineStr"/>
       <c r="E11" s="2" t="inlineStr"/>
       <c r="F11" s="3" t="inlineStr"/>
       <c r="G11" s="3" t="inlineStr"/>
@@ -2043,7 +2044,7 @@
       <c r="A12" s="4" t="inlineStr"/>
       <c r="B12" s="2" t="inlineStr"/>
       <c r="C12" s="2" t="inlineStr"/>
-      <c r="D12" s="6" t="inlineStr"/>
+      <c r="D12" s="2" t="inlineStr"/>
       <c r="E12" s="2" t="inlineStr"/>
       <c r="F12" s="3" t="inlineStr"/>
       <c r="G12" s="3" t="inlineStr"/>
@@ -2056,7 +2057,7 @@
       <c r="A13" s="4" t="inlineStr"/>
       <c r="B13" s="2" t="inlineStr"/>
       <c r="C13" s="2" t="inlineStr"/>
-      <c r="D13" s="6" t="inlineStr"/>
+      <c r="D13" s="2" t="inlineStr"/>
       <c r="E13" s="2" t="inlineStr"/>
       <c r="F13" s="3" t="inlineStr"/>
       <c r="G13" s="3" t="inlineStr"/>
@@ -2069,7 +2070,7 @@
       <c r="A14" s="4" t="inlineStr"/>
       <c r="B14" s="2" t="inlineStr"/>
       <c r="C14" s="2" t="inlineStr"/>
-      <c r="D14" s="6" t="inlineStr"/>
+      <c r="D14" s="2" t="inlineStr"/>
       <c r="E14" s="2" t="inlineStr"/>
       <c r="F14" s="3" t="inlineStr"/>
       <c r="G14" s="3" t="inlineStr"/>
@@ -2082,7 +2083,7 @@
       <c r="A15" s="4" t="inlineStr"/>
       <c r="B15" s="2" t="inlineStr"/>
       <c r="C15" s="2" t="inlineStr"/>
-      <c r="D15" s="6" t="inlineStr"/>
+      <c r="D15" s="2" t="inlineStr"/>
       <c r="E15" s="2" t="inlineStr"/>
       <c r="F15" s="3" t="inlineStr"/>
       <c r="G15" s="3" t="inlineStr"/>
@@ -2095,7 +2096,7 @@
       <c r="A16" s="4" t="inlineStr"/>
       <c r="B16" s="2" t="inlineStr"/>
       <c r="C16" s="2" t="inlineStr"/>
-      <c r="D16" s="6" t="inlineStr"/>
+      <c r="D16" s="2" t="inlineStr"/>
       <c r="E16" s="2" t="inlineStr"/>
       <c r="F16" s="3" t="inlineStr"/>
       <c r="G16" s="3" t="inlineStr"/>
@@ -2108,7 +2109,7 @@
       <c r="A17" s="4" t="inlineStr"/>
       <c r="B17" s="2" t="inlineStr"/>
       <c r="C17" s="2" t="inlineStr"/>
-      <c r="D17" s="6" t="inlineStr"/>
+      <c r="D17" s="2" t="inlineStr"/>
       <c r="E17" s="2" t="inlineStr"/>
       <c r="F17" s="3" t="inlineStr"/>
       <c r="G17" s="3" t="inlineStr"/>
@@ -2121,7 +2122,7 @@
       <c r="A18" s="4" t="inlineStr"/>
       <c r="B18" s="2" t="inlineStr"/>
       <c r="C18" s="2" t="inlineStr"/>
-      <c r="D18" s="6" t="inlineStr"/>
+      <c r="D18" s="2" t="inlineStr"/>
       <c r="E18" s="2" t="inlineStr"/>
       <c r="F18" s="3" t="inlineStr"/>
       <c r="G18" s="3" t="inlineStr"/>
@@ -2134,7 +2135,7 @@
       <c r="A19" s="4" t="inlineStr"/>
       <c r="B19" s="2" t="inlineStr"/>
       <c r="C19" s="2" t="inlineStr"/>
-      <c r="D19" s="6" t="inlineStr"/>
+      <c r="D19" s="2" t="inlineStr"/>
       <c r="E19" s="2" t="inlineStr"/>
       <c r="F19" s="3" t="inlineStr"/>
       <c r="G19" s="3" t="inlineStr"/>
@@ -2147,7 +2148,7 @@
       <c r="A20" s="4" t="inlineStr"/>
       <c r="B20" s="2" t="inlineStr"/>
       <c r="C20" s="2" t="inlineStr"/>
-      <c r="D20" s="6" t="inlineStr"/>
+      <c r="D20" s="2" t="inlineStr"/>
       <c r="E20" s="2" t="inlineStr"/>
       <c r="F20" s="3" t="inlineStr"/>
       <c r="G20" s="3" t="inlineStr"/>
@@ -2160,7 +2161,7 @@
       <c r="A21" s="4" t="inlineStr"/>
       <c r="B21" s="2" t="inlineStr"/>
       <c r="C21" s="2" t="inlineStr"/>
-      <c r="D21" s="6" t="inlineStr"/>
+      <c r="D21" s="2" t="inlineStr"/>
       <c r="E21" s="2" t="inlineStr"/>
       <c r="F21" s="3" t="inlineStr"/>
       <c r="G21" s="3" t="inlineStr"/>
@@ -2173,7 +2174,7 @@
       <c r="A22" s="4" t="inlineStr"/>
       <c r="B22" s="2" t="inlineStr"/>
       <c r="C22" s="2" t="inlineStr"/>
-      <c r="D22" s="6" t="inlineStr"/>
+      <c r="D22" s="2" t="inlineStr"/>
       <c r="E22" s="2" t="inlineStr"/>
       <c r="F22" s="3" t="inlineStr"/>
       <c r="G22" s="3" t="inlineStr"/>
@@ -2186,7 +2187,7 @@
       <c r="A23" s="4" t="inlineStr"/>
       <c r="B23" s="2" t="inlineStr"/>
       <c r="C23" s="2" t="inlineStr"/>
-      <c r="D23" s="6" t="inlineStr"/>
+      <c r="D23" s="2" t="inlineStr"/>
       <c r="E23" s="2" t="inlineStr"/>
       <c r="F23" s="3" t="inlineStr"/>
       <c r="G23" s="3" t="inlineStr"/>
@@ -2199,7 +2200,7 @@
       <c r="A24" s="4" t="inlineStr"/>
       <c r="B24" s="2" t="inlineStr"/>
       <c r="C24" s="2" t="inlineStr"/>
-      <c r="D24" s="6" t="inlineStr"/>
+      <c r="D24" s="2" t="inlineStr"/>
       <c r="E24" s="2" t="inlineStr"/>
       <c r="F24" s="3" t="inlineStr"/>
       <c r="G24" s="3" t="inlineStr"/>
@@ -2212,7 +2213,7 @@
       <c r="A25" s="4" t="inlineStr"/>
       <c r="B25" s="2" t="inlineStr"/>
       <c r="C25" s="2" t="inlineStr"/>
-      <c r="D25" s="6" t="inlineStr"/>
+      <c r="D25" s="2" t="inlineStr"/>
       <c r="E25" s="2" t="inlineStr"/>
       <c r="F25" s="3" t="inlineStr"/>
       <c r="G25" s="3" t="inlineStr"/>
@@ -2225,7 +2226,7 @@
       <c r="A26" s="4" t="inlineStr"/>
       <c r="B26" s="2" t="inlineStr"/>
       <c r="C26" s="2" t="inlineStr"/>
-      <c r="D26" s="6" t="inlineStr"/>
+      <c r="D26" s="2" t="inlineStr"/>
       <c r="E26" s="2" t="inlineStr"/>
       <c r="F26" s="3" t="inlineStr"/>
       <c r="G26" s="3" t="inlineStr"/>
@@ -2238,7 +2239,7 @@
       <c r="A27" s="4" t="inlineStr"/>
       <c r="B27" s="2" t="inlineStr"/>
       <c r="C27" s="2" t="inlineStr"/>
-      <c r="D27" s="6" t="inlineStr"/>
+      <c r="D27" s="2" t="inlineStr"/>
       <c r="E27" s="2" t="inlineStr"/>
       <c r="F27" s="3" t="inlineStr"/>
       <c r="G27" s="3" t="inlineStr"/>
@@ -2251,7 +2252,7 @@
       <c r="A28" s="4" t="inlineStr"/>
       <c r="B28" s="2" t="inlineStr"/>
       <c r="C28" s="2" t="inlineStr"/>
-      <c r="D28" s="6" t="inlineStr"/>
+      <c r="D28" s="2" t="inlineStr"/>
       <c r="E28" s="2" t="inlineStr"/>
       <c r="F28" s="3" t="inlineStr"/>
       <c r="G28" s="3" t="inlineStr"/>
@@ -2264,7 +2265,7 @@
       <c r="A29" s="4" t="inlineStr"/>
       <c r="B29" s="2" t="inlineStr"/>
       <c r="C29" s="2" t="inlineStr"/>
-      <c r="D29" s="6" t="inlineStr"/>
+      <c r="D29" s="2" t="inlineStr"/>
       <c r="E29" s="2" t="inlineStr"/>
       <c r="F29" s="3" t="inlineStr"/>
       <c r="G29" s="3" t="inlineStr"/>
@@ -2277,7 +2278,7 @@
       <c r="A30" s="4" t="inlineStr"/>
       <c r="B30" s="2" t="inlineStr"/>
       <c r="C30" s="2" t="inlineStr"/>
-      <c r="D30" s="6" t="inlineStr"/>
+      <c r="D30" s="2" t="inlineStr"/>
       <c r="E30" s="2" t="inlineStr"/>
       <c r="F30" s="3" t="inlineStr"/>
       <c r="G30" s="3" t="inlineStr"/>
@@ -2290,7 +2291,7 @@
       <c r="A31" s="4" t="inlineStr"/>
       <c r="B31" s="2" t="inlineStr"/>
       <c r="C31" s="2" t="inlineStr"/>
-      <c r="D31" s="6" t="inlineStr"/>
+      <c r="D31" s="2" t="inlineStr"/>
       <c r="E31" s="2" t="inlineStr"/>
       <c r="F31" s="3" t="inlineStr"/>
       <c r="G31" s="3" t="inlineStr"/>
@@ -2303,7 +2304,7 @@
       <c r="A32" s="4" t="inlineStr"/>
       <c r="B32" s="2" t="inlineStr"/>
       <c r="C32" s="2" t="inlineStr"/>
-      <c r="D32" s="6" t="inlineStr"/>
+      <c r="D32" s="2" t="inlineStr"/>
       <c r="E32" s="2" t="inlineStr"/>
       <c r="F32" s="3" t="inlineStr"/>
       <c r="G32" s="3" t="inlineStr"/>
@@ -2316,7 +2317,7 @@
       <c r="A33" s="4" t="inlineStr"/>
       <c r="B33" s="2" t="inlineStr"/>
       <c r="C33" s="2" t="inlineStr"/>
-      <c r="D33" s="6" t="inlineStr"/>
+      <c r="D33" s="2" t="inlineStr"/>
       <c r="E33" s="2" t="inlineStr"/>
       <c r="F33" s="3" t="inlineStr"/>
       <c r="G33" s="3" t="inlineStr"/>
@@ -2329,7 +2330,7 @@
       <c r="A34" s="4" t="inlineStr"/>
       <c r="B34" s="2" t="inlineStr"/>
       <c r="C34" s="2" t="inlineStr"/>
-      <c r="D34" s="6" t="inlineStr"/>
+      <c r="D34" s="2" t="inlineStr"/>
       <c r="E34" s="2" t="inlineStr"/>
       <c r="F34" s="3" t="inlineStr"/>
       <c r="G34" s="3" t="inlineStr"/>
@@ -2342,7 +2343,7 @@
       <c r="A35" s="4" t="inlineStr"/>
       <c r="B35" s="2" t="inlineStr"/>
       <c r="C35" s="2" t="inlineStr"/>
-      <c r="D35" s="6" t="inlineStr"/>
+      <c r="D35" s="2" t="inlineStr"/>
       <c r="E35" s="2" t="inlineStr"/>
       <c r="F35" s="3" t="inlineStr"/>
       <c r="G35" s="3" t="inlineStr"/>
@@ -2355,7 +2356,7 @@
       <c r="A36" s="4" t="inlineStr"/>
       <c r="B36" s="2" t="inlineStr"/>
       <c r="C36" s="2" t="inlineStr"/>
-      <c r="D36" s="6" t="inlineStr"/>
+      <c r="D36" s="2" t="inlineStr"/>
       <c r="E36" s="2" t="inlineStr"/>
       <c r="F36" s="3" t="inlineStr"/>
       <c r="G36" s="3" t="inlineStr"/>
@@ -2368,7 +2369,7 @@
       <c r="A37" s="4" t="inlineStr"/>
       <c r="B37" s="2" t="inlineStr"/>
       <c r="C37" s="2" t="inlineStr"/>
-      <c r="D37" s="6" t="inlineStr"/>
+      <c r="D37" s="2" t="inlineStr"/>
       <c r="E37" s="2" t="inlineStr"/>
       <c r="F37" s="3" t="inlineStr"/>
       <c r="G37" s="3" t="inlineStr"/>
@@ -2381,7 +2382,7 @@
       <c r="A38" s="4" t="inlineStr"/>
       <c r="B38" s="2" t="inlineStr"/>
       <c r="C38" s="2" t="inlineStr"/>
-      <c r="D38" s="6" t="inlineStr"/>
+      <c r="D38" s="2" t="inlineStr"/>
       <c r="E38" s="2" t="inlineStr"/>
       <c r="F38" s="3" t="inlineStr"/>
       <c r="G38" s="3" t="inlineStr"/>
@@ -2394,7 +2395,7 @@
       <c r="A39" s="4" t="inlineStr"/>
       <c r="B39" s="2" t="inlineStr"/>
       <c r="C39" s="2" t="inlineStr"/>
-      <c r="D39" s="6" t="inlineStr"/>
+      <c r="D39" s="2" t="inlineStr"/>
       <c r="E39" s="2" t="inlineStr"/>
       <c r="F39" s="3" t="inlineStr"/>
       <c r="G39" s="3" t="inlineStr"/>
@@ -2407,7 +2408,7 @@
       <c r="A40" s="4" t="inlineStr"/>
       <c r="B40" s="2" t="inlineStr"/>
       <c r="C40" s="2" t="inlineStr"/>
-      <c r="D40" s="6" t="inlineStr"/>
+      <c r="D40" s="2" t="inlineStr"/>
       <c r="E40" s="2" t="inlineStr"/>
       <c r="F40" s="3" t="inlineStr"/>
       <c r="G40" s="3" t="inlineStr"/>
@@ -2420,7 +2421,7 @@
       <c r="A41" s="4" t="inlineStr"/>
       <c r="B41" s="2" t="inlineStr"/>
       <c r="C41" s="2" t="inlineStr"/>
-      <c r="D41" s="6" t="inlineStr"/>
+      <c r="D41" s="2" t="inlineStr"/>
       <c r="E41" s="2" t="inlineStr"/>
       <c r="F41" s="3" t="inlineStr"/>
       <c r="G41" s="3" t="inlineStr"/>
@@ -2433,7 +2434,7 @@
       <c r="A42" s="4" t="inlineStr"/>
       <c r="B42" s="2" t="inlineStr"/>
       <c r="C42" s="2" t="inlineStr"/>
-      <c r="D42" s="6" t="inlineStr"/>
+      <c r="D42" s="2" t="inlineStr"/>
       <c r="E42" s="2" t="inlineStr"/>
       <c r="F42" s="3" t="inlineStr"/>
       <c r="G42" s="3" t="inlineStr"/>
@@ -2446,7 +2447,7 @@
       <c r="A43" s="4" t="inlineStr"/>
       <c r="B43" s="2" t="inlineStr"/>
       <c r="C43" s="2" t="inlineStr"/>
-      <c r="D43" s="6" t="inlineStr"/>
+      <c r="D43" s="2" t="inlineStr"/>
       <c r="E43" s="2" t="inlineStr"/>
       <c r="F43" s="3" t="inlineStr"/>
       <c r="G43" s="3" t="inlineStr"/>
@@ -2459,7 +2460,7 @@
       <c r="A44" s="4" t="inlineStr"/>
       <c r="B44" s="2" t="inlineStr"/>
       <c r="C44" s="2" t="inlineStr"/>
-      <c r="D44" s="6" t="inlineStr"/>
+      <c r="D44" s="2" t="inlineStr"/>
       <c r="E44" s="2" t="inlineStr"/>
       <c r="F44" s="3" t="inlineStr"/>
       <c r="G44" s="3" t="inlineStr"/>
@@ -2472,7 +2473,7 @@
       <c r="A45" s="4" t="inlineStr"/>
       <c r="B45" s="2" t="inlineStr"/>
       <c r="C45" s="2" t="inlineStr"/>
-      <c r="D45" s="6" t="inlineStr"/>
+      <c r="D45" s="2" t="inlineStr"/>
       <c r="E45" s="2" t="inlineStr"/>
       <c r="F45" s="3" t="inlineStr"/>
       <c r="G45" s="3" t="inlineStr"/>
@@ -2485,7 +2486,7 @@
       <c r="A46" s="4" t="inlineStr"/>
       <c r="B46" s="2" t="inlineStr"/>
       <c r="C46" s="2" t="inlineStr"/>
-      <c r="D46" s="6" t="inlineStr"/>
+      <c r="D46" s="2" t="inlineStr"/>
       <c r="E46" s="2" t="inlineStr"/>
       <c r="F46" s="3" t="inlineStr"/>
       <c r="G46" s="3" t="inlineStr"/>
@@ -2498,7 +2499,7 @@
       <c r="A47" s="4" t="inlineStr"/>
       <c r="B47" s="2" t="inlineStr"/>
       <c r="C47" s="2" t="inlineStr"/>
-      <c r="D47" s="6" t="inlineStr"/>
+      <c r="D47" s="2" t="inlineStr"/>
       <c r="E47" s="2" t="inlineStr"/>
       <c r="F47" s="3" t="inlineStr"/>
       <c r="G47" s="3" t="inlineStr"/>
@@ -2511,7 +2512,7 @@
       <c r="A48" s="4" t="inlineStr"/>
       <c r="B48" s="2" t="inlineStr"/>
       <c r="C48" s="2" t="inlineStr"/>
-      <c r="D48" s="6" t="inlineStr"/>
+      <c r="D48" s="2" t="inlineStr"/>
       <c r="E48" s="2" t="inlineStr"/>
       <c r="F48" s="3" t="inlineStr"/>
       <c r="G48" s="3" t="inlineStr"/>
@@ -2524,7 +2525,7 @@
       <c r="A49" s="4" t="inlineStr"/>
       <c r="B49" s="2" t="inlineStr"/>
       <c r="C49" s="2" t="inlineStr"/>
-      <c r="D49" s="6" t="inlineStr"/>
+      <c r="D49" s="2" t="inlineStr"/>
       <c r="E49" s="2" t="inlineStr"/>
       <c r="F49" s="3" t="inlineStr"/>
       <c r="G49" s="3" t="inlineStr"/>
@@ -2536,11 +2537,11 @@
     <row r="50" ht="18" customHeight="1"/>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation sqref="B4 B5 B6 B7 B8 B9 B10 B11 B12 B13 B14 B15 B16 B17 B18 B19 B20 B21 B22 B23 B24 B25 B26 B27 B28 B29 B30 B31 B32 B33 B34 B35 B36 B37 B38 B39 B40 B41 B42 B43 B44 B45 B46 B47 B48 B49" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
-      <formula1>"現金,普通預金,ゆうちょ定期,前払金,前受金,会費収入,入会金収入,預貯金利子,雑収入,行事費,交際費,旅費,会議費,通信費,事務費"</formula1>
+    <dataValidation sqref="B4 B5 B6 B7 B8 B9 B10 B11 B12 B13 B14 B15 B16 B17 B18 B19 B20 B21 B22 B23 B24 B25 B26 B27 B28 B29 B30 B31 B32 B33 B34 B35 B36 B37 B38 B39 B40 B41 B42 B43 B44 B45 B46 B47 B48 B49 B3 E3 E4 E5 E6 E7 E8 E9 E10 E11 E12 E13 E14 E15 E16 E17 E18 E19 E20 E21 E22 E23 E24 E25 E26 E27 E28 E29 E30 E31 E32 E33 E34 E35 E36 E37 E38 E39 E40 E41 E42 E43 E44 E45 E46 E47 E48 E49" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
+      <formula1>基本!$A$5:$A$35</formula1>
     </dataValidation>
-    <dataValidation sqref="C4 C5 C6 C7 C8 C9 C10 C11 C12 C13 C14 C15 C16 C17 C18 C19 C20 C21 C22 C23 C24 C25 C26 C27 C28 C29 C30 C31 C32 C33 C34 C35 C36 C37 C38 C39 C40 C41 C42 C43 C44 C45 C46 C47 C48 C49" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
-      <formula1>"ゆうちょ,A銀行,正会員,準会員,B事業,C事業"</formula1>
+    <dataValidation sqref="C4 C5 C6 C7 C8 C9 C10 C11 C12 C13 C14 C15 C16 C17 C18 C19 C20 C21 C22 C23 C24 C25 C26 C27 C28 C29 C30 C31 C32 C33 C34 C35 C36 C37 C38 C39 C40 C41 C42 C43 C44 C45 C46 C47 C48 C49 C3 F3 F4 F5 F6 F7 F8 F9 F10 F11 F12 F13 F14 F15 F16 F17 F18 F19 F20 F21 F22 F23 F24 F25 F26 F27 F28 F29 F30 F31 F32 F33 F34 F35 F36 F37 F38 F39 F40 F41 F42 F43 F44 F45 F46 F47 F48 F49" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
+      <formula1>基本!$B$5:$B$35</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2622,9 +2623,10 @@
       </c>
     </row>
     <row r="3" ht="18" customHeight="1">
-      <c r="A3" s="4">
-        <f>TEXT(44652,"yyyy-mm-dd")</f>
-        <v/>
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>2022-4-1</t>
+        </is>
       </c>
       <c r="B3" s="5" t="n"/>
       <c r="C3" s="5" t="n"/>
@@ -2633,14 +2635,14 @@
       <c r="F3" s="5" t="n"/>
       <c r="G3" s="5" t="n"/>
       <c r="H3" s="3" t="n">
-        <v>987654</v>
+        <v>700654</v>
       </c>
     </row>
     <row r="4" ht="18" customHeight="1">
       <c r="A4" s="4" t="inlineStr"/>
       <c r="B4" s="2" t="inlineStr"/>
       <c r="C4" s="2" t="inlineStr"/>
-      <c r="D4" s="6" t="inlineStr"/>
+      <c r="D4" s="2" t="inlineStr"/>
       <c r="E4" s="2" t="inlineStr"/>
       <c r="F4" s="3" t="inlineStr"/>
       <c r="G4" s="3" t="inlineStr"/>
@@ -2653,7 +2655,7 @@
       <c r="A5" s="4" t="inlineStr"/>
       <c r="B5" s="2" t="inlineStr"/>
       <c r="C5" s="2" t="inlineStr"/>
-      <c r="D5" s="6" t="inlineStr"/>
+      <c r="D5" s="2" t="inlineStr"/>
       <c r="E5" s="2" t="inlineStr"/>
       <c r="F5" s="3" t="inlineStr"/>
       <c r="G5" s="3" t="inlineStr"/>
@@ -2666,7 +2668,7 @@
       <c r="A6" s="4" t="inlineStr"/>
       <c r="B6" s="2" t="inlineStr"/>
       <c r="C6" s="2" t="inlineStr"/>
-      <c r="D6" s="6" t="inlineStr"/>
+      <c r="D6" s="2" t="inlineStr"/>
       <c r="E6" s="2" t="inlineStr"/>
       <c r="F6" s="3" t="inlineStr"/>
       <c r="G6" s="3" t="inlineStr"/>
@@ -2679,7 +2681,7 @@
       <c r="A7" s="4" t="inlineStr"/>
       <c r="B7" s="2" t="inlineStr"/>
       <c r="C7" s="2" t="inlineStr"/>
-      <c r="D7" s="6" t="inlineStr"/>
+      <c r="D7" s="2" t="inlineStr"/>
       <c r="E7" s="2" t="inlineStr"/>
       <c r="F7" s="3" t="inlineStr"/>
       <c r="G7" s="3" t="inlineStr"/>
@@ -2692,7 +2694,7 @@
       <c r="A8" s="4" t="inlineStr"/>
       <c r="B8" s="2" t="inlineStr"/>
       <c r="C8" s="2" t="inlineStr"/>
-      <c r="D8" s="6" t="inlineStr"/>
+      <c r="D8" s="2" t="inlineStr"/>
       <c r="E8" s="2" t="inlineStr"/>
       <c r="F8" s="3" t="inlineStr"/>
       <c r="G8" s="3" t="inlineStr"/>
@@ -2705,7 +2707,7 @@
       <c r="A9" s="4" t="inlineStr"/>
       <c r="B9" s="2" t="inlineStr"/>
       <c r="C9" s="2" t="inlineStr"/>
-      <c r="D9" s="6" t="inlineStr"/>
+      <c r="D9" s="2" t="inlineStr"/>
       <c r="E9" s="2" t="inlineStr"/>
       <c r="F9" s="3" t="inlineStr"/>
       <c r="G9" s="3" t="inlineStr"/>
@@ -2718,7 +2720,7 @@
       <c r="A10" s="4" t="inlineStr"/>
       <c r="B10" s="2" t="inlineStr"/>
       <c r="C10" s="2" t="inlineStr"/>
-      <c r="D10" s="6" t="inlineStr"/>
+      <c r="D10" s="2" t="inlineStr"/>
       <c r="E10" s="2" t="inlineStr"/>
       <c r="F10" s="3" t="inlineStr"/>
       <c r="G10" s="3" t="inlineStr"/>
@@ -2731,7 +2733,7 @@
       <c r="A11" s="4" t="inlineStr"/>
       <c r="B11" s="2" t="inlineStr"/>
       <c r="C11" s="2" t="inlineStr"/>
-      <c r="D11" s="6" t="inlineStr"/>
+      <c r="D11" s="2" t="inlineStr"/>
       <c r="E11" s="2" t="inlineStr"/>
       <c r="F11" s="3" t="inlineStr"/>
       <c r="G11" s="3" t="inlineStr"/>
@@ -2744,7 +2746,7 @@
       <c r="A12" s="4" t="inlineStr"/>
       <c r="B12" s="2" t="inlineStr"/>
       <c r="C12" s="2" t="inlineStr"/>
-      <c r="D12" s="6" t="inlineStr"/>
+      <c r="D12" s="2" t="inlineStr"/>
       <c r="E12" s="2" t="inlineStr"/>
       <c r="F12" s="3" t="inlineStr"/>
       <c r="G12" s="3" t="inlineStr"/>
@@ -2757,7 +2759,7 @@
       <c r="A13" s="4" t="inlineStr"/>
       <c r="B13" s="2" t="inlineStr"/>
       <c r="C13" s="2" t="inlineStr"/>
-      <c r="D13" s="6" t="inlineStr"/>
+      <c r="D13" s="2" t="inlineStr"/>
       <c r="E13" s="2" t="inlineStr"/>
       <c r="F13" s="3" t="inlineStr"/>
       <c r="G13" s="3" t="inlineStr"/>
@@ -2770,7 +2772,7 @@
       <c r="A14" s="4" t="inlineStr"/>
       <c r="B14" s="2" t="inlineStr"/>
       <c r="C14" s="2" t="inlineStr"/>
-      <c r="D14" s="6" t="inlineStr"/>
+      <c r="D14" s="2" t="inlineStr"/>
       <c r="E14" s="2" t="inlineStr"/>
       <c r="F14" s="3" t="inlineStr"/>
       <c r="G14" s="3" t="inlineStr"/>
@@ -2783,7 +2785,7 @@
       <c r="A15" s="4" t="inlineStr"/>
       <c r="B15" s="2" t="inlineStr"/>
       <c r="C15" s="2" t="inlineStr"/>
-      <c r="D15" s="6" t="inlineStr"/>
+      <c r="D15" s="2" t="inlineStr"/>
       <c r="E15" s="2" t="inlineStr"/>
       <c r="F15" s="3" t="inlineStr"/>
       <c r="G15" s="3" t="inlineStr"/>
@@ -2796,7 +2798,7 @@
       <c r="A16" s="4" t="inlineStr"/>
       <c r="B16" s="2" t="inlineStr"/>
       <c r="C16" s="2" t="inlineStr"/>
-      <c r="D16" s="6" t="inlineStr"/>
+      <c r="D16" s="2" t="inlineStr"/>
       <c r="E16" s="2" t="inlineStr"/>
       <c r="F16" s="3" t="inlineStr"/>
       <c r="G16" s="3" t="inlineStr"/>
@@ -2809,7 +2811,7 @@
       <c r="A17" s="4" t="inlineStr"/>
       <c r="B17" s="2" t="inlineStr"/>
       <c r="C17" s="2" t="inlineStr"/>
-      <c r="D17" s="6" t="inlineStr"/>
+      <c r="D17" s="2" t="inlineStr"/>
       <c r="E17" s="2" t="inlineStr"/>
       <c r="F17" s="3" t="inlineStr"/>
       <c r="G17" s="3" t="inlineStr"/>
@@ -2822,7 +2824,7 @@
       <c r="A18" s="4" t="inlineStr"/>
       <c r="B18" s="2" t="inlineStr"/>
       <c r="C18" s="2" t="inlineStr"/>
-      <c r="D18" s="6" t="inlineStr"/>
+      <c r="D18" s="2" t="inlineStr"/>
       <c r="E18" s="2" t="inlineStr"/>
       <c r="F18" s="3" t="inlineStr"/>
       <c r="G18" s="3" t="inlineStr"/>
@@ -2835,7 +2837,7 @@
       <c r="A19" s="4" t="inlineStr"/>
       <c r="B19" s="2" t="inlineStr"/>
       <c r="C19" s="2" t="inlineStr"/>
-      <c r="D19" s="6" t="inlineStr"/>
+      <c r="D19" s="2" t="inlineStr"/>
       <c r="E19" s="2" t="inlineStr"/>
       <c r="F19" s="3" t="inlineStr"/>
       <c r="G19" s="3" t="inlineStr"/>
@@ -2848,7 +2850,7 @@
       <c r="A20" s="4" t="inlineStr"/>
       <c r="B20" s="2" t="inlineStr"/>
       <c r="C20" s="2" t="inlineStr"/>
-      <c r="D20" s="6" t="inlineStr"/>
+      <c r="D20" s="2" t="inlineStr"/>
       <c r="E20" s="2" t="inlineStr"/>
       <c r="F20" s="3" t="inlineStr"/>
       <c r="G20" s="3" t="inlineStr"/>
@@ -2861,7 +2863,7 @@
       <c r="A21" s="4" t="inlineStr"/>
       <c r="B21" s="2" t="inlineStr"/>
       <c r="C21" s="2" t="inlineStr"/>
-      <c r="D21" s="6" t="inlineStr"/>
+      <c r="D21" s="2" t="inlineStr"/>
       <c r="E21" s="2" t="inlineStr"/>
       <c r="F21" s="3" t="inlineStr"/>
       <c r="G21" s="3" t="inlineStr"/>
@@ -2874,7 +2876,7 @@
       <c r="A22" s="4" t="inlineStr"/>
       <c r="B22" s="2" t="inlineStr"/>
       <c r="C22" s="2" t="inlineStr"/>
-      <c r="D22" s="6" t="inlineStr"/>
+      <c r="D22" s="2" t="inlineStr"/>
       <c r="E22" s="2" t="inlineStr"/>
       <c r="F22" s="3" t="inlineStr"/>
       <c r="G22" s="3" t="inlineStr"/>
@@ -2887,7 +2889,7 @@
       <c r="A23" s="4" t="inlineStr"/>
       <c r="B23" s="2" t="inlineStr"/>
       <c r="C23" s="2" t="inlineStr"/>
-      <c r="D23" s="6" t="inlineStr"/>
+      <c r="D23" s="2" t="inlineStr"/>
       <c r="E23" s="2" t="inlineStr"/>
       <c r="F23" s="3" t="inlineStr"/>
       <c r="G23" s="3" t="inlineStr"/>
@@ -2900,7 +2902,7 @@
       <c r="A24" s="4" t="inlineStr"/>
       <c r="B24" s="2" t="inlineStr"/>
       <c r="C24" s="2" t="inlineStr"/>
-      <c r="D24" s="6" t="inlineStr"/>
+      <c r="D24" s="2" t="inlineStr"/>
       <c r="E24" s="2" t="inlineStr"/>
       <c r="F24" s="3" t="inlineStr"/>
       <c r="G24" s="3" t="inlineStr"/>
@@ -2913,7 +2915,7 @@
       <c r="A25" s="4" t="inlineStr"/>
       <c r="B25" s="2" t="inlineStr"/>
       <c r="C25" s="2" t="inlineStr"/>
-      <c r="D25" s="6" t="inlineStr"/>
+      <c r="D25" s="2" t="inlineStr"/>
       <c r="E25" s="2" t="inlineStr"/>
       <c r="F25" s="3" t="inlineStr"/>
       <c r="G25" s="3" t="inlineStr"/>
@@ -2926,7 +2928,7 @@
       <c r="A26" s="4" t="inlineStr"/>
       <c r="B26" s="2" t="inlineStr"/>
       <c r="C26" s="2" t="inlineStr"/>
-      <c r="D26" s="6" t="inlineStr"/>
+      <c r="D26" s="2" t="inlineStr"/>
       <c r="E26" s="2" t="inlineStr"/>
       <c r="F26" s="3" t="inlineStr"/>
       <c r="G26" s="3" t="inlineStr"/>
@@ -2939,7 +2941,7 @@
       <c r="A27" s="4" t="inlineStr"/>
       <c r="B27" s="2" t="inlineStr"/>
       <c r="C27" s="2" t="inlineStr"/>
-      <c r="D27" s="6" t="inlineStr"/>
+      <c r="D27" s="2" t="inlineStr"/>
       <c r="E27" s="2" t="inlineStr"/>
       <c r="F27" s="3" t="inlineStr"/>
       <c r="G27" s="3" t="inlineStr"/>
@@ -2952,7 +2954,7 @@
       <c r="A28" s="4" t="inlineStr"/>
       <c r="B28" s="2" t="inlineStr"/>
       <c r="C28" s="2" t="inlineStr"/>
-      <c r="D28" s="6" t="inlineStr"/>
+      <c r="D28" s="2" t="inlineStr"/>
       <c r="E28" s="2" t="inlineStr"/>
       <c r="F28" s="3" t="inlineStr"/>
       <c r="G28" s="3" t="inlineStr"/>
@@ -2965,7 +2967,7 @@
       <c r="A29" s="4" t="inlineStr"/>
       <c r="B29" s="2" t="inlineStr"/>
       <c r="C29" s="2" t="inlineStr"/>
-      <c r="D29" s="6" t="inlineStr"/>
+      <c r="D29" s="2" t="inlineStr"/>
       <c r="E29" s="2" t="inlineStr"/>
       <c r="F29" s="3" t="inlineStr"/>
       <c r="G29" s="3" t="inlineStr"/>
@@ -2978,7 +2980,7 @@
       <c r="A30" s="4" t="inlineStr"/>
       <c r="B30" s="2" t="inlineStr"/>
       <c r="C30" s="2" t="inlineStr"/>
-      <c r="D30" s="6" t="inlineStr"/>
+      <c r="D30" s="2" t="inlineStr"/>
       <c r="E30" s="2" t="inlineStr"/>
       <c r="F30" s="3" t="inlineStr"/>
       <c r="G30" s="3" t="inlineStr"/>
@@ -2991,7 +2993,7 @@
       <c r="A31" s="4" t="inlineStr"/>
       <c r="B31" s="2" t="inlineStr"/>
       <c r="C31" s="2" t="inlineStr"/>
-      <c r="D31" s="6" t="inlineStr"/>
+      <c r="D31" s="2" t="inlineStr"/>
       <c r="E31" s="2" t="inlineStr"/>
       <c r="F31" s="3" t="inlineStr"/>
       <c r="G31" s="3" t="inlineStr"/>
@@ -3004,7 +3006,7 @@
       <c r="A32" s="4" t="inlineStr"/>
       <c r="B32" s="2" t="inlineStr"/>
       <c r="C32" s="2" t="inlineStr"/>
-      <c r="D32" s="6" t="inlineStr"/>
+      <c r="D32" s="2" t="inlineStr"/>
       <c r="E32" s="2" t="inlineStr"/>
       <c r="F32" s="3" t="inlineStr"/>
       <c r="G32" s="3" t="inlineStr"/>
@@ -3017,7 +3019,7 @@
       <c r="A33" s="4" t="inlineStr"/>
       <c r="B33" s="2" t="inlineStr"/>
       <c r="C33" s="2" t="inlineStr"/>
-      <c r="D33" s="6" t="inlineStr"/>
+      <c r="D33" s="2" t="inlineStr"/>
       <c r="E33" s="2" t="inlineStr"/>
       <c r="F33" s="3" t="inlineStr"/>
       <c r="G33" s="3" t="inlineStr"/>
@@ -3030,7 +3032,7 @@
       <c r="A34" s="4" t="inlineStr"/>
       <c r="B34" s="2" t="inlineStr"/>
       <c r="C34" s="2" t="inlineStr"/>
-      <c r="D34" s="6" t="inlineStr"/>
+      <c r="D34" s="2" t="inlineStr"/>
       <c r="E34" s="2" t="inlineStr"/>
       <c r="F34" s="3" t="inlineStr"/>
       <c r="G34" s="3" t="inlineStr"/>
@@ -3043,7 +3045,7 @@
       <c r="A35" s="4" t="inlineStr"/>
       <c r="B35" s="2" t="inlineStr"/>
       <c r="C35" s="2" t="inlineStr"/>
-      <c r="D35" s="6" t="inlineStr"/>
+      <c r="D35" s="2" t="inlineStr"/>
       <c r="E35" s="2" t="inlineStr"/>
       <c r="F35" s="3" t="inlineStr"/>
       <c r="G35" s="3" t="inlineStr"/>
@@ -3056,7 +3058,7 @@
       <c r="A36" s="4" t="inlineStr"/>
       <c r="B36" s="2" t="inlineStr"/>
       <c r="C36" s="2" t="inlineStr"/>
-      <c r="D36" s="6" t="inlineStr"/>
+      <c r="D36" s="2" t="inlineStr"/>
       <c r="E36" s="2" t="inlineStr"/>
       <c r="F36" s="3" t="inlineStr"/>
       <c r="G36" s="3" t="inlineStr"/>
@@ -3069,7 +3071,7 @@
       <c r="A37" s="4" t="inlineStr"/>
       <c r="B37" s="2" t="inlineStr"/>
       <c r="C37" s="2" t="inlineStr"/>
-      <c r="D37" s="6" t="inlineStr"/>
+      <c r="D37" s="2" t="inlineStr"/>
       <c r="E37" s="2" t="inlineStr"/>
       <c r="F37" s="3" t="inlineStr"/>
       <c r="G37" s="3" t="inlineStr"/>
@@ -3082,7 +3084,7 @@
       <c r="A38" s="4" t="inlineStr"/>
       <c r="B38" s="2" t="inlineStr"/>
       <c r="C38" s="2" t="inlineStr"/>
-      <c r="D38" s="6" t="inlineStr"/>
+      <c r="D38" s="2" t="inlineStr"/>
       <c r="E38" s="2" t="inlineStr"/>
       <c r="F38" s="3" t="inlineStr"/>
       <c r="G38" s="3" t="inlineStr"/>
@@ -3095,7 +3097,7 @@
       <c r="A39" s="4" t="inlineStr"/>
       <c r="B39" s="2" t="inlineStr"/>
       <c r="C39" s="2" t="inlineStr"/>
-      <c r="D39" s="6" t="inlineStr"/>
+      <c r="D39" s="2" t="inlineStr"/>
       <c r="E39" s="2" t="inlineStr"/>
       <c r="F39" s="3" t="inlineStr"/>
       <c r="G39" s="3" t="inlineStr"/>
@@ -3108,7 +3110,7 @@
       <c r="A40" s="4" t="inlineStr"/>
       <c r="B40" s="2" t="inlineStr"/>
       <c r="C40" s="2" t="inlineStr"/>
-      <c r="D40" s="6" t="inlineStr"/>
+      <c r="D40" s="2" t="inlineStr"/>
       <c r="E40" s="2" t="inlineStr"/>
       <c r="F40" s="3" t="inlineStr"/>
       <c r="G40" s="3" t="inlineStr"/>
@@ -3121,7 +3123,7 @@
       <c r="A41" s="4" t="inlineStr"/>
       <c r="B41" s="2" t="inlineStr"/>
       <c r="C41" s="2" t="inlineStr"/>
-      <c r="D41" s="6" t="inlineStr"/>
+      <c r="D41" s="2" t="inlineStr"/>
       <c r="E41" s="2" t="inlineStr"/>
       <c r="F41" s="3" t="inlineStr"/>
       <c r="G41" s="3" t="inlineStr"/>
@@ -3134,7 +3136,7 @@
       <c r="A42" s="4" t="inlineStr"/>
       <c r="B42" s="2" t="inlineStr"/>
       <c r="C42" s="2" t="inlineStr"/>
-      <c r="D42" s="6" t="inlineStr"/>
+      <c r="D42" s="2" t="inlineStr"/>
       <c r="E42" s="2" t="inlineStr"/>
       <c r="F42" s="3" t="inlineStr"/>
       <c r="G42" s="3" t="inlineStr"/>
@@ -3147,7 +3149,7 @@
       <c r="A43" s="4" t="inlineStr"/>
       <c r="B43" s="2" t="inlineStr"/>
       <c r="C43" s="2" t="inlineStr"/>
-      <c r="D43" s="6" t="inlineStr"/>
+      <c r="D43" s="2" t="inlineStr"/>
       <c r="E43" s="2" t="inlineStr"/>
       <c r="F43" s="3" t="inlineStr"/>
       <c r="G43" s="3" t="inlineStr"/>
@@ -3160,7 +3162,7 @@
       <c r="A44" s="4" t="inlineStr"/>
       <c r="B44" s="2" t="inlineStr"/>
       <c r="C44" s="2" t="inlineStr"/>
-      <c r="D44" s="6" t="inlineStr"/>
+      <c r="D44" s="2" t="inlineStr"/>
       <c r="E44" s="2" t="inlineStr"/>
       <c r="F44" s="3" t="inlineStr"/>
       <c r="G44" s="3" t="inlineStr"/>
@@ -3173,7 +3175,7 @@
       <c r="A45" s="4" t="inlineStr"/>
       <c r="B45" s="2" t="inlineStr"/>
       <c r="C45" s="2" t="inlineStr"/>
-      <c r="D45" s="6" t="inlineStr"/>
+      <c r="D45" s="2" t="inlineStr"/>
       <c r="E45" s="2" t="inlineStr"/>
       <c r="F45" s="3" t="inlineStr"/>
       <c r="G45" s="3" t="inlineStr"/>
@@ -3186,7 +3188,7 @@
       <c r="A46" s="4" t="inlineStr"/>
       <c r="B46" s="2" t="inlineStr"/>
       <c r="C46" s="2" t="inlineStr"/>
-      <c r="D46" s="6" t="inlineStr"/>
+      <c r="D46" s="2" t="inlineStr"/>
       <c r="E46" s="2" t="inlineStr"/>
       <c r="F46" s="3" t="inlineStr"/>
       <c r="G46" s="3" t="inlineStr"/>
@@ -3199,7 +3201,7 @@
       <c r="A47" s="4" t="inlineStr"/>
       <c r="B47" s="2" t="inlineStr"/>
       <c r="C47" s="2" t="inlineStr"/>
-      <c r="D47" s="6" t="inlineStr"/>
+      <c r="D47" s="2" t="inlineStr"/>
       <c r="E47" s="2" t="inlineStr"/>
       <c r="F47" s="3" t="inlineStr"/>
       <c r="G47" s="3" t="inlineStr"/>
@@ -3212,7 +3214,7 @@
       <c r="A48" s="4" t="inlineStr"/>
       <c r="B48" s="2" t="inlineStr"/>
       <c r="C48" s="2" t="inlineStr"/>
-      <c r="D48" s="6" t="inlineStr"/>
+      <c r="D48" s="2" t="inlineStr"/>
       <c r="E48" s="2" t="inlineStr"/>
       <c r="F48" s="3" t="inlineStr"/>
       <c r="G48" s="3" t="inlineStr"/>
@@ -3225,7 +3227,7 @@
       <c r="A49" s="4" t="inlineStr"/>
       <c r="B49" s="2" t="inlineStr"/>
       <c r="C49" s="2" t="inlineStr"/>
-      <c r="D49" s="6" t="inlineStr"/>
+      <c r="D49" s="2" t="inlineStr"/>
       <c r="E49" s="2" t="inlineStr"/>
       <c r="F49" s="3" t="inlineStr"/>
       <c r="G49" s="3" t="inlineStr"/>
@@ -3237,11 +3239,11 @@
     <row r="50" ht="18" customHeight="1"/>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation sqref="B4 B5 B6 B7 B8 B9 B10 B11 B12 B13 B14 B15 B16 B17 B18 B19 B20 B21 B22 B23 B24 B25 B26 B27 B28 B29 B30 B31 B32 B33 B34 B35 B36 B37 B38 B39 B40 B41 B42 B43 B44 B45 B46 B47 B48 B49" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
-      <formula1>"現金,普通預金,ゆうちょ定期,前払金,前受金,会費収入,入会金収入,預貯金利子,雑収入,行事費,交際費,旅費,会議費,通信費,事務費"</formula1>
+    <dataValidation sqref="B4 B5 B6 B7 B8 B9 B10 B11 B12 B13 B14 B15 B16 B17 B18 B19 B20 B21 B22 B23 B24 B25 B26 B27 B28 B29 B30 B31 B32 B33 B34 B35 B36 B37 B38 B39 B40 B41 B42 B43 B44 B45 B46 B47 B48 B49 B3 E3 E4 E5 E6 E7 E8 E9 E10 E11 E12 E13 E14 E15 E16 E17 E18 E19 E20 E21 E22 E23 E24 E25 E26 E27 E28 E29 E30 E31 E32 E33 E34 E35 E36 E37 E38 E39 E40 E41 E42 E43 E44 E45 E46 E47 E48 E49" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
+      <formula1>基本!$A$5:$A$35</formula1>
     </dataValidation>
-    <dataValidation sqref="C4 C5 C6 C7 C8 C9 C10 C11 C12 C13 C14 C15 C16 C17 C18 C19 C20 C21 C22 C23 C24 C25 C26 C27 C28 C29 C30 C31 C32 C33 C34 C35 C36 C37 C38 C39 C40 C41 C42 C43 C44 C45 C46 C47 C48 C49" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
-      <formula1>"ゆうちょ,A銀行,正会員,準会員,B事業,C事業"</formula1>
+    <dataValidation sqref="C4 C5 C6 C7 C8 C9 C10 C11 C12 C13 C14 C15 C16 C17 C18 C19 C20 C21 C22 C23 C24 C25 C26 C27 C28 C29 C30 C31 C32 C33 C34 C35 C36 C37 C38 C39 C40 C41 C42 C43 C44 C45 C46 C47 C48 C49 C3 F3 F4 F5 F6 F7 F8 F9 F10 F11 F12 F13 F14 F15 F16 F17 F18 F19 F20 F21 F22 F23 F24 F25 F26 F27 F28 F29 F30 F31 F32 F33 F34 F35 F36 F37 F38 F39 F40 F41 F42 F43 F44 F45 F46 F47 F48 F49" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
+      <formula1>基本!$B$5:$B$35</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3848,11 +3850,11 @@
     <row r="50" ht="18" customHeight="1"/>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation sqref="B3 E3 B4 E4 B5 E5 B6 E6 B7 E7 B8 E8 B9 E9 B10 E10 B11 E11 B12 E12 B13 E13 B14 E14 B15 E15 B16 E16 B17 E17 B18 E18 B19 E19 B20 E20 B21 E21 B22 E22 B23 E23 B24 E24 B25 E25 B26 E26 B27 E27 B28 E28 B29 E29 B30 E30 B31 E31 B32 E32 B33 E33 B34 E34 B35 E35 B36 E36 B37 E37 B38 E38 B39 E39 B40 E40 B41 E41 B42 E42 B43 E43 B44 E44 B45 E45 B46 E46 B47 E47 B48 E48 B49 E49" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
-      <formula1>"現金,普通預金,ゆうちょ定期,前払金,前受金,会費収入,入会金収入,預貯金利子,雑収入,行事費,交際費,旅費,会議費,通信費,事務費"</formula1>
+    <dataValidation sqref="B4 B5 B6 B7 B8 B9 B10 B11 B12 B13 B14 B15 B16 B17 B18 B19 B20 B21 B22 B23 B24 B25 B26 B27 B28 B29 B30 B31 B32 B33 B34 B35 B36 B37 B38 B39 B40 B41 B42 B43 B44 B45 B46 B47 B48 B49 B3 E3 E4 E5 E6 E7 E8 E9 E10 E11 E12 E13 E14 E15 E16 E17 E18 E19 E20 E21 E22 E23 E24 E25 E26 E27 E28 E29 E30 E31 E32 E33 E34 E35 E36 E37 E38 E39 E40 E41 E42 E43 E44 E45 E46 E47 E48 E49" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
+      <formula1>基本!$A$5:$A$35</formula1>
     </dataValidation>
-    <dataValidation sqref="C3 F3 C4 F4 C5 F5 C6 F6 C7 F7 C8 F8 C9 F9 C10 F10 C11 F11 C12 F12 C13 F13 C14 F14 C15 F15 C16 F16 C17 F17 C18 F18 C19 F19 C20 F20 C21 F21 C22 F22 C23 F23 C24 F24 C25 F25 C26 F26 C27 F27 C28 F28 C29 F29 C30 F30 C31 F31 C32 F32 C33 F33 C34 F34 C35 F35 C36 F36 C37 F37 C38 F38 C39 F39 C40 F40 C41 F41 C42 F42 C43 F43 C44 F44 C45 F45 C46 F46 C47 F47 C48 F48 C49 F49" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
-      <formula1>"ゆうちょ,A銀行,正会員,準会員,B事業,C事業"</formula1>
+    <dataValidation sqref="C4 C5 C6 C7 C8 C9 C10 C11 C12 C13 C14 C15 C16 C17 C18 C19 C20 C21 C22 C23 C24 C25 C26 C27 C28 C29 C30 C31 C32 C33 C34 C35 C36 C37 C38 C39 C40 C41 C42 C43 C44 C45 C46 C47 C48 C49 C3 F3 F4 F5 F6 F7 F8 F9 F10 F11 F12 F13 F14 F15 F16 F17 F18 F19 F20 F21 F22 F23 F24 F25 F26 F27 F28 F29 F30 F31 F32 F33 F34 F35 F36 F37 F38 F39 F40 F41 F42 F43 F44 F45 F46 F47 F48 F49" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
+      <formula1>基本!$B$5:$B$35</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/翌期会計データ.xlsx
+++ b/翌期会計データ.xlsx
@@ -81,15 +81,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -1112,7 +1118,7 @@
       </c>
     </row>
     <row r="2" ht="18" customHeight="1">
-      <c r="A2" s="1" t="inlineStr">
+      <c r="A2" s="4" t="inlineStr">
         <is>
           <t>日付</t>
         </is>
@@ -1154,25 +1160,25 @@
       </c>
     </row>
     <row r="3" ht="18" customHeight="1">
-      <c r="A3" s="4">
+      <c r="A3" s="5">
         <f>TEXT(44652,"yyyy-mm-dd")</f>
         <v/>
       </c>
-      <c r="B3" s="5" t="n"/>
-      <c r="C3" s="5" t="n"/>
-      <c r="D3" s="5" t="n"/>
-      <c r="E3" s="5" t="n"/>
-      <c r="F3" s="5" t="n"/>
-      <c r="G3" s="5" t="n"/>
+      <c r="B3" s="6" t="n"/>
+      <c r="C3" s="6" t="n"/>
+      <c r="D3" s="6" t="n"/>
+      <c r="E3" s="6" t="n"/>
+      <c r="F3" s="6" t="n"/>
+      <c r="G3" s="6" t="n"/>
       <c r="H3" s="3" t="n">
         <v>182356</v>
       </c>
     </row>
     <row r="4" ht="18" customHeight="1">
-      <c r="A4" s="4" t="inlineStr"/>
+      <c r="A4" s="7" t="inlineStr"/>
       <c r="B4" s="2" t="inlineStr"/>
       <c r="C4" s="2" t="inlineStr"/>
-      <c r="D4" s="6" t="inlineStr"/>
+      <c r="D4" s="8" t="inlineStr"/>
       <c r="E4" s="2" t="inlineStr"/>
       <c r="F4" s="3" t="inlineStr"/>
       <c r="G4" s="3" t="inlineStr"/>
@@ -1182,10 +1188,10 @@
       </c>
     </row>
     <row r="5" ht="18" customHeight="1">
-      <c r="A5" s="4" t="inlineStr"/>
+      <c r="A5" s="7" t="inlineStr"/>
       <c r="B5" s="2" t="inlineStr"/>
       <c r="C5" s="2" t="inlineStr"/>
-      <c r="D5" s="6" t="inlineStr"/>
+      <c r="D5" s="8" t="inlineStr"/>
       <c r="E5" s="2" t="inlineStr"/>
       <c r="F5" s="3" t="inlineStr"/>
       <c r="G5" s="3" t="inlineStr"/>
@@ -1195,10 +1201,10 @@
       </c>
     </row>
     <row r="6" ht="18" customHeight="1">
-      <c r="A6" s="4" t="inlineStr"/>
+      <c r="A6" s="7" t="inlineStr"/>
       <c r="B6" s="2" t="inlineStr"/>
       <c r="C6" s="2" t="inlineStr"/>
-      <c r="D6" s="6" t="inlineStr"/>
+      <c r="D6" s="8" t="inlineStr"/>
       <c r="E6" s="2" t="inlineStr"/>
       <c r="F6" s="3" t="inlineStr"/>
       <c r="G6" s="3" t="inlineStr"/>
@@ -1208,10 +1214,10 @@
       </c>
     </row>
     <row r="7" ht="18" customHeight="1">
-      <c r="A7" s="4" t="inlineStr"/>
+      <c r="A7" s="7" t="inlineStr"/>
       <c r="B7" s="2" t="inlineStr"/>
       <c r="C7" s="2" t="inlineStr"/>
-      <c r="D7" s="6" t="inlineStr"/>
+      <c r="D7" s="8" t="inlineStr"/>
       <c r="E7" s="2" t="inlineStr"/>
       <c r="F7" s="3" t="inlineStr"/>
       <c r="G7" s="3" t="inlineStr"/>
@@ -1221,10 +1227,10 @@
       </c>
     </row>
     <row r="8" ht="18" customHeight="1">
-      <c r="A8" s="4" t="inlineStr"/>
+      <c r="A8" s="7" t="inlineStr"/>
       <c r="B8" s="2" t="inlineStr"/>
       <c r="C8" s="2" t="inlineStr"/>
-      <c r="D8" s="6" t="inlineStr"/>
+      <c r="D8" s="8" t="inlineStr"/>
       <c r="E8" s="2" t="inlineStr"/>
       <c r="F8" s="3" t="inlineStr"/>
       <c r="G8" s="3" t="inlineStr"/>
@@ -1234,10 +1240,10 @@
       </c>
     </row>
     <row r="9" ht="18" customHeight="1">
-      <c r="A9" s="4" t="inlineStr"/>
+      <c r="A9" s="7" t="inlineStr"/>
       <c r="B9" s="2" t="inlineStr"/>
       <c r="C9" s="2" t="inlineStr"/>
-      <c r="D9" s="6" t="inlineStr"/>
+      <c r="D9" s="8" t="inlineStr"/>
       <c r="E9" s="2" t="inlineStr"/>
       <c r="F9" s="3" t="inlineStr"/>
       <c r="G9" s="3" t="inlineStr"/>
@@ -1247,10 +1253,10 @@
       </c>
     </row>
     <row r="10" ht="18" customHeight="1">
-      <c r="A10" s="4" t="inlineStr"/>
+      <c r="A10" s="7" t="inlineStr"/>
       <c r="B10" s="2" t="inlineStr"/>
       <c r="C10" s="2" t="inlineStr"/>
-      <c r="D10" s="6" t="inlineStr"/>
+      <c r="D10" s="8" t="inlineStr"/>
       <c r="E10" s="2" t="inlineStr"/>
       <c r="F10" s="3" t="inlineStr"/>
       <c r="G10" s="3" t="inlineStr"/>
@@ -1260,10 +1266,10 @@
       </c>
     </row>
     <row r="11" ht="18" customHeight="1">
-      <c r="A11" s="4" t="inlineStr"/>
+      <c r="A11" s="7" t="inlineStr"/>
       <c r="B11" s="2" t="inlineStr"/>
       <c r="C11" s="2" t="inlineStr"/>
-      <c r="D11" s="6" t="inlineStr"/>
+      <c r="D11" s="8" t="inlineStr"/>
       <c r="E11" s="2" t="inlineStr"/>
       <c r="F11" s="3" t="inlineStr"/>
       <c r="G11" s="3" t="inlineStr"/>
@@ -1273,10 +1279,10 @@
       </c>
     </row>
     <row r="12" ht="18" customHeight="1">
-      <c r="A12" s="4" t="inlineStr"/>
+      <c r="A12" s="7" t="inlineStr"/>
       <c r="B12" s="2" t="inlineStr"/>
       <c r="C12" s="2" t="inlineStr"/>
-      <c r="D12" s="6" t="inlineStr"/>
+      <c r="D12" s="8" t="inlineStr"/>
       <c r="E12" s="2" t="inlineStr"/>
       <c r="F12" s="3" t="inlineStr"/>
       <c r="G12" s="3" t="inlineStr"/>
@@ -1286,10 +1292,10 @@
       </c>
     </row>
     <row r="13" ht="18" customHeight="1">
-      <c r="A13" s="4" t="inlineStr"/>
+      <c r="A13" s="7" t="inlineStr"/>
       <c r="B13" s="2" t="inlineStr"/>
       <c r="C13" s="2" t="inlineStr"/>
-      <c r="D13" s="6" t="inlineStr"/>
+      <c r="D13" s="8" t="inlineStr"/>
       <c r="E13" s="2" t="inlineStr"/>
       <c r="F13" s="3" t="inlineStr"/>
       <c r="G13" s="3" t="inlineStr"/>
@@ -1299,10 +1305,10 @@
       </c>
     </row>
     <row r="14" ht="18" customHeight="1">
-      <c r="A14" s="4" t="inlineStr"/>
+      <c r="A14" s="7" t="inlineStr"/>
       <c r="B14" s="2" t="inlineStr"/>
       <c r="C14" s="2" t="inlineStr"/>
-      <c r="D14" s="6" t="inlineStr"/>
+      <c r="D14" s="8" t="inlineStr"/>
       <c r="E14" s="2" t="inlineStr"/>
       <c r="F14" s="3" t="inlineStr"/>
       <c r="G14" s="3" t="inlineStr"/>
@@ -1312,10 +1318,10 @@
       </c>
     </row>
     <row r="15" ht="18" customHeight="1">
-      <c r="A15" s="4" t="inlineStr"/>
+      <c r="A15" s="7" t="inlineStr"/>
       <c r="B15" s="2" t="inlineStr"/>
       <c r="C15" s="2" t="inlineStr"/>
-      <c r="D15" s="6" t="inlineStr"/>
+      <c r="D15" s="8" t="inlineStr"/>
       <c r="E15" s="2" t="inlineStr"/>
       <c r="F15" s="3" t="inlineStr"/>
       <c r="G15" s="3" t="inlineStr"/>
@@ -1325,10 +1331,10 @@
       </c>
     </row>
     <row r="16" ht="18" customHeight="1">
-      <c r="A16" s="4" t="inlineStr"/>
+      <c r="A16" s="7" t="inlineStr"/>
       <c r="B16" s="2" t="inlineStr"/>
       <c r="C16" s="2" t="inlineStr"/>
-      <c r="D16" s="6" t="inlineStr"/>
+      <c r="D16" s="8" t="inlineStr"/>
       <c r="E16" s="2" t="inlineStr"/>
       <c r="F16" s="3" t="inlineStr"/>
       <c r="G16" s="3" t="inlineStr"/>
@@ -1338,10 +1344,10 @@
       </c>
     </row>
     <row r="17" ht="18" customHeight="1">
-      <c r="A17" s="4" t="inlineStr"/>
+      <c r="A17" s="7" t="inlineStr"/>
       <c r="B17" s="2" t="inlineStr"/>
       <c r="C17" s="2" t="inlineStr"/>
-      <c r="D17" s="6" t="inlineStr"/>
+      <c r="D17" s="8" t="inlineStr"/>
       <c r="E17" s="2" t="inlineStr"/>
       <c r="F17" s="3" t="inlineStr"/>
       <c r="G17" s="3" t="inlineStr"/>
@@ -1351,10 +1357,10 @@
       </c>
     </row>
     <row r="18" ht="18" customHeight="1">
-      <c r="A18" s="4" t="inlineStr"/>
+      <c r="A18" s="7" t="inlineStr"/>
       <c r="B18" s="2" t="inlineStr"/>
       <c r="C18" s="2" t="inlineStr"/>
-      <c r="D18" s="6" t="inlineStr"/>
+      <c r="D18" s="8" t="inlineStr"/>
       <c r="E18" s="2" t="inlineStr"/>
       <c r="F18" s="3" t="inlineStr"/>
       <c r="G18" s="3" t="inlineStr"/>
@@ -1364,10 +1370,10 @@
       </c>
     </row>
     <row r="19" ht="18" customHeight="1">
-      <c r="A19" s="4" t="inlineStr"/>
+      <c r="A19" s="7" t="inlineStr"/>
       <c r="B19" s="2" t="inlineStr"/>
       <c r="C19" s="2" t="inlineStr"/>
-      <c r="D19" s="6" t="inlineStr"/>
+      <c r="D19" s="8" t="inlineStr"/>
       <c r="E19" s="2" t="inlineStr"/>
       <c r="F19" s="3" t="inlineStr"/>
       <c r="G19" s="3" t="inlineStr"/>
@@ -1377,10 +1383,10 @@
       </c>
     </row>
     <row r="20" ht="18" customHeight="1">
-      <c r="A20" s="4" t="inlineStr"/>
+      <c r="A20" s="7" t="inlineStr"/>
       <c r="B20" s="2" t="inlineStr"/>
       <c r="C20" s="2" t="inlineStr"/>
-      <c r="D20" s="6" t="inlineStr"/>
+      <c r="D20" s="8" t="inlineStr"/>
       <c r="E20" s="2" t="inlineStr"/>
       <c r="F20" s="3" t="inlineStr"/>
       <c r="G20" s="3" t="inlineStr"/>
@@ -1390,10 +1396,10 @@
       </c>
     </row>
     <row r="21" ht="18" customHeight="1">
-      <c r="A21" s="4" t="inlineStr"/>
+      <c r="A21" s="7" t="inlineStr"/>
       <c r="B21" s="2" t="inlineStr"/>
       <c r="C21" s="2" t="inlineStr"/>
-      <c r="D21" s="6" t="inlineStr"/>
+      <c r="D21" s="8" t="inlineStr"/>
       <c r="E21" s="2" t="inlineStr"/>
       <c r="F21" s="3" t="inlineStr"/>
       <c r="G21" s="3" t="inlineStr"/>
@@ -1403,10 +1409,10 @@
       </c>
     </row>
     <row r="22" ht="18" customHeight="1">
-      <c r="A22" s="4" t="inlineStr"/>
+      <c r="A22" s="7" t="inlineStr"/>
       <c r="B22" s="2" t="inlineStr"/>
       <c r="C22" s="2" t="inlineStr"/>
-      <c r="D22" s="6" t="inlineStr"/>
+      <c r="D22" s="8" t="inlineStr"/>
       <c r="E22" s="2" t="inlineStr"/>
       <c r="F22" s="3" t="inlineStr"/>
       <c r="G22" s="3" t="inlineStr"/>
@@ -1416,10 +1422,10 @@
       </c>
     </row>
     <row r="23" ht="18" customHeight="1">
-      <c r="A23" s="4" t="inlineStr"/>
+      <c r="A23" s="7" t="inlineStr"/>
       <c r="B23" s="2" t="inlineStr"/>
       <c r="C23" s="2" t="inlineStr"/>
-      <c r="D23" s="6" t="inlineStr"/>
+      <c r="D23" s="8" t="inlineStr"/>
       <c r="E23" s="2" t="inlineStr"/>
       <c r="F23" s="3" t="inlineStr"/>
       <c r="G23" s="3" t="inlineStr"/>
@@ -1429,10 +1435,10 @@
       </c>
     </row>
     <row r="24" ht="18" customHeight="1">
-      <c r="A24" s="4" t="inlineStr"/>
+      <c r="A24" s="7" t="inlineStr"/>
       <c r="B24" s="2" t="inlineStr"/>
       <c r="C24" s="2" t="inlineStr"/>
-      <c r="D24" s="6" t="inlineStr"/>
+      <c r="D24" s="8" t="inlineStr"/>
       <c r="E24" s="2" t="inlineStr"/>
       <c r="F24" s="3" t="inlineStr"/>
       <c r="G24" s="3" t="inlineStr"/>
@@ -1442,10 +1448,10 @@
       </c>
     </row>
     <row r="25" ht="18" customHeight="1">
-      <c r="A25" s="4" t="inlineStr"/>
+      <c r="A25" s="7" t="inlineStr"/>
       <c r="B25" s="2" t="inlineStr"/>
       <c r="C25" s="2" t="inlineStr"/>
-      <c r="D25" s="6" t="inlineStr"/>
+      <c r="D25" s="8" t="inlineStr"/>
       <c r="E25" s="2" t="inlineStr"/>
       <c r="F25" s="3" t="inlineStr"/>
       <c r="G25" s="3" t="inlineStr"/>
@@ -1455,10 +1461,10 @@
       </c>
     </row>
     <row r="26" ht="18" customHeight="1">
-      <c r="A26" s="4" t="inlineStr"/>
+      <c r="A26" s="7" t="inlineStr"/>
       <c r="B26" s="2" t="inlineStr"/>
       <c r="C26" s="2" t="inlineStr"/>
-      <c r="D26" s="6" t="inlineStr"/>
+      <c r="D26" s="8" t="inlineStr"/>
       <c r="E26" s="2" t="inlineStr"/>
       <c r="F26" s="3" t="inlineStr"/>
       <c r="G26" s="3" t="inlineStr"/>
@@ -1468,10 +1474,10 @@
       </c>
     </row>
     <row r="27" ht="18" customHeight="1">
-      <c r="A27" s="4" t="inlineStr"/>
+      <c r="A27" s="7" t="inlineStr"/>
       <c r="B27" s="2" t="inlineStr"/>
       <c r="C27" s="2" t="inlineStr"/>
-      <c r="D27" s="6" t="inlineStr"/>
+      <c r="D27" s="8" t="inlineStr"/>
       <c r="E27" s="2" t="inlineStr"/>
       <c r="F27" s="3" t="inlineStr"/>
       <c r="G27" s="3" t="inlineStr"/>
@@ -1481,10 +1487,10 @@
       </c>
     </row>
     <row r="28" ht="18" customHeight="1">
-      <c r="A28" s="4" t="inlineStr"/>
+      <c r="A28" s="7" t="inlineStr"/>
       <c r="B28" s="2" t="inlineStr"/>
       <c r="C28" s="2" t="inlineStr"/>
-      <c r="D28" s="6" t="inlineStr"/>
+      <c r="D28" s="8" t="inlineStr"/>
       <c r="E28" s="2" t="inlineStr"/>
       <c r="F28" s="3" t="inlineStr"/>
       <c r="G28" s="3" t="inlineStr"/>
@@ -1494,10 +1500,10 @@
       </c>
     </row>
     <row r="29" ht="18" customHeight="1">
-      <c r="A29" s="4" t="inlineStr"/>
+      <c r="A29" s="7" t="inlineStr"/>
       <c r="B29" s="2" t="inlineStr"/>
       <c r="C29" s="2" t="inlineStr"/>
-      <c r="D29" s="6" t="inlineStr"/>
+      <c r="D29" s="8" t="inlineStr"/>
       <c r="E29" s="2" t="inlineStr"/>
       <c r="F29" s="3" t="inlineStr"/>
       <c r="G29" s="3" t="inlineStr"/>
@@ -1507,10 +1513,10 @@
       </c>
     </row>
     <row r="30" ht="18" customHeight="1">
-      <c r="A30" s="4" t="inlineStr"/>
+      <c r="A30" s="7" t="inlineStr"/>
       <c r="B30" s="2" t="inlineStr"/>
       <c r="C30" s="2" t="inlineStr"/>
-      <c r="D30" s="6" t="inlineStr"/>
+      <c r="D30" s="8" t="inlineStr"/>
       <c r="E30" s="2" t="inlineStr"/>
       <c r="F30" s="3" t="inlineStr"/>
       <c r="G30" s="3" t="inlineStr"/>
@@ -1520,10 +1526,10 @@
       </c>
     </row>
     <row r="31" ht="18" customHeight="1">
-      <c r="A31" s="4" t="inlineStr"/>
+      <c r="A31" s="7" t="inlineStr"/>
       <c r="B31" s="2" t="inlineStr"/>
       <c r="C31" s="2" t="inlineStr"/>
-      <c r="D31" s="6" t="inlineStr"/>
+      <c r="D31" s="8" t="inlineStr"/>
       <c r="E31" s="2" t="inlineStr"/>
       <c r="F31" s="3" t="inlineStr"/>
       <c r="G31" s="3" t="inlineStr"/>
@@ -1533,10 +1539,10 @@
       </c>
     </row>
     <row r="32" ht="18" customHeight="1">
-      <c r="A32" s="4" t="inlineStr"/>
+      <c r="A32" s="7" t="inlineStr"/>
       <c r="B32" s="2" t="inlineStr"/>
       <c r="C32" s="2" t="inlineStr"/>
-      <c r="D32" s="6" t="inlineStr"/>
+      <c r="D32" s="8" t="inlineStr"/>
       <c r="E32" s="2" t="inlineStr"/>
       <c r="F32" s="3" t="inlineStr"/>
       <c r="G32" s="3" t="inlineStr"/>
@@ -1546,10 +1552,10 @@
       </c>
     </row>
     <row r="33" ht="18" customHeight="1">
-      <c r="A33" s="4" t="inlineStr"/>
+      <c r="A33" s="7" t="inlineStr"/>
       <c r="B33" s="2" t="inlineStr"/>
       <c r="C33" s="2" t="inlineStr"/>
-      <c r="D33" s="6" t="inlineStr"/>
+      <c r="D33" s="8" t="inlineStr"/>
       <c r="E33" s="2" t="inlineStr"/>
       <c r="F33" s="3" t="inlineStr"/>
       <c r="G33" s="3" t="inlineStr"/>
@@ -1559,10 +1565,10 @@
       </c>
     </row>
     <row r="34" ht="18" customHeight="1">
-      <c r="A34" s="4" t="inlineStr"/>
+      <c r="A34" s="7" t="inlineStr"/>
       <c r="B34" s="2" t="inlineStr"/>
       <c r="C34" s="2" t="inlineStr"/>
-      <c r="D34" s="6" t="inlineStr"/>
+      <c r="D34" s="8" t="inlineStr"/>
       <c r="E34" s="2" t="inlineStr"/>
       <c r="F34" s="3" t="inlineStr"/>
       <c r="G34" s="3" t="inlineStr"/>
@@ -1572,10 +1578,10 @@
       </c>
     </row>
     <row r="35" ht="18" customHeight="1">
-      <c r="A35" s="4" t="inlineStr"/>
+      <c r="A35" s="7" t="inlineStr"/>
       <c r="B35" s="2" t="inlineStr"/>
       <c r="C35" s="2" t="inlineStr"/>
-      <c r="D35" s="6" t="inlineStr"/>
+      <c r="D35" s="8" t="inlineStr"/>
       <c r="E35" s="2" t="inlineStr"/>
       <c r="F35" s="3" t="inlineStr"/>
       <c r="G35" s="3" t="inlineStr"/>
@@ -1585,10 +1591,10 @@
       </c>
     </row>
     <row r="36" ht="18" customHeight="1">
-      <c r="A36" s="4" t="inlineStr"/>
+      <c r="A36" s="7" t="inlineStr"/>
       <c r="B36" s="2" t="inlineStr"/>
       <c r="C36" s="2" t="inlineStr"/>
-      <c r="D36" s="6" t="inlineStr"/>
+      <c r="D36" s="8" t="inlineStr"/>
       <c r="E36" s="2" t="inlineStr"/>
       <c r="F36" s="3" t="inlineStr"/>
       <c r="G36" s="3" t="inlineStr"/>
@@ -1598,10 +1604,10 @@
       </c>
     </row>
     <row r="37" ht="18" customHeight="1">
-      <c r="A37" s="4" t="inlineStr"/>
+      <c r="A37" s="7" t="inlineStr"/>
       <c r="B37" s="2" t="inlineStr"/>
       <c r="C37" s="2" t="inlineStr"/>
-      <c r="D37" s="6" t="inlineStr"/>
+      <c r="D37" s="8" t="inlineStr"/>
       <c r="E37" s="2" t="inlineStr"/>
       <c r="F37" s="3" t="inlineStr"/>
       <c r="G37" s="3" t="inlineStr"/>
@@ -1611,10 +1617,10 @@
       </c>
     </row>
     <row r="38" ht="18" customHeight="1">
-      <c r="A38" s="4" t="inlineStr"/>
+      <c r="A38" s="7" t="inlineStr"/>
       <c r="B38" s="2" t="inlineStr"/>
       <c r="C38" s="2" t="inlineStr"/>
-      <c r="D38" s="6" t="inlineStr"/>
+      <c r="D38" s="8" t="inlineStr"/>
       <c r="E38" s="2" t="inlineStr"/>
       <c r="F38" s="3" t="inlineStr"/>
       <c r="G38" s="3" t="inlineStr"/>
@@ -1624,10 +1630,10 @@
       </c>
     </row>
     <row r="39" ht="18" customHeight="1">
-      <c r="A39" s="4" t="inlineStr"/>
+      <c r="A39" s="7" t="inlineStr"/>
       <c r="B39" s="2" t="inlineStr"/>
       <c r="C39" s="2" t="inlineStr"/>
-      <c r="D39" s="6" t="inlineStr"/>
+      <c r="D39" s="8" t="inlineStr"/>
       <c r="E39" s="2" t="inlineStr"/>
       <c r="F39" s="3" t="inlineStr"/>
       <c r="G39" s="3" t="inlineStr"/>
@@ -1637,10 +1643,10 @@
       </c>
     </row>
     <row r="40" ht="18" customHeight="1">
-      <c r="A40" s="4" t="inlineStr"/>
+      <c r="A40" s="7" t="inlineStr"/>
       <c r="B40" s="2" t="inlineStr"/>
       <c r="C40" s="2" t="inlineStr"/>
-      <c r="D40" s="6" t="inlineStr"/>
+      <c r="D40" s="8" t="inlineStr"/>
       <c r="E40" s="2" t="inlineStr"/>
       <c r="F40" s="3" t="inlineStr"/>
       <c r="G40" s="3" t="inlineStr"/>
@@ -1650,10 +1656,10 @@
       </c>
     </row>
     <row r="41" ht="18" customHeight="1">
-      <c r="A41" s="4" t="inlineStr"/>
+      <c r="A41" s="7" t="inlineStr"/>
       <c r="B41" s="2" t="inlineStr"/>
       <c r="C41" s="2" t="inlineStr"/>
-      <c r="D41" s="6" t="inlineStr"/>
+      <c r="D41" s="8" t="inlineStr"/>
       <c r="E41" s="2" t="inlineStr"/>
       <c r="F41" s="3" t="inlineStr"/>
       <c r="G41" s="3" t="inlineStr"/>
@@ -1663,10 +1669,10 @@
       </c>
     </row>
     <row r="42" ht="18" customHeight="1">
-      <c r="A42" s="4" t="inlineStr"/>
+      <c r="A42" s="7" t="inlineStr"/>
       <c r="B42" s="2" t="inlineStr"/>
       <c r="C42" s="2" t="inlineStr"/>
-      <c r="D42" s="6" t="inlineStr"/>
+      <c r="D42" s="8" t="inlineStr"/>
       <c r="E42" s="2" t="inlineStr"/>
       <c r="F42" s="3" t="inlineStr"/>
       <c r="G42" s="3" t="inlineStr"/>
@@ -1676,10 +1682,10 @@
       </c>
     </row>
     <row r="43" ht="18" customHeight="1">
-      <c r="A43" s="4" t="inlineStr"/>
+      <c r="A43" s="7" t="inlineStr"/>
       <c r="B43" s="2" t="inlineStr"/>
       <c r="C43" s="2" t="inlineStr"/>
-      <c r="D43" s="6" t="inlineStr"/>
+      <c r="D43" s="8" t="inlineStr"/>
       <c r="E43" s="2" t="inlineStr"/>
       <c r="F43" s="3" t="inlineStr"/>
       <c r="G43" s="3" t="inlineStr"/>
@@ -1689,10 +1695,10 @@
       </c>
     </row>
     <row r="44" ht="18" customHeight="1">
-      <c r="A44" s="4" t="inlineStr"/>
+      <c r="A44" s="7" t="inlineStr"/>
       <c r="B44" s="2" t="inlineStr"/>
       <c r="C44" s="2" t="inlineStr"/>
-      <c r="D44" s="6" t="inlineStr"/>
+      <c r="D44" s="8" t="inlineStr"/>
       <c r="E44" s="2" t="inlineStr"/>
       <c r="F44" s="3" t="inlineStr"/>
       <c r="G44" s="3" t="inlineStr"/>
@@ -1702,10 +1708,10 @@
       </c>
     </row>
     <row r="45" ht="18" customHeight="1">
-      <c r="A45" s="4" t="inlineStr"/>
+      <c r="A45" s="7" t="inlineStr"/>
       <c r="B45" s="2" t="inlineStr"/>
       <c r="C45" s="2" t="inlineStr"/>
-      <c r="D45" s="6" t="inlineStr"/>
+      <c r="D45" s="8" t="inlineStr"/>
       <c r="E45" s="2" t="inlineStr"/>
       <c r="F45" s="3" t="inlineStr"/>
       <c r="G45" s="3" t="inlineStr"/>
@@ -1715,10 +1721,10 @@
       </c>
     </row>
     <row r="46" ht="18" customHeight="1">
-      <c r="A46" s="4" t="inlineStr"/>
+      <c r="A46" s="7" t="inlineStr"/>
       <c r="B46" s="2" t="inlineStr"/>
       <c r="C46" s="2" t="inlineStr"/>
-      <c r="D46" s="6" t="inlineStr"/>
+      <c r="D46" s="8" t="inlineStr"/>
       <c r="E46" s="2" t="inlineStr"/>
       <c r="F46" s="3" t="inlineStr"/>
       <c r="G46" s="3" t="inlineStr"/>
@@ -1728,10 +1734,10 @@
       </c>
     </row>
     <row r="47" ht="18" customHeight="1">
-      <c r="A47" s="4" t="inlineStr"/>
+      <c r="A47" s="7" t="inlineStr"/>
       <c r="B47" s="2" t="inlineStr"/>
       <c r="C47" s="2" t="inlineStr"/>
-      <c r="D47" s="6" t="inlineStr"/>
+      <c r="D47" s="8" t="inlineStr"/>
       <c r="E47" s="2" t="inlineStr"/>
       <c r="F47" s="3" t="inlineStr"/>
       <c r="G47" s="3" t="inlineStr"/>
@@ -1741,10 +1747,10 @@
       </c>
     </row>
     <row r="48" ht="18" customHeight="1">
-      <c r="A48" s="4" t="inlineStr"/>
+      <c r="A48" s="7" t="inlineStr"/>
       <c r="B48" s="2" t="inlineStr"/>
       <c r="C48" s="2" t="inlineStr"/>
-      <c r="D48" s="6" t="inlineStr"/>
+      <c r="D48" s="8" t="inlineStr"/>
       <c r="E48" s="2" t="inlineStr"/>
       <c r="F48" s="3" t="inlineStr"/>
       <c r="G48" s="3" t="inlineStr"/>
@@ -1754,10 +1760,10 @@
       </c>
     </row>
     <row r="49" ht="18" customHeight="1">
-      <c r="A49" s="4" t="inlineStr"/>
+      <c r="A49" s="7" t="inlineStr"/>
       <c r="B49" s="2" t="inlineStr"/>
       <c r="C49" s="2" t="inlineStr"/>
-      <c r="D49" s="6" t="inlineStr"/>
+      <c r="D49" s="8" t="inlineStr"/>
       <c r="E49" s="2" t="inlineStr"/>
       <c r="F49" s="3" t="inlineStr"/>
       <c r="G49" s="3" t="inlineStr"/>
@@ -1808,12 +1814,12 @@
     <row r="1" ht="18" customHeight="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>普通預金ゆうちょ</t>
+          <t>普通預金 ゆうちょ</t>
         </is>
       </c>
     </row>
     <row r="2" ht="18" customHeight="1">
-      <c r="A2" s="1" t="inlineStr">
+      <c r="A2" s="4" t="inlineStr">
         <is>
           <t>日付</t>
         </is>
@@ -1855,25 +1861,25 @@
       </c>
     </row>
     <row r="3" ht="18" customHeight="1">
-      <c r="A3" s="4">
+      <c r="A3" s="5">
         <f>TEXT(44652,"yyyy-mm-dd")</f>
         <v/>
       </c>
-      <c r="B3" s="5" t="n"/>
-      <c r="C3" s="5" t="n"/>
-      <c r="D3" s="5" t="n"/>
-      <c r="E3" s="5" t="n"/>
-      <c r="F3" s="5" t="n"/>
-      <c r="G3" s="5" t="n"/>
+      <c r="B3" s="6" t="n"/>
+      <c r="C3" s="6" t="n"/>
+      <c r="D3" s="6" t="n"/>
+      <c r="E3" s="6" t="n"/>
+      <c r="F3" s="6" t="n"/>
+      <c r="G3" s="6" t="n"/>
       <c r="H3" s="3" t="n">
         <v>754012</v>
       </c>
     </row>
     <row r="4" ht="18" customHeight="1">
-      <c r="A4" s="4" t="inlineStr"/>
+      <c r="A4" s="7" t="inlineStr"/>
       <c r="B4" s="2" t="inlineStr"/>
       <c r="C4" s="2" t="inlineStr"/>
-      <c r="D4" s="6" t="inlineStr"/>
+      <c r="D4" s="8" t="inlineStr"/>
       <c r="E4" s="2" t="inlineStr"/>
       <c r="F4" s="3" t="inlineStr"/>
       <c r="G4" s="3" t="inlineStr"/>
@@ -1883,10 +1889,10 @@
       </c>
     </row>
     <row r="5" ht="18" customHeight="1">
-      <c r="A5" s="4" t="inlineStr"/>
+      <c r="A5" s="7" t="inlineStr"/>
       <c r="B5" s="2" t="inlineStr"/>
       <c r="C5" s="2" t="inlineStr"/>
-      <c r="D5" s="6" t="inlineStr"/>
+      <c r="D5" s="8" t="inlineStr"/>
       <c r="E5" s="2" t="inlineStr"/>
       <c r="F5" s="3" t="inlineStr"/>
       <c r="G5" s="3" t="inlineStr"/>
@@ -1896,10 +1902,10 @@
       </c>
     </row>
     <row r="6" ht="18" customHeight="1">
-      <c r="A6" s="4" t="inlineStr"/>
+      <c r="A6" s="7" t="inlineStr"/>
       <c r="B6" s="2" t="inlineStr"/>
       <c r="C6" s="2" t="inlineStr"/>
-      <c r="D6" s="6" t="inlineStr"/>
+      <c r="D6" s="8" t="inlineStr"/>
       <c r="E6" s="2" t="inlineStr"/>
       <c r="F6" s="3" t="inlineStr"/>
       <c r="G6" s="3" t="inlineStr"/>
@@ -1909,10 +1915,10 @@
       </c>
     </row>
     <row r="7" ht="18" customHeight="1">
-      <c r="A7" s="4" t="inlineStr"/>
+      <c r="A7" s="7" t="inlineStr"/>
       <c r="B7" s="2" t="inlineStr"/>
       <c r="C7" s="2" t="inlineStr"/>
-      <c r="D7" s="6" t="inlineStr"/>
+      <c r="D7" s="8" t="inlineStr"/>
       <c r="E7" s="2" t="inlineStr"/>
       <c r="F7" s="3" t="inlineStr"/>
       <c r="G7" s="3" t="inlineStr"/>
@@ -1922,10 +1928,10 @@
       </c>
     </row>
     <row r="8" ht="18" customHeight="1">
-      <c r="A8" s="4" t="inlineStr"/>
+      <c r="A8" s="7" t="inlineStr"/>
       <c r="B8" s="2" t="inlineStr"/>
       <c r="C8" s="2" t="inlineStr"/>
-      <c r="D8" s="6" t="inlineStr"/>
+      <c r="D8" s="8" t="inlineStr"/>
       <c r="E8" s="2" t="inlineStr"/>
       <c r="F8" s="3" t="inlineStr"/>
       <c r="G8" s="3" t="inlineStr"/>
@@ -1935,10 +1941,10 @@
       </c>
     </row>
     <row r="9" ht="18" customHeight="1">
-      <c r="A9" s="4" t="inlineStr"/>
+      <c r="A9" s="7" t="inlineStr"/>
       <c r="B9" s="2" t="inlineStr"/>
       <c r="C9" s="2" t="inlineStr"/>
-      <c r="D9" s="6" t="inlineStr"/>
+      <c r="D9" s="8" t="inlineStr"/>
       <c r="E9" s="2" t="inlineStr"/>
       <c r="F9" s="3" t="inlineStr"/>
       <c r="G9" s="3" t="inlineStr"/>
@@ -1948,10 +1954,10 @@
       </c>
     </row>
     <row r="10" ht="18" customHeight="1">
-      <c r="A10" s="4" t="inlineStr"/>
+      <c r="A10" s="7" t="inlineStr"/>
       <c r="B10" s="2" t="inlineStr"/>
       <c r="C10" s="2" t="inlineStr"/>
-      <c r="D10" s="6" t="inlineStr"/>
+      <c r="D10" s="8" t="inlineStr"/>
       <c r="E10" s="2" t="inlineStr"/>
       <c r="F10" s="3" t="inlineStr"/>
       <c r="G10" s="3" t="inlineStr"/>
@@ -1961,10 +1967,10 @@
       </c>
     </row>
     <row r="11" ht="18" customHeight="1">
-      <c r="A11" s="4" t="inlineStr"/>
+      <c r="A11" s="7" t="inlineStr"/>
       <c r="B11" s="2" t="inlineStr"/>
       <c r="C11" s="2" t="inlineStr"/>
-      <c r="D11" s="6" t="inlineStr"/>
+      <c r="D11" s="8" t="inlineStr"/>
       <c r="E11" s="2" t="inlineStr"/>
       <c r="F11" s="3" t="inlineStr"/>
       <c r="G11" s="3" t="inlineStr"/>
@@ -1974,10 +1980,10 @@
       </c>
     </row>
     <row r="12" ht="18" customHeight="1">
-      <c r="A12" s="4" t="inlineStr"/>
+      <c r="A12" s="7" t="inlineStr"/>
       <c r="B12" s="2" t="inlineStr"/>
       <c r="C12" s="2" t="inlineStr"/>
-      <c r="D12" s="6" t="inlineStr"/>
+      <c r="D12" s="8" t="inlineStr"/>
       <c r="E12" s="2" t="inlineStr"/>
       <c r="F12" s="3" t="inlineStr"/>
       <c r="G12" s="3" t="inlineStr"/>
@@ -1987,10 +1993,10 @@
       </c>
     </row>
     <row r="13" ht="18" customHeight="1">
-      <c r="A13" s="4" t="inlineStr"/>
+      <c r="A13" s="7" t="inlineStr"/>
       <c r="B13" s="2" t="inlineStr"/>
       <c r="C13" s="2" t="inlineStr"/>
-      <c r="D13" s="6" t="inlineStr"/>
+      <c r="D13" s="8" t="inlineStr"/>
       <c r="E13" s="2" t="inlineStr"/>
       <c r="F13" s="3" t="inlineStr"/>
       <c r="G13" s="3" t="inlineStr"/>
@@ -2000,10 +2006,10 @@
       </c>
     </row>
     <row r="14" ht="18" customHeight="1">
-      <c r="A14" s="4" t="inlineStr"/>
+      <c r="A14" s="7" t="inlineStr"/>
       <c r="B14" s="2" t="inlineStr"/>
       <c r="C14" s="2" t="inlineStr"/>
-      <c r="D14" s="6" t="inlineStr"/>
+      <c r="D14" s="8" t="inlineStr"/>
       <c r="E14" s="2" t="inlineStr"/>
       <c r="F14" s="3" t="inlineStr"/>
       <c r="G14" s="3" t="inlineStr"/>
@@ -2013,10 +2019,10 @@
       </c>
     </row>
     <row r="15" ht="18" customHeight="1">
-      <c r="A15" s="4" t="inlineStr"/>
+      <c r="A15" s="7" t="inlineStr"/>
       <c r="B15" s="2" t="inlineStr"/>
       <c r="C15" s="2" t="inlineStr"/>
-      <c r="D15" s="6" t="inlineStr"/>
+      <c r="D15" s="8" t="inlineStr"/>
       <c r="E15" s="2" t="inlineStr"/>
       <c r="F15" s="3" t="inlineStr"/>
       <c r="G15" s="3" t="inlineStr"/>
@@ -2026,10 +2032,10 @@
       </c>
     </row>
     <row r="16" ht="18" customHeight="1">
-      <c r="A16" s="4" t="inlineStr"/>
+      <c r="A16" s="7" t="inlineStr"/>
       <c r="B16" s="2" t="inlineStr"/>
       <c r="C16" s="2" t="inlineStr"/>
-      <c r="D16" s="6" t="inlineStr"/>
+      <c r="D16" s="8" t="inlineStr"/>
       <c r="E16" s="2" t="inlineStr"/>
       <c r="F16" s="3" t="inlineStr"/>
       <c r="G16" s="3" t="inlineStr"/>
@@ -2039,10 +2045,10 @@
       </c>
     </row>
     <row r="17" ht="18" customHeight="1">
-      <c r="A17" s="4" t="inlineStr"/>
+      <c r="A17" s="7" t="inlineStr"/>
       <c r="B17" s="2" t="inlineStr"/>
       <c r="C17" s="2" t="inlineStr"/>
-      <c r="D17" s="6" t="inlineStr"/>
+      <c r="D17" s="8" t="inlineStr"/>
       <c r="E17" s="2" t="inlineStr"/>
       <c r="F17" s="3" t="inlineStr"/>
       <c r="G17" s="3" t="inlineStr"/>
@@ -2052,10 +2058,10 @@
       </c>
     </row>
     <row r="18" ht="18" customHeight="1">
-      <c r="A18" s="4" t="inlineStr"/>
+      <c r="A18" s="7" t="inlineStr"/>
       <c r="B18" s="2" t="inlineStr"/>
       <c r="C18" s="2" t="inlineStr"/>
-      <c r="D18" s="6" t="inlineStr"/>
+      <c r="D18" s="8" t="inlineStr"/>
       <c r="E18" s="2" t="inlineStr"/>
       <c r="F18" s="3" t="inlineStr"/>
       <c r="G18" s="3" t="inlineStr"/>
@@ -2065,10 +2071,10 @@
       </c>
     </row>
     <row r="19" ht="18" customHeight="1">
-      <c r="A19" s="4" t="inlineStr"/>
+      <c r="A19" s="7" t="inlineStr"/>
       <c r="B19" s="2" t="inlineStr"/>
       <c r="C19" s="2" t="inlineStr"/>
-      <c r="D19" s="6" t="inlineStr"/>
+      <c r="D19" s="8" t="inlineStr"/>
       <c r="E19" s="2" t="inlineStr"/>
       <c r="F19" s="3" t="inlineStr"/>
       <c r="G19" s="3" t="inlineStr"/>
@@ -2078,10 +2084,10 @@
       </c>
     </row>
     <row r="20" ht="18" customHeight="1">
-      <c r="A20" s="4" t="inlineStr"/>
+      <c r="A20" s="7" t="inlineStr"/>
       <c r="B20" s="2" t="inlineStr"/>
       <c r="C20" s="2" t="inlineStr"/>
-      <c r="D20" s="6" t="inlineStr"/>
+      <c r="D20" s="8" t="inlineStr"/>
       <c r="E20" s="2" t="inlineStr"/>
       <c r="F20" s="3" t="inlineStr"/>
       <c r="G20" s="3" t="inlineStr"/>
@@ -2091,10 +2097,10 @@
       </c>
     </row>
     <row r="21" ht="18" customHeight="1">
-      <c r="A21" s="4" t="inlineStr"/>
+      <c r="A21" s="7" t="inlineStr"/>
       <c r="B21" s="2" t="inlineStr"/>
       <c r="C21" s="2" t="inlineStr"/>
-      <c r="D21" s="6" t="inlineStr"/>
+      <c r="D21" s="8" t="inlineStr"/>
       <c r="E21" s="2" t="inlineStr"/>
       <c r="F21" s="3" t="inlineStr"/>
       <c r="G21" s="3" t="inlineStr"/>
@@ -2104,10 +2110,10 @@
       </c>
     </row>
     <row r="22" ht="18" customHeight="1">
-      <c r="A22" s="4" t="inlineStr"/>
+      <c r="A22" s="7" t="inlineStr"/>
       <c r="B22" s="2" t="inlineStr"/>
       <c r="C22" s="2" t="inlineStr"/>
-      <c r="D22" s="6" t="inlineStr"/>
+      <c r="D22" s="8" t="inlineStr"/>
       <c r="E22" s="2" t="inlineStr"/>
       <c r="F22" s="3" t="inlineStr"/>
       <c r="G22" s="3" t="inlineStr"/>
@@ -2117,10 +2123,10 @@
       </c>
     </row>
     <row r="23" ht="18" customHeight="1">
-      <c r="A23" s="4" t="inlineStr"/>
+      <c r="A23" s="7" t="inlineStr"/>
       <c r="B23" s="2" t="inlineStr"/>
       <c r="C23" s="2" t="inlineStr"/>
-      <c r="D23" s="6" t="inlineStr"/>
+      <c r="D23" s="8" t="inlineStr"/>
       <c r="E23" s="2" t="inlineStr"/>
       <c r="F23" s="3" t="inlineStr"/>
       <c r="G23" s="3" t="inlineStr"/>
@@ -2130,10 +2136,10 @@
       </c>
     </row>
     <row r="24" ht="18" customHeight="1">
-      <c r="A24" s="4" t="inlineStr"/>
+      <c r="A24" s="7" t="inlineStr"/>
       <c r="B24" s="2" t="inlineStr"/>
       <c r="C24" s="2" t="inlineStr"/>
-      <c r="D24" s="6" t="inlineStr"/>
+      <c r="D24" s="8" t="inlineStr"/>
       <c r="E24" s="2" t="inlineStr"/>
       <c r="F24" s="3" t="inlineStr"/>
       <c r="G24" s="3" t="inlineStr"/>
@@ -2143,10 +2149,10 @@
       </c>
     </row>
     <row r="25" ht="18" customHeight="1">
-      <c r="A25" s="4" t="inlineStr"/>
+      <c r="A25" s="7" t="inlineStr"/>
       <c r="B25" s="2" t="inlineStr"/>
       <c r="C25" s="2" t="inlineStr"/>
-      <c r="D25" s="6" t="inlineStr"/>
+      <c r="D25" s="8" t="inlineStr"/>
       <c r="E25" s="2" t="inlineStr"/>
       <c r="F25" s="3" t="inlineStr"/>
       <c r="G25" s="3" t="inlineStr"/>
@@ -2156,10 +2162,10 @@
       </c>
     </row>
     <row r="26" ht="18" customHeight="1">
-      <c r="A26" s="4" t="inlineStr"/>
+      <c r="A26" s="7" t="inlineStr"/>
       <c r="B26" s="2" t="inlineStr"/>
       <c r="C26" s="2" t="inlineStr"/>
-      <c r="D26" s="6" t="inlineStr"/>
+      <c r="D26" s="8" t="inlineStr"/>
       <c r="E26" s="2" t="inlineStr"/>
       <c r="F26" s="3" t="inlineStr"/>
       <c r="G26" s="3" t="inlineStr"/>
@@ -2169,10 +2175,10 @@
       </c>
     </row>
     <row r="27" ht="18" customHeight="1">
-      <c r="A27" s="4" t="inlineStr"/>
+      <c r="A27" s="7" t="inlineStr"/>
       <c r="B27" s="2" t="inlineStr"/>
       <c r="C27" s="2" t="inlineStr"/>
-      <c r="D27" s="6" t="inlineStr"/>
+      <c r="D27" s="8" t="inlineStr"/>
       <c r="E27" s="2" t="inlineStr"/>
       <c r="F27" s="3" t="inlineStr"/>
       <c r="G27" s="3" t="inlineStr"/>
@@ -2182,10 +2188,10 @@
       </c>
     </row>
     <row r="28" ht="18" customHeight="1">
-      <c r="A28" s="4" t="inlineStr"/>
+      <c r="A28" s="7" t="inlineStr"/>
       <c r="B28" s="2" t="inlineStr"/>
       <c r="C28" s="2" t="inlineStr"/>
-      <c r="D28" s="6" t="inlineStr"/>
+      <c r="D28" s="8" t="inlineStr"/>
       <c r="E28" s="2" t="inlineStr"/>
       <c r="F28" s="3" t="inlineStr"/>
       <c r="G28" s="3" t="inlineStr"/>
@@ -2195,10 +2201,10 @@
       </c>
     </row>
     <row r="29" ht="18" customHeight="1">
-      <c r="A29" s="4" t="inlineStr"/>
+      <c r="A29" s="7" t="inlineStr"/>
       <c r="B29" s="2" t="inlineStr"/>
       <c r="C29" s="2" t="inlineStr"/>
-      <c r="D29" s="6" t="inlineStr"/>
+      <c r="D29" s="8" t="inlineStr"/>
       <c r="E29" s="2" t="inlineStr"/>
       <c r="F29" s="3" t="inlineStr"/>
       <c r="G29" s="3" t="inlineStr"/>
@@ -2208,10 +2214,10 @@
       </c>
     </row>
     <row r="30" ht="18" customHeight="1">
-      <c r="A30" s="4" t="inlineStr"/>
+      <c r="A30" s="7" t="inlineStr"/>
       <c r="B30" s="2" t="inlineStr"/>
       <c r="C30" s="2" t="inlineStr"/>
-      <c r="D30" s="6" t="inlineStr"/>
+      <c r="D30" s="8" t="inlineStr"/>
       <c r="E30" s="2" t="inlineStr"/>
       <c r="F30" s="3" t="inlineStr"/>
       <c r="G30" s="3" t="inlineStr"/>
@@ -2221,10 +2227,10 @@
       </c>
     </row>
     <row r="31" ht="18" customHeight="1">
-      <c r="A31" s="4" t="inlineStr"/>
+      <c r="A31" s="7" t="inlineStr"/>
       <c r="B31" s="2" t="inlineStr"/>
       <c r="C31" s="2" t="inlineStr"/>
-      <c r="D31" s="6" t="inlineStr"/>
+      <c r="D31" s="8" t="inlineStr"/>
       <c r="E31" s="2" t="inlineStr"/>
       <c r="F31" s="3" t="inlineStr"/>
       <c r="G31" s="3" t="inlineStr"/>
@@ -2234,10 +2240,10 @@
       </c>
     </row>
     <row r="32" ht="18" customHeight="1">
-      <c r="A32" s="4" t="inlineStr"/>
+      <c r="A32" s="7" t="inlineStr"/>
       <c r="B32" s="2" t="inlineStr"/>
       <c r="C32" s="2" t="inlineStr"/>
-      <c r="D32" s="6" t="inlineStr"/>
+      <c r="D32" s="8" t="inlineStr"/>
       <c r="E32" s="2" t="inlineStr"/>
       <c r="F32" s="3" t="inlineStr"/>
       <c r="G32" s="3" t="inlineStr"/>
@@ -2247,10 +2253,10 @@
       </c>
     </row>
     <row r="33" ht="18" customHeight="1">
-      <c r="A33" s="4" t="inlineStr"/>
+      <c r="A33" s="7" t="inlineStr"/>
       <c r="B33" s="2" t="inlineStr"/>
       <c r="C33" s="2" t="inlineStr"/>
-      <c r="D33" s="6" t="inlineStr"/>
+      <c r="D33" s="8" t="inlineStr"/>
       <c r="E33" s="2" t="inlineStr"/>
       <c r="F33" s="3" t="inlineStr"/>
       <c r="G33" s="3" t="inlineStr"/>
@@ -2260,10 +2266,10 @@
       </c>
     </row>
     <row r="34" ht="18" customHeight="1">
-      <c r="A34" s="4" t="inlineStr"/>
+      <c r="A34" s="7" t="inlineStr"/>
       <c r="B34" s="2" t="inlineStr"/>
       <c r="C34" s="2" t="inlineStr"/>
-      <c r="D34" s="6" t="inlineStr"/>
+      <c r="D34" s="8" t="inlineStr"/>
       <c r="E34" s="2" t="inlineStr"/>
       <c r="F34" s="3" t="inlineStr"/>
       <c r="G34" s="3" t="inlineStr"/>
@@ -2273,10 +2279,10 @@
       </c>
     </row>
     <row r="35" ht="18" customHeight="1">
-      <c r="A35" s="4" t="inlineStr"/>
+      <c r="A35" s="7" t="inlineStr"/>
       <c r="B35" s="2" t="inlineStr"/>
       <c r="C35" s="2" t="inlineStr"/>
-      <c r="D35" s="6" t="inlineStr"/>
+      <c r="D35" s="8" t="inlineStr"/>
       <c r="E35" s="2" t="inlineStr"/>
       <c r="F35" s="3" t="inlineStr"/>
       <c r="G35" s="3" t="inlineStr"/>
@@ -2286,10 +2292,10 @@
       </c>
     </row>
     <row r="36" ht="18" customHeight="1">
-      <c r="A36" s="4" t="inlineStr"/>
+      <c r="A36" s="7" t="inlineStr"/>
       <c r="B36" s="2" t="inlineStr"/>
       <c r="C36" s="2" t="inlineStr"/>
-      <c r="D36" s="6" t="inlineStr"/>
+      <c r="D36" s="8" t="inlineStr"/>
       <c r="E36" s="2" t="inlineStr"/>
       <c r="F36" s="3" t="inlineStr"/>
       <c r="G36" s="3" t="inlineStr"/>
@@ -2299,10 +2305,10 @@
       </c>
     </row>
     <row r="37" ht="18" customHeight="1">
-      <c r="A37" s="4" t="inlineStr"/>
+      <c r="A37" s="7" t="inlineStr"/>
       <c r="B37" s="2" t="inlineStr"/>
       <c r="C37" s="2" t="inlineStr"/>
-      <c r="D37" s="6" t="inlineStr"/>
+      <c r="D37" s="8" t="inlineStr"/>
       <c r="E37" s="2" t="inlineStr"/>
       <c r="F37" s="3" t="inlineStr"/>
       <c r="G37" s="3" t="inlineStr"/>
@@ -2312,10 +2318,10 @@
       </c>
     </row>
     <row r="38" ht="18" customHeight="1">
-      <c r="A38" s="4" t="inlineStr"/>
+      <c r="A38" s="7" t="inlineStr"/>
       <c r="B38" s="2" t="inlineStr"/>
       <c r="C38" s="2" t="inlineStr"/>
-      <c r="D38" s="6" t="inlineStr"/>
+      <c r="D38" s="8" t="inlineStr"/>
       <c r="E38" s="2" t="inlineStr"/>
       <c r="F38" s="3" t="inlineStr"/>
       <c r="G38" s="3" t="inlineStr"/>
@@ -2325,10 +2331,10 @@
       </c>
     </row>
     <row r="39" ht="18" customHeight="1">
-      <c r="A39" s="4" t="inlineStr"/>
+      <c r="A39" s="7" t="inlineStr"/>
       <c r="B39" s="2" t="inlineStr"/>
       <c r="C39" s="2" t="inlineStr"/>
-      <c r="D39" s="6" t="inlineStr"/>
+      <c r="D39" s="8" t="inlineStr"/>
       <c r="E39" s="2" t="inlineStr"/>
       <c r="F39" s="3" t="inlineStr"/>
       <c r="G39" s="3" t="inlineStr"/>
@@ -2338,10 +2344,10 @@
       </c>
     </row>
     <row r="40" ht="18" customHeight="1">
-      <c r="A40" s="4" t="inlineStr"/>
+      <c r="A40" s="7" t="inlineStr"/>
       <c r="B40" s="2" t="inlineStr"/>
       <c r="C40" s="2" t="inlineStr"/>
-      <c r="D40" s="6" t="inlineStr"/>
+      <c r="D40" s="8" t="inlineStr"/>
       <c r="E40" s="2" t="inlineStr"/>
       <c r="F40" s="3" t="inlineStr"/>
       <c r="G40" s="3" t="inlineStr"/>
@@ -2351,10 +2357,10 @@
       </c>
     </row>
     <row r="41" ht="18" customHeight="1">
-      <c r="A41" s="4" t="inlineStr"/>
+      <c r="A41" s="7" t="inlineStr"/>
       <c r="B41" s="2" t="inlineStr"/>
       <c r="C41" s="2" t="inlineStr"/>
-      <c r="D41" s="6" t="inlineStr"/>
+      <c r="D41" s="8" t="inlineStr"/>
       <c r="E41" s="2" t="inlineStr"/>
       <c r="F41" s="3" t="inlineStr"/>
       <c r="G41" s="3" t="inlineStr"/>
@@ -2364,10 +2370,10 @@
       </c>
     </row>
     <row r="42" ht="18" customHeight="1">
-      <c r="A42" s="4" t="inlineStr"/>
+      <c r="A42" s="7" t="inlineStr"/>
       <c r="B42" s="2" t="inlineStr"/>
       <c r="C42" s="2" t="inlineStr"/>
-      <c r="D42" s="6" t="inlineStr"/>
+      <c r="D42" s="8" t="inlineStr"/>
       <c r="E42" s="2" t="inlineStr"/>
       <c r="F42" s="3" t="inlineStr"/>
       <c r="G42" s="3" t="inlineStr"/>
@@ -2377,10 +2383,10 @@
       </c>
     </row>
     <row r="43" ht="18" customHeight="1">
-      <c r="A43" s="4" t="inlineStr"/>
+      <c r="A43" s="7" t="inlineStr"/>
       <c r="B43" s="2" t="inlineStr"/>
       <c r="C43" s="2" t="inlineStr"/>
-      <c r="D43" s="6" t="inlineStr"/>
+      <c r="D43" s="8" t="inlineStr"/>
       <c r="E43" s="2" t="inlineStr"/>
       <c r="F43" s="3" t="inlineStr"/>
       <c r="G43" s="3" t="inlineStr"/>
@@ -2390,10 +2396,10 @@
       </c>
     </row>
     <row r="44" ht="18" customHeight="1">
-      <c r="A44" s="4" t="inlineStr"/>
+      <c r="A44" s="7" t="inlineStr"/>
       <c r="B44" s="2" t="inlineStr"/>
       <c r="C44" s="2" t="inlineStr"/>
-      <c r="D44" s="6" t="inlineStr"/>
+      <c r="D44" s="8" t="inlineStr"/>
       <c r="E44" s="2" t="inlineStr"/>
       <c r="F44" s="3" t="inlineStr"/>
       <c r="G44" s="3" t="inlineStr"/>
@@ -2403,10 +2409,10 @@
       </c>
     </row>
     <row r="45" ht="18" customHeight="1">
-      <c r="A45" s="4" t="inlineStr"/>
+      <c r="A45" s="7" t="inlineStr"/>
       <c r="B45" s="2" t="inlineStr"/>
       <c r="C45" s="2" t="inlineStr"/>
-      <c r="D45" s="6" t="inlineStr"/>
+      <c r="D45" s="8" t="inlineStr"/>
       <c r="E45" s="2" t="inlineStr"/>
       <c r="F45" s="3" t="inlineStr"/>
       <c r="G45" s="3" t="inlineStr"/>
@@ -2416,10 +2422,10 @@
       </c>
     </row>
     <row r="46" ht="18" customHeight="1">
-      <c r="A46" s="4" t="inlineStr"/>
+      <c r="A46" s="7" t="inlineStr"/>
       <c r="B46" s="2" t="inlineStr"/>
       <c r="C46" s="2" t="inlineStr"/>
-      <c r="D46" s="6" t="inlineStr"/>
+      <c r="D46" s="8" t="inlineStr"/>
       <c r="E46" s="2" t="inlineStr"/>
       <c r="F46" s="3" t="inlineStr"/>
       <c r="G46" s="3" t="inlineStr"/>
@@ -2429,10 +2435,10 @@
       </c>
     </row>
     <row r="47" ht="18" customHeight="1">
-      <c r="A47" s="4" t="inlineStr"/>
+      <c r="A47" s="7" t="inlineStr"/>
       <c r="B47" s="2" t="inlineStr"/>
       <c r="C47" s="2" t="inlineStr"/>
-      <c r="D47" s="6" t="inlineStr"/>
+      <c r="D47" s="8" t="inlineStr"/>
       <c r="E47" s="2" t="inlineStr"/>
       <c r="F47" s="3" t="inlineStr"/>
       <c r="G47" s="3" t="inlineStr"/>
@@ -2442,10 +2448,10 @@
       </c>
     </row>
     <row r="48" ht="18" customHeight="1">
-      <c r="A48" s="4" t="inlineStr"/>
+      <c r="A48" s="7" t="inlineStr"/>
       <c r="B48" s="2" t="inlineStr"/>
       <c r="C48" s="2" t="inlineStr"/>
-      <c r="D48" s="6" t="inlineStr"/>
+      <c r="D48" s="8" t="inlineStr"/>
       <c r="E48" s="2" t="inlineStr"/>
       <c r="F48" s="3" t="inlineStr"/>
       <c r="G48" s="3" t="inlineStr"/>
@@ -2455,10 +2461,10 @@
       </c>
     </row>
     <row r="49" ht="18" customHeight="1">
-      <c r="A49" s="4" t="inlineStr"/>
+      <c r="A49" s="7" t="inlineStr"/>
       <c r="B49" s="2" t="inlineStr"/>
       <c r="C49" s="2" t="inlineStr"/>
-      <c r="D49" s="6" t="inlineStr"/>
+      <c r="D49" s="8" t="inlineStr"/>
       <c r="E49" s="2" t="inlineStr"/>
       <c r="F49" s="3" t="inlineStr"/>
       <c r="G49" s="3" t="inlineStr"/>
@@ -2509,12 +2515,12 @@
     <row r="1" ht="18" customHeight="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>普通預金A銀行</t>
+          <t>普通預金 A銀行</t>
         </is>
       </c>
     </row>
     <row r="2" ht="18" customHeight="1">
-      <c r="A2" s="1" t="inlineStr">
+      <c r="A2" s="4" t="inlineStr">
         <is>
           <t>日付</t>
         </is>
@@ -2556,25 +2562,25 @@
       </c>
     </row>
     <row r="3" ht="18" customHeight="1">
-      <c r="A3" s="4">
+      <c r="A3" s="5">
         <f>TEXT(44652,"yyyy-mm-dd")</f>
         <v/>
       </c>
-      <c r="B3" s="5" t="n"/>
-      <c r="C3" s="5" t="n"/>
-      <c r="D3" s="5" t="n"/>
-      <c r="E3" s="5" t="n"/>
-      <c r="F3" s="5" t="n"/>
-      <c r="G3" s="5" t="n"/>
+      <c r="B3" s="6" t="n"/>
+      <c r="C3" s="6" t="n"/>
+      <c r="D3" s="6" t="n"/>
+      <c r="E3" s="6" t="n"/>
+      <c r="F3" s="6" t="n"/>
+      <c r="G3" s="6" t="n"/>
       <c r="H3" s="3" t="n">
         <v>987654</v>
       </c>
     </row>
     <row r="4" ht="18" customHeight="1">
-      <c r="A4" s="4" t="inlineStr"/>
+      <c r="A4" s="7" t="inlineStr"/>
       <c r="B4" s="2" t="inlineStr"/>
       <c r="C4" s="2" t="inlineStr"/>
-      <c r="D4" s="6" t="inlineStr"/>
+      <c r="D4" s="8" t="inlineStr"/>
       <c r="E4" s="2" t="inlineStr"/>
       <c r="F4" s="3" t="inlineStr"/>
       <c r="G4" s="3" t="inlineStr"/>
@@ -2584,10 +2590,10 @@
       </c>
     </row>
     <row r="5" ht="18" customHeight="1">
-      <c r="A5" s="4" t="inlineStr"/>
+      <c r="A5" s="7" t="inlineStr"/>
       <c r="B5" s="2" t="inlineStr"/>
       <c r="C5" s="2" t="inlineStr"/>
-      <c r="D5" s="6" t="inlineStr"/>
+      <c r="D5" s="8" t="inlineStr"/>
       <c r="E5" s="2" t="inlineStr"/>
       <c r="F5" s="3" t="inlineStr"/>
       <c r="G5" s="3" t="inlineStr"/>
@@ -2597,10 +2603,10 @@
       </c>
     </row>
     <row r="6" ht="18" customHeight="1">
-      <c r="A6" s="4" t="inlineStr"/>
+      <c r="A6" s="7" t="inlineStr"/>
       <c r="B6" s="2" t="inlineStr"/>
       <c r="C6" s="2" t="inlineStr"/>
-      <c r="D6" s="6" t="inlineStr"/>
+      <c r="D6" s="8" t="inlineStr"/>
       <c r="E6" s="2" t="inlineStr"/>
       <c r="F6" s="3" t="inlineStr"/>
       <c r="G6" s="3" t="inlineStr"/>
@@ -2610,10 +2616,10 @@
       </c>
     </row>
     <row r="7" ht="18" customHeight="1">
-      <c r="A7" s="4" t="inlineStr"/>
+      <c r="A7" s="7" t="inlineStr"/>
       <c r="B7" s="2" t="inlineStr"/>
       <c r="C7" s="2" t="inlineStr"/>
-      <c r="D7" s="6" t="inlineStr"/>
+      <c r="D7" s="8" t="inlineStr"/>
       <c r="E7" s="2" t="inlineStr"/>
       <c r="F7" s="3" t="inlineStr"/>
       <c r="G7" s="3" t="inlineStr"/>
@@ -2623,10 +2629,10 @@
       </c>
     </row>
     <row r="8" ht="18" customHeight="1">
-      <c r="A8" s="4" t="inlineStr"/>
+      <c r="A8" s="7" t="inlineStr"/>
       <c r="B8" s="2" t="inlineStr"/>
       <c r="C8" s="2" t="inlineStr"/>
-      <c r="D8" s="6" t="inlineStr"/>
+      <c r="D8" s="8" t="inlineStr"/>
       <c r="E8" s="2" t="inlineStr"/>
       <c r="F8" s="3" t="inlineStr"/>
       <c r="G8" s="3" t="inlineStr"/>
@@ -2636,10 +2642,10 @@
       </c>
     </row>
     <row r="9" ht="18" customHeight="1">
-      <c r="A9" s="4" t="inlineStr"/>
+      <c r="A9" s="7" t="inlineStr"/>
       <c r="B9" s="2" t="inlineStr"/>
       <c r="C9" s="2" t="inlineStr"/>
-      <c r="D9" s="6" t="inlineStr"/>
+      <c r="D9" s="8" t="inlineStr"/>
       <c r="E9" s="2" t="inlineStr"/>
       <c r="F9" s="3" t="inlineStr"/>
       <c r="G9" s="3" t="inlineStr"/>
@@ -2649,10 +2655,10 @@
       </c>
     </row>
     <row r="10" ht="18" customHeight="1">
-      <c r="A10" s="4" t="inlineStr"/>
+      <c r="A10" s="7" t="inlineStr"/>
       <c r="B10" s="2" t="inlineStr"/>
       <c r="C10" s="2" t="inlineStr"/>
-      <c r="D10" s="6" t="inlineStr"/>
+      <c r="D10" s="8" t="inlineStr"/>
       <c r="E10" s="2" t="inlineStr"/>
       <c r="F10" s="3" t="inlineStr"/>
       <c r="G10" s="3" t="inlineStr"/>
@@ -2662,10 +2668,10 @@
       </c>
     </row>
     <row r="11" ht="18" customHeight="1">
-      <c r="A11" s="4" t="inlineStr"/>
+      <c r="A11" s="7" t="inlineStr"/>
       <c r="B11" s="2" t="inlineStr"/>
       <c r="C11" s="2" t="inlineStr"/>
-      <c r="D11" s="6" t="inlineStr"/>
+      <c r="D11" s="8" t="inlineStr"/>
       <c r="E11" s="2" t="inlineStr"/>
       <c r="F11" s="3" t="inlineStr"/>
       <c r="G11" s="3" t="inlineStr"/>
@@ -2675,10 +2681,10 @@
       </c>
     </row>
     <row r="12" ht="18" customHeight="1">
-      <c r="A12" s="4" t="inlineStr"/>
+      <c r="A12" s="7" t="inlineStr"/>
       <c r="B12" s="2" t="inlineStr"/>
       <c r="C12" s="2" t="inlineStr"/>
-      <c r="D12" s="6" t="inlineStr"/>
+      <c r="D12" s="8" t="inlineStr"/>
       <c r="E12" s="2" t="inlineStr"/>
       <c r="F12" s="3" t="inlineStr"/>
       <c r="G12" s="3" t="inlineStr"/>
@@ -2688,10 +2694,10 @@
       </c>
     </row>
     <row r="13" ht="18" customHeight="1">
-      <c r="A13" s="4" t="inlineStr"/>
+      <c r="A13" s="7" t="inlineStr"/>
       <c r="B13" s="2" t="inlineStr"/>
       <c r="C13" s="2" t="inlineStr"/>
-      <c r="D13" s="6" t="inlineStr"/>
+      <c r="D13" s="8" t="inlineStr"/>
       <c r="E13" s="2" t="inlineStr"/>
       <c r="F13" s="3" t="inlineStr"/>
       <c r="G13" s="3" t="inlineStr"/>
@@ -2701,10 +2707,10 @@
       </c>
     </row>
     <row r="14" ht="18" customHeight="1">
-      <c r="A14" s="4" t="inlineStr"/>
+      <c r="A14" s="7" t="inlineStr"/>
       <c r="B14" s="2" t="inlineStr"/>
       <c r="C14" s="2" t="inlineStr"/>
-      <c r="D14" s="6" t="inlineStr"/>
+      <c r="D14" s="8" t="inlineStr"/>
       <c r="E14" s="2" t="inlineStr"/>
       <c r="F14" s="3" t="inlineStr"/>
       <c r="G14" s="3" t="inlineStr"/>
@@ -2714,10 +2720,10 @@
       </c>
     </row>
     <row r="15" ht="18" customHeight="1">
-      <c r="A15" s="4" t="inlineStr"/>
+      <c r="A15" s="7" t="inlineStr"/>
       <c r="B15" s="2" t="inlineStr"/>
       <c r="C15" s="2" t="inlineStr"/>
-      <c r="D15" s="6" t="inlineStr"/>
+      <c r="D15" s="8" t="inlineStr"/>
       <c r="E15" s="2" t="inlineStr"/>
       <c r="F15" s="3" t="inlineStr"/>
       <c r="G15" s="3" t="inlineStr"/>
@@ -2727,10 +2733,10 @@
       </c>
     </row>
     <row r="16" ht="18" customHeight="1">
-      <c r="A16" s="4" t="inlineStr"/>
+      <c r="A16" s="7" t="inlineStr"/>
       <c r="B16" s="2" t="inlineStr"/>
       <c r="C16" s="2" t="inlineStr"/>
-      <c r="D16" s="6" t="inlineStr"/>
+      <c r="D16" s="8" t="inlineStr"/>
       <c r="E16" s="2" t="inlineStr"/>
       <c r="F16" s="3" t="inlineStr"/>
       <c r="G16" s="3" t="inlineStr"/>
@@ -2740,10 +2746,10 @@
       </c>
     </row>
     <row r="17" ht="18" customHeight="1">
-      <c r="A17" s="4" t="inlineStr"/>
+      <c r="A17" s="7" t="inlineStr"/>
       <c r="B17" s="2" t="inlineStr"/>
       <c r="C17" s="2" t="inlineStr"/>
-      <c r="D17" s="6" t="inlineStr"/>
+      <c r="D17" s="8" t="inlineStr"/>
       <c r="E17" s="2" t="inlineStr"/>
       <c r="F17" s="3" t="inlineStr"/>
       <c r="G17" s="3" t="inlineStr"/>
@@ -2753,10 +2759,10 @@
       </c>
     </row>
     <row r="18" ht="18" customHeight="1">
-      <c r="A18" s="4" t="inlineStr"/>
+      <c r="A18" s="7" t="inlineStr"/>
       <c r="B18" s="2" t="inlineStr"/>
       <c r="C18" s="2" t="inlineStr"/>
-      <c r="D18" s="6" t="inlineStr"/>
+      <c r="D18" s="8" t="inlineStr"/>
       <c r="E18" s="2" t="inlineStr"/>
       <c r="F18" s="3" t="inlineStr"/>
       <c r="G18" s="3" t="inlineStr"/>
@@ -2766,10 +2772,10 @@
       </c>
     </row>
     <row r="19" ht="18" customHeight="1">
-      <c r="A19" s="4" t="inlineStr"/>
+      <c r="A19" s="7" t="inlineStr"/>
       <c r="B19" s="2" t="inlineStr"/>
       <c r="C19" s="2" t="inlineStr"/>
-      <c r="D19" s="6" t="inlineStr"/>
+      <c r="D19" s="8" t="inlineStr"/>
       <c r="E19" s="2" t="inlineStr"/>
       <c r="F19" s="3" t="inlineStr"/>
       <c r="G19" s="3" t="inlineStr"/>
@@ -2779,10 +2785,10 @@
       </c>
     </row>
     <row r="20" ht="18" customHeight="1">
-      <c r="A20" s="4" t="inlineStr"/>
+      <c r="A20" s="7" t="inlineStr"/>
       <c r="B20" s="2" t="inlineStr"/>
       <c r="C20" s="2" t="inlineStr"/>
-      <c r="D20" s="6" t="inlineStr"/>
+      <c r="D20" s="8" t="inlineStr"/>
       <c r="E20" s="2" t="inlineStr"/>
       <c r="F20" s="3" t="inlineStr"/>
       <c r="G20" s="3" t="inlineStr"/>
@@ -2792,10 +2798,10 @@
       </c>
     </row>
     <row r="21" ht="18" customHeight="1">
-      <c r="A21" s="4" t="inlineStr"/>
+      <c r="A21" s="7" t="inlineStr"/>
       <c r="B21" s="2" t="inlineStr"/>
       <c r="C21" s="2" t="inlineStr"/>
-      <c r="D21" s="6" t="inlineStr"/>
+      <c r="D21" s="8" t="inlineStr"/>
       <c r="E21" s="2" t="inlineStr"/>
       <c r="F21" s="3" t="inlineStr"/>
       <c r="G21" s="3" t="inlineStr"/>
@@ -2805,10 +2811,10 @@
       </c>
     </row>
     <row r="22" ht="18" customHeight="1">
-      <c r="A22" s="4" t="inlineStr"/>
+      <c r="A22" s="7" t="inlineStr"/>
       <c r="B22" s="2" t="inlineStr"/>
       <c r="C22" s="2" t="inlineStr"/>
-      <c r="D22" s="6" t="inlineStr"/>
+      <c r="D22" s="8" t="inlineStr"/>
       <c r="E22" s="2" t="inlineStr"/>
       <c r="F22" s="3" t="inlineStr"/>
       <c r="G22" s="3" t="inlineStr"/>
@@ -2818,10 +2824,10 @@
       </c>
     </row>
     <row r="23" ht="18" customHeight="1">
-      <c r="A23" s="4" t="inlineStr"/>
+      <c r="A23" s="7" t="inlineStr"/>
       <c r="B23" s="2" t="inlineStr"/>
       <c r="C23" s="2" t="inlineStr"/>
-      <c r="D23" s="6" t="inlineStr"/>
+      <c r="D23" s="8" t="inlineStr"/>
       <c r="E23" s="2" t="inlineStr"/>
       <c r="F23" s="3" t="inlineStr"/>
       <c r="G23" s="3" t="inlineStr"/>
@@ -2831,10 +2837,10 @@
       </c>
     </row>
     <row r="24" ht="18" customHeight="1">
-      <c r="A24" s="4" t="inlineStr"/>
+      <c r="A24" s="7" t="inlineStr"/>
       <c r="B24" s="2" t="inlineStr"/>
       <c r="C24" s="2" t="inlineStr"/>
-      <c r="D24" s="6" t="inlineStr"/>
+      <c r="D24" s="8" t="inlineStr"/>
       <c r="E24" s="2" t="inlineStr"/>
       <c r="F24" s="3" t="inlineStr"/>
       <c r="G24" s="3" t="inlineStr"/>
@@ -2844,10 +2850,10 @@
       </c>
     </row>
     <row r="25" ht="18" customHeight="1">
-      <c r="A25" s="4" t="inlineStr"/>
+      <c r="A25" s="7" t="inlineStr"/>
       <c r="B25" s="2" t="inlineStr"/>
       <c r="C25" s="2" t="inlineStr"/>
-      <c r="D25" s="6" t="inlineStr"/>
+      <c r="D25" s="8" t="inlineStr"/>
       <c r="E25" s="2" t="inlineStr"/>
       <c r="F25" s="3" t="inlineStr"/>
       <c r="G25" s="3" t="inlineStr"/>
@@ -2857,10 +2863,10 @@
       </c>
     </row>
     <row r="26" ht="18" customHeight="1">
-      <c r="A26" s="4" t="inlineStr"/>
+      <c r="A26" s="7" t="inlineStr"/>
       <c r="B26" s="2" t="inlineStr"/>
       <c r="C26" s="2" t="inlineStr"/>
-      <c r="D26" s="6" t="inlineStr"/>
+      <c r="D26" s="8" t="inlineStr"/>
       <c r="E26" s="2" t="inlineStr"/>
       <c r="F26" s="3" t="inlineStr"/>
       <c r="G26" s="3" t="inlineStr"/>
@@ -2870,10 +2876,10 @@
       </c>
     </row>
     <row r="27" ht="18" customHeight="1">
-      <c r="A27" s="4" t="inlineStr"/>
+      <c r="A27" s="7" t="inlineStr"/>
       <c r="B27" s="2" t="inlineStr"/>
       <c r="C27" s="2" t="inlineStr"/>
-      <c r="D27" s="6" t="inlineStr"/>
+      <c r="D27" s="8" t="inlineStr"/>
       <c r="E27" s="2" t="inlineStr"/>
       <c r="F27" s="3" t="inlineStr"/>
       <c r="G27" s="3" t="inlineStr"/>
@@ -2883,10 +2889,10 @@
       </c>
     </row>
     <row r="28" ht="18" customHeight="1">
-      <c r="A28" s="4" t="inlineStr"/>
+      <c r="A28" s="7" t="inlineStr"/>
       <c r="B28" s="2" t="inlineStr"/>
       <c r="C28" s="2" t="inlineStr"/>
-      <c r="D28" s="6" t="inlineStr"/>
+      <c r="D28" s="8" t="inlineStr"/>
       <c r="E28" s="2" t="inlineStr"/>
       <c r="F28" s="3" t="inlineStr"/>
       <c r="G28" s="3" t="inlineStr"/>
@@ -2896,10 +2902,10 @@
       </c>
     </row>
     <row r="29" ht="18" customHeight="1">
-      <c r="A29" s="4" t="inlineStr"/>
+      <c r="A29" s="7" t="inlineStr"/>
       <c r="B29" s="2" t="inlineStr"/>
       <c r="C29" s="2" t="inlineStr"/>
-      <c r="D29" s="6" t="inlineStr"/>
+      <c r="D29" s="8" t="inlineStr"/>
       <c r="E29" s="2" t="inlineStr"/>
       <c r="F29" s="3" t="inlineStr"/>
       <c r="G29" s="3" t="inlineStr"/>
@@ -2909,10 +2915,10 @@
       </c>
     </row>
     <row r="30" ht="18" customHeight="1">
-      <c r="A30" s="4" t="inlineStr"/>
+      <c r="A30" s="7" t="inlineStr"/>
       <c r="B30" s="2" t="inlineStr"/>
       <c r="C30" s="2" t="inlineStr"/>
-      <c r="D30" s="6" t="inlineStr"/>
+      <c r="D30" s="8" t="inlineStr"/>
       <c r="E30" s="2" t="inlineStr"/>
       <c r="F30" s="3" t="inlineStr"/>
       <c r="G30" s="3" t="inlineStr"/>
@@ -2922,10 +2928,10 @@
       </c>
     </row>
     <row r="31" ht="18" customHeight="1">
-      <c r="A31" s="4" t="inlineStr"/>
+      <c r="A31" s="7" t="inlineStr"/>
       <c r="B31" s="2" t="inlineStr"/>
       <c r="C31" s="2" t="inlineStr"/>
-      <c r="D31" s="6" t="inlineStr"/>
+      <c r="D31" s="8" t="inlineStr"/>
       <c r="E31" s="2" t="inlineStr"/>
       <c r="F31" s="3" t="inlineStr"/>
       <c r="G31" s="3" t="inlineStr"/>
@@ -2935,10 +2941,10 @@
       </c>
     </row>
     <row r="32" ht="18" customHeight="1">
-      <c r="A32" s="4" t="inlineStr"/>
+      <c r="A32" s="7" t="inlineStr"/>
       <c r="B32" s="2" t="inlineStr"/>
       <c r="C32" s="2" t="inlineStr"/>
-      <c r="D32" s="6" t="inlineStr"/>
+      <c r="D32" s="8" t="inlineStr"/>
       <c r="E32" s="2" t="inlineStr"/>
       <c r="F32" s="3" t="inlineStr"/>
       <c r="G32" s="3" t="inlineStr"/>
@@ -2948,10 +2954,10 @@
       </c>
     </row>
     <row r="33" ht="18" customHeight="1">
-      <c r="A33" s="4" t="inlineStr"/>
+      <c r="A33" s="7" t="inlineStr"/>
       <c r="B33" s="2" t="inlineStr"/>
       <c r="C33" s="2" t="inlineStr"/>
-      <c r="D33" s="6" t="inlineStr"/>
+      <c r="D33" s="8" t="inlineStr"/>
       <c r="E33" s="2" t="inlineStr"/>
       <c r="F33" s="3" t="inlineStr"/>
       <c r="G33" s="3" t="inlineStr"/>
@@ -2961,10 +2967,10 @@
       </c>
     </row>
     <row r="34" ht="18" customHeight="1">
-      <c r="A34" s="4" t="inlineStr"/>
+      <c r="A34" s="7" t="inlineStr"/>
       <c r="B34" s="2" t="inlineStr"/>
       <c r="C34" s="2" t="inlineStr"/>
-      <c r="D34" s="6" t="inlineStr"/>
+      <c r="D34" s="8" t="inlineStr"/>
       <c r="E34" s="2" t="inlineStr"/>
       <c r="F34" s="3" t="inlineStr"/>
       <c r="G34" s="3" t="inlineStr"/>
@@ -2974,10 +2980,10 @@
       </c>
     </row>
     <row r="35" ht="18" customHeight="1">
-      <c r="A35" s="4" t="inlineStr"/>
+      <c r="A35" s="7" t="inlineStr"/>
       <c r="B35" s="2" t="inlineStr"/>
       <c r="C35" s="2" t="inlineStr"/>
-      <c r="D35" s="6" t="inlineStr"/>
+      <c r="D35" s="8" t="inlineStr"/>
       <c r="E35" s="2" t="inlineStr"/>
       <c r="F35" s="3" t="inlineStr"/>
       <c r="G35" s="3" t="inlineStr"/>
@@ -2987,10 +2993,10 @@
       </c>
     </row>
     <row r="36" ht="18" customHeight="1">
-      <c r="A36" s="4" t="inlineStr"/>
+      <c r="A36" s="7" t="inlineStr"/>
       <c r="B36" s="2" t="inlineStr"/>
       <c r="C36" s="2" t="inlineStr"/>
-      <c r="D36" s="6" t="inlineStr"/>
+      <c r="D36" s="8" t="inlineStr"/>
       <c r="E36" s="2" t="inlineStr"/>
       <c r="F36" s="3" t="inlineStr"/>
       <c r="G36" s="3" t="inlineStr"/>
@@ -3000,10 +3006,10 @@
       </c>
     </row>
     <row r="37" ht="18" customHeight="1">
-      <c r="A37" s="4" t="inlineStr"/>
+      <c r="A37" s="7" t="inlineStr"/>
       <c r="B37" s="2" t="inlineStr"/>
       <c r="C37" s="2" t="inlineStr"/>
-      <c r="D37" s="6" t="inlineStr"/>
+      <c r="D37" s="8" t="inlineStr"/>
       <c r="E37" s="2" t="inlineStr"/>
       <c r="F37" s="3" t="inlineStr"/>
       <c r="G37" s="3" t="inlineStr"/>
@@ -3013,10 +3019,10 @@
       </c>
     </row>
     <row r="38" ht="18" customHeight="1">
-      <c r="A38" s="4" t="inlineStr"/>
+      <c r="A38" s="7" t="inlineStr"/>
       <c r="B38" s="2" t="inlineStr"/>
       <c r="C38" s="2" t="inlineStr"/>
-      <c r="D38" s="6" t="inlineStr"/>
+      <c r="D38" s="8" t="inlineStr"/>
       <c r="E38" s="2" t="inlineStr"/>
       <c r="F38" s="3" t="inlineStr"/>
       <c r="G38" s="3" t="inlineStr"/>
@@ -3026,10 +3032,10 @@
       </c>
     </row>
     <row r="39" ht="18" customHeight="1">
-      <c r="A39" s="4" t="inlineStr"/>
+      <c r="A39" s="7" t="inlineStr"/>
       <c r="B39" s="2" t="inlineStr"/>
       <c r="C39" s="2" t="inlineStr"/>
-      <c r="D39" s="6" t="inlineStr"/>
+      <c r="D39" s="8" t="inlineStr"/>
       <c r="E39" s="2" t="inlineStr"/>
       <c r="F39" s="3" t="inlineStr"/>
       <c r="G39" s="3" t="inlineStr"/>
@@ -3039,10 +3045,10 @@
       </c>
     </row>
     <row r="40" ht="18" customHeight="1">
-      <c r="A40" s="4" t="inlineStr"/>
+      <c r="A40" s="7" t="inlineStr"/>
       <c r="B40" s="2" t="inlineStr"/>
       <c r="C40" s="2" t="inlineStr"/>
-      <c r="D40" s="6" t="inlineStr"/>
+      <c r="D40" s="8" t="inlineStr"/>
       <c r="E40" s="2" t="inlineStr"/>
       <c r="F40" s="3" t="inlineStr"/>
       <c r="G40" s="3" t="inlineStr"/>
@@ -3052,10 +3058,10 @@
       </c>
     </row>
     <row r="41" ht="18" customHeight="1">
-      <c r="A41" s="4" t="inlineStr"/>
+      <c r="A41" s="7" t="inlineStr"/>
       <c r="B41" s="2" t="inlineStr"/>
       <c r="C41" s="2" t="inlineStr"/>
-      <c r="D41" s="6" t="inlineStr"/>
+      <c r="D41" s="8" t="inlineStr"/>
       <c r="E41" s="2" t="inlineStr"/>
       <c r="F41" s="3" t="inlineStr"/>
       <c r="G41" s="3" t="inlineStr"/>
@@ -3065,10 +3071,10 @@
       </c>
     </row>
     <row r="42" ht="18" customHeight="1">
-      <c r="A42" s="4" t="inlineStr"/>
+      <c r="A42" s="7" t="inlineStr"/>
       <c r="B42" s="2" t="inlineStr"/>
       <c r="C42" s="2" t="inlineStr"/>
-      <c r="D42" s="6" t="inlineStr"/>
+      <c r="D42" s="8" t="inlineStr"/>
       <c r="E42" s="2" t="inlineStr"/>
       <c r="F42" s="3" t="inlineStr"/>
       <c r="G42" s="3" t="inlineStr"/>
@@ -3078,10 +3084,10 @@
       </c>
     </row>
     <row r="43" ht="18" customHeight="1">
-      <c r="A43" s="4" t="inlineStr"/>
+      <c r="A43" s="7" t="inlineStr"/>
       <c r="B43" s="2" t="inlineStr"/>
       <c r="C43" s="2" t="inlineStr"/>
-      <c r="D43" s="6" t="inlineStr"/>
+      <c r="D43" s="8" t="inlineStr"/>
       <c r="E43" s="2" t="inlineStr"/>
       <c r="F43" s="3" t="inlineStr"/>
       <c r="G43" s="3" t="inlineStr"/>
@@ -3091,10 +3097,10 @@
       </c>
     </row>
     <row r="44" ht="18" customHeight="1">
-      <c r="A44" s="4" t="inlineStr"/>
+      <c r="A44" s="7" t="inlineStr"/>
       <c r="B44" s="2" t="inlineStr"/>
       <c r="C44" s="2" t="inlineStr"/>
-      <c r="D44" s="6" t="inlineStr"/>
+      <c r="D44" s="8" t="inlineStr"/>
       <c r="E44" s="2" t="inlineStr"/>
       <c r="F44" s="3" t="inlineStr"/>
       <c r="G44" s="3" t="inlineStr"/>
@@ -3104,10 +3110,10 @@
       </c>
     </row>
     <row r="45" ht="18" customHeight="1">
-      <c r="A45" s="4" t="inlineStr"/>
+      <c r="A45" s="7" t="inlineStr"/>
       <c r="B45" s="2" t="inlineStr"/>
       <c r="C45" s="2" t="inlineStr"/>
-      <c r="D45" s="6" t="inlineStr"/>
+      <c r="D45" s="8" t="inlineStr"/>
       <c r="E45" s="2" t="inlineStr"/>
       <c r="F45" s="3" t="inlineStr"/>
       <c r="G45" s="3" t="inlineStr"/>
@@ -3117,10 +3123,10 @@
       </c>
     </row>
     <row r="46" ht="18" customHeight="1">
-      <c r="A46" s="4" t="inlineStr"/>
+      <c r="A46" s="7" t="inlineStr"/>
       <c r="B46" s="2" t="inlineStr"/>
       <c r="C46" s="2" t="inlineStr"/>
-      <c r="D46" s="6" t="inlineStr"/>
+      <c r="D46" s="8" t="inlineStr"/>
       <c r="E46" s="2" t="inlineStr"/>
       <c r="F46" s="3" t="inlineStr"/>
       <c r="G46" s="3" t="inlineStr"/>
@@ -3130,10 +3136,10 @@
       </c>
     </row>
     <row r="47" ht="18" customHeight="1">
-      <c r="A47" s="4" t="inlineStr"/>
+      <c r="A47" s="7" t="inlineStr"/>
       <c r="B47" s="2" t="inlineStr"/>
       <c r="C47" s="2" t="inlineStr"/>
-      <c r="D47" s="6" t="inlineStr"/>
+      <c r="D47" s="8" t="inlineStr"/>
       <c r="E47" s="2" t="inlineStr"/>
       <c r="F47" s="3" t="inlineStr"/>
       <c r="G47" s="3" t="inlineStr"/>
@@ -3143,10 +3149,10 @@
       </c>
     </row>
     <row r="48" ht="18" customHeight="1">
-      <c r="A48" s="4" t="inlineStr"/>
+      <c r="A48" s="7" t="inlineStr"/>
       <c r="B48" s="2" t="inlineStr"/>
       <c r="C48" s="2" t="inlineStr"/>
-      <c r="D48" s="6" t="inlineStr"/>
+      <c r="D48" s="8" t="inlineStr"/>
       <c r="E48" s="2" t="inlineStr"/>
       <c r="F48" s="3" t="inlineStr"/>
       <c r="G48" s="3" t="inlineStr"/>
@@ -3156,10 +3162,10 @@
       </c>
     </row>
     <row r="49" ht="18" customHeight="1">
-      <c r="A49" s="4" t="inlineStr"/>
+      <c r="A49" s="7" t="inlineStr"/>
       <c r="B49" s="2" t="inlineStr"/>
       <c r="C49" s="2" t="inlineStr"/>
-      <c r="D49" s="6" t="inlineStr"/>
+      <c r="D49" s="8" t="inlineStr"/>
       <c r="E49" s="2" t="inlineStr"/>
       <c r="F49" s="3" t="inlineStr"/>
       <c r="G49" s="3" t="inlineStr"/>
@@ -3263,7 +3269,7 @@
       </c>
     </row>
     <row r="3" ht="18" customHeight="1">
-      <c r="A3" s="4" t="inlineStr"/>
+      <c r="A3" s="5" t="inlineStr"/>
       <c r="B3" s="2" t="inlineStr"/>
       <c r="C3" s="2" t="inlineStr"/>
       <c r="D3" s="3" t="inlineStr"/>
@@ -3274,7 +3280,7 @@
       <c r="I3" s="2" t="inlineStr"/>
     </row>
     <row r="4" ht="18" customHeight="1">
-      <c r="A4" s="4" t="inlineStr"/>
+      <c r="A4" s="5" t="inlineStr"/>
       <c r="B4" s="2" t="inlineStr"/>
       <c r="C4" s="2" t="inlineStr"/>
       <c r="D4" s="3" t="inlineStr"/>
@@ -3285,7 +3291,7 @@
       <c r="I4" s="2" t="inlineStr"/>
     </row>
     <row r="5" ht="18" customHeight="1">
-      <c r="A5" s="4" t="inlineStr"/>
+      <c r="A5" s="5" t="inlineStr"/>
       <c r="B5" s="2" t="inlineStr"/>
       <c r="C5" s="2" t="inlineStr"/>
       <c r="D5" s="3" t="inlineStr"/>
@@ -3296,7 +3302,7 @@
       <c r="I5" s="2" t="inlineStr"/>
     </row>
     <row r="6" ht="18" customHeight="1">
-      <c r="A6" s="4" t="inlineStr"/>
+      <c r="A6" s="5" t="inlineStr"/>
       <c r="B6" s="2" t="inlineStr"/>
       <c r="C6" s="2" t="inlineStr"/>
       <c r="D6" s="3" t="inlineStr"/>
@@ -3307,7 +3313,7 @@
       <c r="I6" s="2" t="inlineStr"/>
     </row>
     <row r="7" ht="18" customHeight="1">
-      <c r="A7" s="4" t="inlineStr"/>
+      <c r="A7" s="5" t="inlineStr"/>
       <c r="B7" s="2" t="inlineStr"/>
       <c r="C7" s="2" t="inlineStr"/>
       <c r="D7" s="3" t="inlineStr"/>
@@ -3318,7 +3324,7 @@
       <c r="I7" s="2" t="inlineStr"/>
     </row>
     <row r="8" ht="18" customHeight="1">
-      <c r="A8" s="4" t="inlineStr"/>
+      <c r="A8" s="5" t="inlineStr"/>
       <c r="B8" s="2" t="inlineStr"/>
       <c r="C8" s="2" t="inlineStr"/>
       <c r="D8" s="3" t="inlineStr"/>
@@ -3329,7 +3335,7 @@
       <c r="I8" s="2" t="inlineStr"/>
     </row>
     <row r="9" ht="18" customHeight="1">
-      <c r="A9" s="4" t="inlineStr"/>
+      <c r="A9" s="5" t="inlineStr"/>
       <c r="B9" s="2" t="inlineStr"/>
       <c r="C9" s="2" t="inlineStr"/>
       <c r="D9" s="3" t="inlineStr"/>
@@ -3340,7 +3346,7 @@
       <c r="I9" s="2" t="inlineStr"/>
     </row>
     <row r="10" ht="18" customHeight="1">
-      <c r="A10" s="4" t="inlineStr"/>
+      <c r="A10" s="5" t="inlineStr"/>
       <c r="B10" s="2" t="inlineStr"/>
       <c r="C10" s="2" t="inlineStr"/>
       <c r="D10" s="3" t="inlineStr"/>
@@ -3351,7 +3357,7 @@
       <c r="I10" s="2" t="inlineStr"/>
     </row>
     <row r="11" ht="18" customHeight="1">
-      <c r="A11" s="4" t="inlineStr"/>
+      <c r="A11" s="5" t="inlineStr"/>
       <c r="B11" s="2" t="inlineStr"/>
       <c r="C11" s="2" t="inlineStr"/>
       <c r="D11" s="3" t="inlineStr"/>
@@ -3362,7 +3368,7 @@
       <c r="I11" s="2" t="inlineStr"/>
     </row>
     <row r="12" ht="18" customHeight="1">
-      <c r="A12" s="4" t="inlineStr"/>
+      <c r="A12" s="5" t="inlineStr"/>
       <c r="B12" s="2" t="inlineStr"/>
       <c r="C12" s="2" t="inlineStr"/>
       <c r="D12" s="3" t="inlineStr"/>
@@ -3373,7 +3379,7 @@
       <c r="I12" s="2" t="inlineStr"/>
     </row>
     <row r="13" ht="18" customHeight="1">
-      <c r="A13" s="4" t="inlineStr"/>
+      <c r="A13" s="5" t="inlineStr"/>
       <c r="B13" s="2" t="inlineStr"/>
       <c r="C13" s="2" t="inlineStr"/>
       <c r="D13" s="3" t="inlineStr"/>
@@ -3384,7 +3390,7 @@
       <c r="I13" s="2" t="inlineStr"/>
     </row>
     <row r="14" ht="18" customHeight="1">
-      <c r="A14" s="4" t="inlineStr"/>
+      <c r="A14" s="5" t="inlineStr"/>
       <c r="B14" s="2" t="inlineStr"/>
       <c r="C14" s="2" t="inlineStr"/>
       <c r="D14" s="3" t="inlineStr"/>
@@ -3395,7 +3401,7 @@
       <c r="I14" s="2" t="inlineStr"/>
     </row>
     <row r="15" ht="18" customHeight="1">
-      <c r="A15" s="4" t="inlineStr"/>
+      <c r="A15" s="5" t="inlineStr"/>
       <c r="B15" s="2" t="inlineStr"/>
       <c r="C15" s="2" t="inlineStr"/>
       <c r="D15" s="3" t="inlineStr"/>
@@ -3406,7 +3412,7 @@
       <c r="I15" s="2" t="inlineStr"/>
     </row>
     <row r="16" ht="18" customHeight="1">
-      <c r="A16" s="4" t="inlineStr"/>
+      <c r="A16" s="5" t="inlineStr"/>
       <c r="B16" s="2" t="inlineStr"/>
       <c r="C16" s="2" t="inlineStr"/>
       <c r="D16" s="3" t="inlineStr"/>
@@ -3417,7 +3423,7 @@
       <c r="I16" s="2" t="inlineStr"/>
     </row>
     <row r="17" ht="18" customHeight="1">
-      <c r="A17" s="4" t="inlineStr"/>
+      <c r="A17" s="5" t="inlineStr"/>
       <c r="B17" s="2" t="inlineStr"/>
       <c r="C17" s="2" t="inlineStr"/>
       <c r="D17" s="3" t="inlineStr"/>
@@ -3428,7 +3434,7 @@
       <c r="I17" s="2" t="inlineStr"/>
     </row>
     <row r="18" ht="18" customHeight="1">
-      <c r="A18" s="4" t="inlineStr"/>
+      <c r="A18" s="5" t="inlineStr"/>
       <c r="B18" s="2" t="inlineStr"/>
       <c r="C18" s="2" t="inlineStr"/>
       <c r="D18" s="3" t="inlineStr"/>
@@ -3439,7 +3445,7 @@
       <c r="I18" s="2" t="inlineStr"/>
     </row>
     <row r="19" ht="18" customHeight="1">
-      <c r="A19" s="4" t="inlineStr"/>
+      <c r="A19" s="5" t="inlineStr"/>
       <c r="B19" s="2" t="inlineStr"/>
       <c r="C19" s="2" t="inlineStr"/>
       <c r="D19" s="3" t="inlineStr"/>
@@ -3450,7 +3456,7 @@
       <c r="I19" s="2" t="inlineStr"/>
     </row>
     <row r="20" ht="18" customHeight="1">
-      <c r="A20" s="4" t="inlineStr"/>
+      <c r="A20" s="5" t="inlineStr"/>
       <c r="B20" s="2" t="inlineStr"/>
       <c r="C20" s="2" t="inlineStr"/>
       <c r="D20" s="3" t="inlineStr"/>
@@ -3461,7 +3467,7 @@
       <c r="I20" s="2" t="inlineStr"/>
     </row>
     <row r="21" ht="18" customHeight="1">
-      <c r="A21" s="4" t="inlineStr"/>
+      <c r="A21" s="5" t="inlineStr"/>
       <c r="B21" s="2" t="inlineStr"/>
       <c r="C21" s="2" t="inlineStr"/>
       <c r="D21" s="3" t="inlineStr"/>
@@ -3472,7 +3478,7 @@
       <c r="I21" s="2" t="inlineStr"/>
     </row>
     <row r="22" ht="18" customHeight="1">
-      <c r="A22" s="4" t="inlineStr"/>
+      <c r="A22" s="5" t="inlineStr"/>
       <c r="B22" s="2" t="inlineStr"/>
       <c r="C22" s="2" t="inlineStr"/>
       <c r="D22" s="3" t="inlineStr"/>
@@ -3483,7 +3489,7 @@
       <c r="I22" s="2" t="inlineStr"/>
     </row>
     <row r="23" ht="18" customHeight="1">
-      <c r="A23" s="4" t="inlineStr"/>
+      <c r="A23" s="5" t="inlineStr"/>
       <c r="B23" s="2" t="inlineStr"/>
       <c r="C23" s="2" t="inlineStr"/>
       <c r="D23" s="3" t="inlineStr"/>
@@ -3494,7 +3500,7 @@
       <c r="I23" s="2" t="inlineStr"/>
     </row>
     <row r="24" ht="18" customHeight="1">
-      <c r="A24" s="4" t="inlineStr"/>
+      <c r="A24" s="5" t="inlineStr"/>
       <c r="B24" s="2" t="inlineStr"/>
       <c r="C24" s="2" t="inlineStr"/>
       <c r="D24" s="3" t="inlineStr"/>
@@ -3505,7 +3511,7 @@
       <c r="I24" s="2" t="inlineStr"/>
     </row>
     <row r="25" ht="18" customHeight="1">
-      <c r="A25" s="4" t="inlineStr"/>
+      <c r="A25" s="5" t="inlineStr"/>
       <c r="B25" s="2" t="inlineStr"/>
       <c r="C25" s="2" t="inlineStr"/>
       <c r="D25" s="3" t="inlineStr"/>
@@ -3516,7 +3522,7 @@
       <c r="I25" s="2" t="inlineStr"/>
     </row>
     <row r="26" ht="18" customHeight="1">
-      <c r="A26" s="4" t="inlineStr"/>
+      <c r="A26" s="5" t="inlineStr"/>
       <c r="B26" s="2" t="inlineStr"/>
       <c r="C26" s="2" t="inlineStr"/>
       <c r="D26" s="3" t="inlineStr"/>
@@ -3527,7 +3533,7 @@
       <c r="I26" s="2" t="inlineStr"/>
     </row>
     <row r="27" ht="18" customHeight="1">
-      <c r="A27" s="4" t="inlineStr"/>
+      <c r="A27" s="5" t="inlineStr"/>
       <c r="B27" s="2" t="inlineStr"/>
       <c r="C27" s="2" t="inlineStr"/>
       <c r="D27" s="3" t="inlineStr"/>
@@ -3538,7 +3544,7 @@
       <c r="I27" s="2" t="inlineStr"/>
     </row>
     <row r="28" ht="18" customHeight="1">
-      <c r="A28" s="4" t="inlineStr"/>
+      <c r="A28" s="5" t="inlineStr"/>
       <c r="B28" s="2" t="inlineStr"/>
       <c r="C28" s="2" t="inlineStr"/>
       <c r="D28" s="3" t="inlineStr"/>
@@ -3549,7 +3555,7 @@
       <c r="I28" s="2" t="inlineStr"/>
     </row>
     <row r="29" ht="18" customHeight="1">
-      <c r="A29" s="4" t="inlineStr"/>
+      <c r="A29" s="5" t="inlineStr"/>
       <c r="B29" s="2" t="inlineStr"/>
       <c r="C29" s="2" t="inlineStr"/>
       <c r="D29" s="3" t="inlineStr"/>
@@ -3560,7 +3566,7 @@
       <c r="I29" s="2" t="inlineStr"/>
     </row>
     <row r="30" ht="18" customHeight="1">
-      <c r="A30" s="4" t="inlineStr"/>
+      <c r="A30" s="5" t="inlineStr"/>
       <c r="B30" s="2" t="inlineStr"/>
       <c r="C30" s="2" t="inlineStr"/>
       <c r="D30" s="3" t="inlineStr"/>
@@ -3571,7 +3577,7 @@
       <c r="I30" s="2" t="inlineStr"/>
     </row>
     <row r="31" ht="18" customHeight="1">
-      <c r="A31" s="4" t="inlineStr"/>
+      <c r="A31" s="5" t="inlineStr"/>
       <c r="B31" s="2" t="inlineStr"/>
       <c r="C31" s="2" t="inlineStr"/>
       <c r="D31" s="3" t="inlineStr"/>
@@ -3582,7 +3588,7 @@
       <c r="I31" s="2" t="inlineStr"/>
     </row>
     <row r="32" ht="18" customHeight="1">
-      <c r="A32" s="4" t="inlineStr"/>
+      <c r="A32" s="5" t="inlineStr"/>
       <c r="B32" s="2" t="inlineStr"/>
       <c r="C32" s="2" t="inlineStr"/>
       <c r="D32" s="3" t="inlineStr"/>
@@ -3593,7 +3599,7 @@
       <c r="I32" s="2" t="inlineStr"/>
     </row>
     <row r="33" ht="18" customHeight="1">
-      <c r="A33" s="4" t="inlineStr"/>
+      <c r="A33" s="5" t="inlineStr"/>
       <c r="B33" s="2" t="inlineStr"/>
       <c r="C33" s="2" t="inlineStr"/>
       <c r="D33" s="3" t="inlineStr"/>
@@ -3604,7 +3610,7 @@
       <c r="I33" s="2" t="inlineStr"/>
     </row>
     <row r="34" ht="18" customHeight="1">
-      <c r="A34" s="4" t="inlineStr"/>
+      <c r="A34" s="5" t="inlineStr"/>
       <c r="B34" s="2" t="inlineStr"/>
       <c r="C34" s="2" t="inlineStr"/>
       <c r="D34" s="3" t="inlineStr"/>
@@ -3615,7 +3621,7 @@
       <c r="I34" s="2" t="inlineStr"/>
     </row>
     <row r="35" ht="18" customHeight="1">
-      <c r="A35" s="4" t="inlineStr"/>
+      <c r="A35" s="5" t="inlineStr"/>
       <c r="B35" s="2" t="inlineStr"/>
       <c r="C35" s="2" t="inlineStr"/>
       <c r="D35" s="3" t="inlineStr"/>
@@ -3626,7 +3632,7 @@
       <c r="I35" s="2" t="inlineStr"/>
     </row>
     <row r="36" ht="18" customHeight="1">
-      <c r="A36" s="4" t="inlineStr"/>
+      <c r="A36" s="5" t="inlineStr"/>
       <c r="B36" s="2" t="inlineStr"/>
       <c r="C36" s="2" t="inlineStr"/>
       <c r="D36" s="3" t="inlineStr"/>
@@ -3637,7 +3643,7 @@
       <c r="I36" s="2" t="inlineStr"/>
     </row>
     <row r="37" ht="18" customHeight="1">
-      <c r="A37" s="4" t="inlineStr"/>
+      <c r="A37" s="5" t="inlineStr"/>
       <c r="B37" s="2" t="inlineStr"/>
       <c r="C37" s="2" t="inlineStr"/>
       <c r="D37" s="3" t="inlineStr"/>
@@ -3648,7 +3654,7 @@
       <c r="I37" s="2" t="inlineStr"/>
     </row>
     <row r="38" ht="18" customHeight="1">
-      <c r="A38" s="4" t="inlineStr"/>
+      <c r="A38" s="5" t="inlineStr"/>
       <c r="B38" s="2" t="inlineStr"/>
       <c r="C38" s="2" t="inlineStr"/>
       <c r="D38" s="3" t="inlineStr"/>
@@ -3659,7 +3665,7 @@
       <c r="I38" s="2" t="inlineStr"/>
     </row>
     <row r="39" ht="18" customHeight="1">
-      <c r="A39" s="4" t="inlineStr"/>
+      <c r="A39" s="5" t="inlineStr"/>
       <c r="B39" s="2" t="inlineStr"/>
       <c r="C39" s="2" t="inlineStr"/>
       <c r="D39" s="3" t="inlineStr"/>
@@ -3670,7 +3676,7 @@
       <c r="I39" s="2" t="inlineStr"/>
     </row>
     <row r="40" ht="18" customHeight="1">
-      <c r="A40" s="4" t="inlineStr"/>
+      <c r="A40" s="5" t="inlineStr"/>
       <c r="B40" s="2" t="inlineStr"/>
       <c r="C40" s="2" t="inlineStr"/>
       <c r="D40" s="3" t="inlineStr"/>
@@ -3681,7 +3687,7 @@
       <c r="I40" s="2" t="inlineStr"/>
     </row>
     <row r="41" ht="18" customHeight="1">
-      <c r="A41" s="4" t="inlineStr"/>
+      <c r="A41" s="5" t="inlineStr"/>
       <c r="B41" s="2" t="inlineStr"/>
       <c r="C41" s="2" t="inlineStr"/>
       <c r="D41" s="3" t="inlineStr"/>
@@ -3692,7 +3698,7 @@
       <c r="I41" s="2" t="inlineStr"/>
     </row>
     <row r="42" ht="18" customHeight="1">
-      <c r="A42" s="4" t="inlineStr"/>
+      <c r="A42" s="5" t="inlineStr"/>
       <c r="B42" s="2" t="inlineStr"/>
       <c r="C42" s="2" t="inlineStr"/>
       <c r="D42" s="3" t="inlineStr"/>
@@ -3703,7 +3709,7 @@
       <c r="I42" s="2" t="inlineStr"/>
     </row>
     <row r="43" ht="18" customHeight="1">
-      <c r="A43" s="4" t="inlineStr"/>
+      <c r="A43" s="5" t="inlineStr"/>
       <c r="B43" s="2" t="inlineStr"/>
       <c r="C43" s="2" t="inlineStr"/>
       <c r="D43" s="3" t="inlineStr"/>
@@ -3714,7 +3720,7 @@
       <c r="I43" s="2" t="inlineStr"/>
     </row>
     <row r="44" ht="18" customHeight="1">
-      <c r="A44" s="4" t="inlineStr"/>
+      <c r="A44" s="5" t="inlineStr"/>
       <c r="B44" s="2" t="inlineStr"/>
       <c r="C44" s="2" t="inlineStr"/>
       <c r="D44" s="3" t="inlineStr"/>
@@ -3725,7 +3731,7 @@
       <c r="I44" s="2" t="inlineStr"/>
     </row>
     <row r="45" ht="18" customHeight="1">
-      <c r="A45" s="4" t="inlineStr"/>
+      <c r="A45" s="5" t="inlineStr"/>
       <c r="B45" s="2" t="inlineStr"/>
       <c r="C45" s="2" t="inlineStr"/>
       <c r="D45" s="3" t="inlineStr"/>
@@ -3736,7 +3742,7 @@
       <c r="I45" s="2" t="inlineStr"/>
     </row>
     <row r="46" ht="18" customHeight="1">
-      <c r="A46" s="4" t="inlineStr"/>
+      <c r="A46" s="5" t="inlineStr"/>
       <c r="B46" s="2" t="inlineStr"/>
       <c r="C46" s="2" t="inlineStr"/>
       <c r="D46" s="3" t="inlineStr"/>
@@ -3747,7 +3753,7 @@
       <c r="I46" s="2" t="inlineStr"/>
     </row>
     <row r="47" ht="18" customHeight="1">
-      <c r="A47" s="4" t="inlineStr"/>
+      <c r="A47" s="5" t="inlineStr"/>
       <c r="B47" s="2" t="inlineStr"/>
       <c r="C47" s="2" t="inlineStr"/>
       <c r="D47" s="3" t="inlineStr"/>
@@ -3758,7 +3764,7 @@
       <c r="I47" s="2" t="inlineStr"/>
     </row>
     <row r="48" ht="18" customHeight="1">
-      <c r="A48" s="4" t="inlineStr"/>
+      <c r="A48" s="5" t="inlineStr"/>
       <c r="B48" s="2" t="inlineStr"/>
       <c r="C48" s="2" t="inlineStr"/>
       <c r="D48" s="3" t="inlineStr"/>
@@ -3769,7 +3775,7 @@
       <c r="I48" s="2" t="inlineStr"/>
     </row>
     <row r="49" ht="18" customHeight="1">
-      <c r="A49" s="4" t="inlineStr"/>
+      <c r="A49" s="5" t="inlineStr"/>
       <c r="B49" s="2" t="inlineStr"/>
       <c r="C49" s="2" t="inlineStr"/>
       <c r="D49" s="3" t="inlineStr"/>
